--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9796258261582832</v>
+        <v>0.9796258261582811</v>
       </c>
       <c r="D2">
-        <v>1.001903745854518</v>
+        <v>1.001903745854516</v>
       </c>
       <c r="E2">
-        <v>0.9821624056555579</v>
+        <v>0.9821624056555557</v>
       </c>
       <c r="F2">
-        <v>0.9336709916001524</v>
+        <v>0.9336709916001501</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035914823833244</v>
+        <v>1.035914823833242</v>
       </c>
       <c r="J2">
-        <v>1.002433484153574</v>
+        <v>1.002433484153572</v>
       </c>
       <c r="K2">
-        <v>1.013336622037815</v>
+        <v>1.013336622037813</v>
       </c>
       <c r="L2">
-        <v>0.9938759701160208</v>
+        <v>0.9938759701160185</v>
       </c>
       <c r="M2">
-        <v>0.9461388563155054</v>
+        <v>0.9461388563155032</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9897336481338728</v>
+        <v>0.9897336481338719</v>
       </c>
       <c r="D3">
-        <v>1.009792397183</v>
+        <v>1.009792397182999</v>
       </c>
       <c r="E3">
-        <v>0.9916675977995744</v>
+        <v>0.9916675977995735</v>
       </c>
       <c r="F3">
-        <v>0.9495555982427212</v>
+        <v>0.9495555982427198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039753287525064</v>
+        <v>1.039753287525063</v>
       </c>
       <c r="J3">
-        <v>1.010508151415911</v>
+        <v>1.01050815141591</v>
       </c>
       <c r="K3">
-        <v>1.020301497128681</v>
+        <v>1.02030149712868</v>
       </c>
       <c r="L3">
-        <v>1.002408215283718</v>
+        <v>1.002408215283717</v>
       </c>
       <c r="M3">
-        <v>0.9608773787688603</v>
+        <v>0.960877378768859</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9959686494602537</v>
+        <v>0.9959686494602555</v>
       </c>
       <c r="D4">
-        <v>1.014660493269374</v>
+        <v>1.014660493269376</v>
       </c>
       <c r="E4">
-        <v>0.9975217861529032</v>
+        <v>0.9975217861529052</v>
       </c>
       <c r="F4">
-        <v>0.9592827621929489</v>
+        <v>0.9592827621929504</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042101606732576</v>
+        <v>1.042101606732577</v>
       </c>
       <c r="J4">
-        <v>1.015476042798962</v>
+        <v>1.015476042798964</v>
       </c>
       <c r="K4">
-        <v>1.024585141364067</v>
+        <v>1.024585141364069</v>
       </c>
       <c r="L4">
-        <v>1.007650213342734</v>
+        <v>1.007650213342736</v>
       </c>
       <c r="M4">
-        <v>0.9698987868329748</v>
+        <v>0.9698987868329761</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9985232868852835</v>
+        <v>0.9985232868852824</v>
       </c>
       <c r="D5">
-        <v>1.016655390292135</v>
+        <v>1.016655390292134</v>
       </c>
       <c r="E5">
-        <v>0.9999184203203038</v>
+        <v>0.9999184203203023</v>
       </c>
       <c r="F5">
-        <v>0.9632539959392886</v>
+        <v>0.9632539959392868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043059077205201</v>
+        <v>1.0430590772052</v>
       </c>
       <c r="J5">
-        <v>1.017508467068095</v>
+        <v>1.017508467068094</v>
       </c>
       <c r="K5">
-        <v>1.026337203781697</v>
+        <v>1.026337203781696</v>
       </c>
       <c r="L5">
-        <v>1.009793205115222</v>
+        <v>1.009793205115221</v>
       </c>
       <c r="M5">
-        <v>0.9735807944984222</v>
+        <v>0.9735807944984203</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9989484910919267</v>
+        <v>0.9989484910919241</v>
       </c>
       <c r="D6">
-        <v>1.016987443165021</v>
+        <v>1.016987443165018</v>
       </c>
       <c r="E6">
-        <v>1.000317214788587</v>
+        <v>1.000317214788584</v>
       </c>
       <c r="F6">
-        <v>0.963914220260732</v>
+        <v>0.9639142202607296</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04321816511217</v>
+        <v>1.043218165112169</v>
       </c>
       <c r="J6">
-        <v>1.017846574218172</v>
+        <v>1.017846574218169</v>
       </c>
       <c r="K6">
-        <v>1.026628643561528</v>
+        <v>1.026628643561526</v>
       </c>
       <c r="L6">
-        <v>1.010149618678774</v>
+        <v>1.010149618678772</v>
       </c>
       <c r="M6">
-        <v>0.9741928663708282</v>
+        <v>0.9741928663708257</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9960030382455808</v>
+        <v>0.9960030382455807</v>
       </c>
       <c r="D7">
         <v>1.014687346163063</v>
       </c>
       <c r="E7">
-        <v>0.9975540556072224</v>
+        <v>0.9975540556072225</v>
       </c>
       <c r="F7">
-        <v>0.9593362733315142</v>
+        <v>0.9593362733315148</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.024608738599667</v>
       </c>
       <c r="L7">
-        <v>1.007679079517918</v>
+        <v>1.007679079517919</v>
       </c>
       <c r="M7">
-        <v>0.9699484052613712</v>
+        <v>0.9699484052613717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9831093501068634</v>
+        <v>0.9831093501068636</v>
       </c>
       <c r="D8">
         <v>1.004621931610969</v>
       </c>
       <c r="E8">
-        <v>0.9854403235911364</v>
+        <v>0.9854403235911365</v>
       </c>
       <c r="F8">
-        <v>0.939162596768283</v>
+        <v>0.9391625967682825</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.015739657769381</v>
       </c>
       <c r="L8">
-        <v>0.9968211948616773</v>
+        <v>0.9968211948616772</v>
       </c>
       <c r="M8">
-        <v>0.9512349801651312</v>
+        <v>0.951234980165131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.95768465726365</v>
+        <v>0.9576846572636495</v>
       </c>
       <c r="D9">
-        <v>0.9848001492581917</v>
+        <v>0.9848001492581911</v>
       </c>
       <c r="E9">
-        <v>0.9614632957402515</v>
+        <v>0.9614632957402507</v>
       </c>
       <c r="F9">
-        <v>0.8985964535241712</v>
+        <v>0.8985964535241696</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027470381078742</v>
       </c>
       <c r="J9">
-        <v>0.9848255653465774</v>
+        <v>0.9848255653465767</v>
       </c>
       <c r="K9">
-        <v>0.9981447432306144</v>
+        <v>0.9981447432306139</v>
       </c>
       <c r="L9">
-        <v>0.9752141608688305</v>
+        <v>0.9752141608688298</v>
       </c>
       <c r="M9">
-        <v>0.9135810789849904</v>
+        <v>0.9135810789849886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.938243718139179</v>
+        <v>0.9382437181391787</v>
       </c>
       <c r="D10">
-        <v>0.9696771120804681</v>
+        <v>0.969677112080468</v>
       </c>
       <c r="E10">
-        <v>0.9430379500503435</v>
+        <v>0.9430379500503431</v>
       </c>
       <c r="F10">
-        <v>0.8666542827582371</v>
+        <v>0.866654282758237</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.019886071406649</v>
       </c>
       <c r="J10">
-        <v>0.9691415054316068</v>
+        <v>0.9691415054316065</v>
       </c>
       <c r="K10">
-        <v>0.9846163234574318</v>
+        <v>0.9846163234574317</v>
       </c>
       <c r="L10">
-        <v>0.9585179142694968</v>
+        <v>0.9585179142694964</v>
       </c>
       <c r="M10">
-        <v>0.8839356104925327</v>
+        <v>0.8839356104925326</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.929010114283278</v>
+        <v>0.9290101142832765</v>
       </c>
       <c r="D11">
-        <v>0.9625067940433215</v>
+        <v>0.9625067940433205</v>
       </c>
       <c r="E11">
-        <v>0.9342540825815828</v>
+        <v>0.9342540825815818</v>
       </c>
       <c r="F11">
-        <v>0.8511247528618643</v>
+        <v>0.851124752861863</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016256768535288</v>
+        <v>1.016256768535287</v>
       </c>
       <c r="J11">
-        <v>0.9616663930666789</v>
+        <v>0.9616663930666776</v>
       </c>
       <c r="K11">
-        <v>0.9781721937096093</v>
+        <v>0.9781721937096082</v>
       </c>
       <c r="L11">
-        <v>0.9505323471210405</v>
+        <v>0.9505323471210395</v>
       </c>
       <c r="M11">
-        <v>0.8695311914934838</v>
+        <v>0.8695311914934823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9254296331835401</v>
+        <v>0.9254296331835407</v>
       </c>
       <c r="D12">
-        <v>0.9597287207772864</v>
+        <v>0.959728720777287</v>
       </c>
       <c r="E12">
-        <v>0.9308416208697341</v>
+        <v>0.9308416208697348</v>
       </c>
       <c r="F12">
-        <v>0.8450307447705033</v>
+        <v>0.845030744770504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01484531099795</v>
+        <v>1.014845310997951</v>
       </c>
       <c r="J12">
-        <v>0.9587632981792661</v>
+        <v>0.9587632981792668</v>
       </c>
       <c r="K12">
-        <v>0.9756703791133841</v>
+        <v>0.9756703791133847</v>
       </c>
       <c r="L12">
-        <v>0.9474256086283577</v>
+        <v>0.9474256086283581</v>
       </c>
       <c r="M12">
-        <v>0.8638809954002381</v>
+        <v>0.8638809954002387</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9262050525018266</v>
+        <v>0.9262050525018258</v>
       </c>
       <c r="D13">
-        <v>0.9603302506610748</v>
+        <v>0.9603302506610742</v>
       </c>
       <c r="E13">
-        <v>0.9315809699462855</v>
+        <v>0.9315809699462844</v>
       </c>
       <c r="F13">
-        <v>0.8463541407239745</v>
+        <v>0.8463541407239725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01515117592374</v>
+        <v>1.015151175923739</v>
       </c>
       <c r="J13">
-        <v>0.9593922322924253</v>
+        <v>0.9593922322924245</v>
       </c>
       <c r="K13">
-        <v>0.9762123325610715</v>
+        <v>0.9762123325610708</v>
       </c>
       <c r="L13">
-        <v>0.9480989275655572</v>
+        <v>0.9480989275655561</v>
       </c>
       <c r="M13">
-        <v>0.8651078870756973</v>
+        <v>0.8651078870756955</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287174273671492</v>
+        <v>0.9287174273671472</v>
       </c>
       <c r="D14">
-        <v>0.9622796501991776</v>
+        <v>0.9622796501991761</v>
       </c>
       <c r="E14">
-        <v>0.9339752693855542</v>
+        <v>0.9339752693855524</v>
       </c>
       <c r="F14">
-        <v>0.8506281818184593</v>
+        <v>0.8506281818184566</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016141472528289</v>
+        <v>1.016141472528288</v>
       </c>
       <c r="J14">
-        <v>0.9614291741825508</v>
+        <v>0.961429174182549</v>
       </c>
       <c r="K14">
-        <v>0.9779677443736563</v>
+        <v>0.9779677443736546</v>
       </c>
       <c r="L14">
-        <v>0.9502786050256239</v>
+        <v>0.9502786050256221</v>
       </c>
       <c r="M14">
-        <v>0.8690707310264804</v>
+        <v>0.8690707310264777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9302443869082961</v>
+        <v>0.9302443869082967</v>
       </c>
       <c r="D15">
-        <v>0.9634647657026377</v>
+        <v>0.9634647657026381</v>
       </c>
       <c r="E15">
-        <v>0.93542958250207</v>
+        <v>0.9354295825020704</v>
       </c>
       <c r="F15">
-        <v>0.8532157823604655</v>
+        <v>0.8532157823604657</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016742809589507</v>
       </c>
       <c r="J15">
-        <v>0.9626665695071492</v>
+        <v>0.9626665695071495</v>
       </c>
       <c r="K15">
-        <v>0.9790342428680165</v>
+        <v>0.9790342428680168</v>
       </c>
       <c r="L15">
-        <v>0.9516019645156463</v>
+        <v>0.9516019645156467</v>
       </c>
       <c r="M15">
-        <v>0.8714702608559636</v>
+        <v>0.8714702608559639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9388371634758185</v>
+        <v>0.9388371634758184</v>
       </c>
       <c r="D16">
-        <v>0.970138238288778</v>
+        <v>0.9701382382887778</v>
       </c>
       <c r="E16">
-        <v>0.9436017230353824</v>
+        <v>0.9436017230353821</v>
       </c>
       <c r="F16">
-        <v>0.8676437692720613</v>
+        <v>0.8676437692720607</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020118774923993</v>
       </c>
       <c r="J16">
-        <v>0.9696213644668668</v>
+        <v>0.9696213644668666</v>
       </c>
       <c r="K16">
-        <v>0.9850300974672704</v>
+        <v>0.9850300974672703</v>
       </c>
       <c r="L16">
         <v>0.9590298872276407</v>
       </c>
       <c r="M16">
-        <v>0.8848536536553442</v>
+        <v>0.8848536536553437</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9439919465917731</v>
+        <v>0.9439919465917741</v>
       </c>
       <c r="D17">
-        <v>0.974145085553184</v>
+        <v>0.9741450855531845</v>
       </c>
       <c r="E17">
-        <v>0.948495080379816</v>
+        <v>0.9484950803798168</v>
       </c>
       <c r="F17">
-        <v>0.8761979620262834</v>
+        <v>0.8761979620262845</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.022137110125507</v>
       </c>
       <c r="J17">
-        <v>0.9737866345434064</v>
+        <v>0.973786634543407</v>
       </c>
       <c r="K17">
-        <v>0.9886221581844747</v>
+        <v>0.9886221581844753</v>
       </c>
       <c r="L17">
-        <v>0.9634707503057447</v>
+        <v>0.9634707503057455</v>
       </c>
       <c r="M17">
-        <v>0.8927912088032705</v>
+        <v>0.8927912088032718</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9469222775313635</v>
+        <v>0.9469222775313639</v>
       </c>
       <c r="D18">
-        <v>0.9764239553304209</v>
+        <v>0.976423955330421</v>
       </c>
       <c r="E18">
-        <v>0.9512739409313263</v>
+        <v>0.9512739409313267</v>
       </c>
       <c r="F18">
-        <v>0.8810295125621601</v>
+        <v>0.881029512562161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023282008209611</v>
+        <v>1.023282008209612</v>
       </c>
       <c r="J18">
-        <v>0.9761521503772872</v>
+        <v>0.9761521503772875</v>
       </c>
       <c r="K18">
-        <v>0.9906624416504872</v>
+        <v>0.9906624416504873</v>
       </c>
       <c r="L18">
-        <v>0.9659903201948725</v>
+        <v>0.9659903201948729</v>
       </c>
       <c r="M18">
-        <v>0.8972751582611104</v>
+        <v>0.8972751582611115</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9479091901204919</v>
+        <v>0.9479091901204934</v>
       </c>
       <c r="D19">
-        <v>0.9771916362467271</v>
+        <v>0.9771916362467283</v>
       </c>
       <c r="E19">
-        <v>0.9522093873937638</v>
+        <v>0.9522093873937648</v>
       </c>
       <c r="F19">
-        <v>0.8826518556390367</v>
+        <v>0.8826518556390379</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023667184277764</v>
       </c>
       <c r="J19">
-        <v>0.9769484593775299</v>
+        <v>0.9769484593775311</v>
       </c>
       <c r="K19">
-        <v>0.9913493099993442</v>
+        <v>0.9913493099993451</v>
       </c>
       <c r="L19">
-        <v>0.9668380986997501</v>
+        <v>0.9668380986997512</v>
       </c>
       <c r="M19">
-        <v>0.8987808771118767</v>
+        <v>0.8987808771118779</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9434469576410731</v>
+        <v>0.9434469576410729</v>
       </c>
       <c r="D20">
-        <v>0.9737213437765142</v>
+        <v>0.9737213437765138</v>
       </c>
       <c r="E20">
-        <v>0.9479780373745902</v>
+        <v>0.9479780373745897</v>
       </c>
       <c r="F20">
-        <v>0.8752969368341775</v>
+        <v>0.8752969368341771</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021923979192238</v>
+        <v>1.021923979192237</v>
       </c>
       <c r="J20">
-        <v>0.9733465062083035</v>
+        <v>0.9733465062083029</v>
       </c>
       <c r="K20">
-        <v>0.9882425652310006</v>
+        <v>0.9882425652310002</v>
       </c>
       <c r="L20">
-        <v>0.9630017648069364</v>
+        <v>0.9630017648069361</v>
       </c>
       <c r="M20">
-        <v>0.8919550573813062</v>
+        <v>0.8919550573813056</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9279820372771955</v>
+        <v>0.9279820372771965</v>
       </c>
       <c r="D21">
-        <v>0.9617089792648335</v>
+        <v>0.9617089792648342</v>
       </c>
       <c r="E21">
-        <v>0.9332746297034346</v>
+        <v>0.933274629703435</v>
       </c>
       <c r="F21">
-        <v>0.8493792936757946</v>
+        <v>0.849379293675795</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015851719298802</v>
       </c>
       <c r="J21">
-        <v>0.9608330757627699</v>
+        <v>0.9608330757627709</v>
       </c>
       <c r="K21">
-        <v>0.9774540067232755</v>
+        <v>0.9774540067232762</v>
       </c>
       <c r="L21">
-        <v>0.9496408949599644</v>
+        <v>0.949640894959965</v>
       </c>
       <c r="M21">
-        <v>0.8679127027605096</v>
+        <v>0.8679127027605101</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9173632840985514</v>
+        <v>0.9173632840985526</v>
       </c>
       <c r="D22">
-        <v>0.9534750454901049</v>
+        <v>0.9534750454901056</v>
       </c>
       <c r="E22">
-        <v>0.923139533874226</v>
+        <v>0.9231395338742273</v>
       </c>
       <c r="F22">
-        <v>0.8311379904584412</v>
+        <v>0.8311379904584432</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011657610290781</v>
+        <v>1.011657610290782</v>
       </c>
       <c r="J22">
-        <v>0.9522136042412688</v>
+        <v>0.9522136042412698</v>
       </c>
       <c r="K22">
-        <v>0.9700281629518477</v>
+        <v>0.9700281629518486</v>
       </c>
       <c r="L22">
-        <v>0.9404045436285851</v>
+        <v>0.9404045436285863</v>
       </c>
       <c r="M22">
-        <v>0.8510059655728162</v>
+        <v>0.8510059655728183</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9230900040488355</v>
+        <v>0.923090004048834</v>
       </c>
       <c r="D23">
-        <v>0.9579141413781291</v>
+        <v>0.9579141413781275</v>
       </c>
       <c r="E23">
-        <v>0.9286097331024337</v>
+        <v>0.9286097331024323</v>
       </c>
       <c r="F23">
-        <v>0.8410252262599035</v>
+        <v>0.8410252262599011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013921825540308</v>
+        <v>1.013921825540307</v>
       </c>
       <c r="J23">
-        <v>0.9568649243028483</v>
+        <v>0.956864924302847</v>
       </c>
       <c r="K23">
-        <v>0.9740347101503842</v>
+        <v>0.9740347101503827</v>
       </c>
       <c r="L23">
-        <v>0.9453923493921425</v>
+        <v>0.9453923493921413</v>
       </c>
       <c r="M23">
-        <v>0.8601680111072875</v>
+        <v>0.8601680111072851</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9436934486924616</v>
+        <v>0.9436934486924629</v>
       </c>
       <c r="D24">
-        <v>0.9739129929729731</v>
+        <v>0.9739129929729742</v>
       </c>
       <c r="E24">
-        <v>0.9482118976873716</v>
+        <v>0.9482118976873724</v>
       </c>
       <c r="F24">
-        <v>0.8757045545652558</v>
+        <v>0.8757045545652573</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.022020383084291</v>
       </c>
       <c r="J24">
-        <v>0.973545577406864</v>
+        <v>0.973545577406865</v>
       </c>
       <c r="K24">
-        <v>0.9884142551992661</v>
+        <v>0.9884142551992668</v>
       </c>
       <c r="L24">
-        <v>0.9632138957814277</v>
+        <v>0.9632138957814289</v>
       </c>
       <c r="M24">
-        <v>0.8923333245736176</v>
+        <v>0.8923333245736189</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9646369625968477</v>
+        <v>0.9646369625968476</v>
       </c>
       <c r="D25">
-        <v>0.9902160197267308</v>
+        <v>0.9902160197267306</v>
       </c>
       <c r="E25">
-        <v>0.9680322963614811</v>
+        <v>0.9680322963614812</v>
       </c>
       <c r="F25">
-        <v>0.9098089152894309</v>
+        <v>0.9098089152894304</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030160883784271</v>
       </c>
       <c r="J25">
-        <v>0.9904159926182499</v>
+        <v>0.9904159926182498</v>
       </c>
       <c r="K25">
         <v>1.002968142230545</v>
       </c>
       <c r="L25">
-        <v>0.9811480060388837</v>
+        <v>0.9811480060388836</v>
       </c>
       <c r="M25">
-        <v>0.9239897494581815</v>
+        <v>0.923989749458181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9796258261582811</v>
+        <v>0.9796258261582832</v>
       </c>
       <c r="D2">
-        <v>1.001903745854516</v>
+        <v>1.001903745854518</v>
       </c>
       <c r="E2">
-        <v>0.9821624056555557</v>
+        <v>0.9821624056555579</v>
       </c>
       <c r="F2">
-        <v>0.9336709916001501</v>
+        <v>0.9336709916001524</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035914823833242</v>
+        <v>1.035914823833244</v>
       </c>
       <c r="J2">
-        <v>1.002433484153572</v>
+        <v>1.002433484153574</v>
       </c>
       <c r="K2">
-        <v>1.013336622037813</v>
+        <v>1.013336622037815</v>
       </c>
       <c r="L2">
-        <v>0.9938759701160185</v>
+        <v>0.9938759701160208</v>
       </c>
       <c r="M2">
-        <v>0.9461388563155032</v>
+        <v>0.9461388563155054</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9897336481338719</v>
+        <v>0.9897336481338728</v>
       </c>
       <c r="D3">
-        <v>1.009792397182999</v>
+        <v>1.009792397183</v>
       </c>
       <c r="E3">
-        <v>0.9916675977995735</v>
+        <v>0.9916675977995744</v>
       </c>
       <c r="F3">
-        <v>0.9495555982427198</v>
+        <v>0.9495555982427212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039753287525063</v>
+        <v>1.039753287525064</v>
       </c>
       <c r="J3">
-        <v>1.01050815141591</v>
+        <v>1.010508151415911</v>
       </c>
       <c r="K3">
-        <v>1.02030149712868</v>
+        <v>1.020301497128681</v>
       </c>
       <c r="L3">
-        <v>1.002408215283717</v>
+        <v>1.002408215283718</v>
       </c>
       <c r="M3">
-        <v>0.960877378768859</v>
+        <v>0.9608773787688603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9959686494602555</v>
+        <v>0.9959686494602537</v>
       </c>
       <c r="D4">
-        <v>1.014660493269376</v>
+        <v>1.014660493269374</v>
       </c>
       <c r="E4">
-        <v>0.9975217861529052</v>
+        <v>0.9975217861529032</v>
       </c>
       <c r="F4">
-        <v>0.9592827621929504</v>
+        <v>0.9592827621929489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042101606732577</v>
+        <v>1.042101606732576</v>
       </c>
       <c r="J4">
-        <v>1.015476042798964</v>
+        <v>1.015476042798962</v>
       </c>
       <c r="K4">
-        <v>1.024585141364069</v>
+        <v>1.024585141364067</v>
       </c>
       <c r="L4">
-        <v>1.007650213342736</v>
+        <v>1.007650213342734</v>
       </c>
       <c r="M4">
-        <v>0.9698987868329761</v>
+        <v>0.9698987868329748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9985232868852824</v>
+        <v>0.9985232868852835</v>
       </c>
       <c r="D5">
-        <v>1.016655390292134</v>
+        <v>1.016655390292135</v>
       </c>
       <c r="E5">
-        <v>0.9999184203203023</v>
+        <v>0.9999184203203038</v>
       </c>
       <c r="F5">
-        <v>0.9632539959392868</v>
+        <v>0.9632539959392886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0430590772052</v>
+        <v>1.043059077205201</v>
       </c>
       <c r="J5">
-        <v>1.017508467068094</v>
+        <v>1.017508467068095</v>
       </c>
       <c r="K5">
-        <v>1.026337203781696</v>
+        <v>1.026337203781697</v>
       </c>
       <c r="L5">
-        <v>1.009793205115221</v>
+        <v>1.009793205115222</v>
       </c>
       <c r="M5">
-        <v>0.9735807944984203</v>
+        <v>0.9735807944984222</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9989484910919241</v>
+        <v>0.9989484910919267</v>
       </c>
       <c r="D6">
-        <v>1.016987443165018</v>
+        <v>1.016987443165021</v>
       </c>
       <c r="E6">
-        <v>1.000317214788584</v>
+        <v>1.000317214788587</v>
       </c>
       <c r="F6">
-        <v>0.9639142202607296</v>
+        <v>0.963914220260732</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043218165112169</v>
+        <v>1.04321816511217</v>
       </c>
       <c r="J6">
-        <v>1.017846574218169</v>
+        <v>1.017846574218172</v>
       </c>
       <c r="K6">
-        <v>1.026628643561526</v>
+        <v>1.026628643561528</v>
       </c>
       <c r="L6">
-        <v>1.010149618678772</v>
+        <v>1.010149618678774</v>
       </c>
       <c r="M6">
-        <v>0.9741928663708257</v>
+        <v>0.9741928663708282</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9960030382455807</v>
+        <v>0.9960030382455808</v>
       </c>
       <c r="D7">
         <v>1.014687346163063</v>
       </c>
       <c r="E7">
-        <v>0.9975540556072225</v>
+        <v>0.9975540556072224</v>
       </c>
       <c r="F7">
-        <v>0.9593362733315148</v>
+        <v>0.9593362733315142</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.024608738599667</v>
       </c>
       <c r="L7">
-        <v>1.007679079517919</v>
+        <v>1.007679079517918</v>
       </c>
       <c r="M7">
-        <v>0.9699484052613717</v>
+        <v>0.9699484052613712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9831093501068636</v>
+        <v>0.9831093501068634</v>
       </c>
       <c r="D8">
         <v>1.004621931610969</v>
       </c>
       <c r="E8">
-        <v>0.9854403235911365</v>
+        <v>0.9854403235911364</v>
       </c>
       <c r="F8">
-        <v>0.9391625967682825</v>
+        <v>0.939162596768283</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.015739657769381</v>
       </c>
       <c r="L8">
-        <v>0.9968211948616772</v>
+        <v>0.9968211948616773</v>
       </c>
       <c r="M8">
-        <v>0.951234980165131</v>
+        <v>0.9512349801651312</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9576846572636495</v>
+        <v>0.95768465726365</v>
       </c>
       <c r="D9">
-        <v>0.9848001492581911</v>
+        <v>0.9848001492581917</v>
       </c>
       <c r="E9">
-        <v>0.9614632957402507</v>
+        <v>0.9614632957402515</v>
       </c>
       <c r="F9">
-        <v>0.8985964535241696</v>
+        <v>0.8985964535241712</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027470381078742</v>
       </c>
       <c r="J9">
-        <v>0.9848255653465767</v>
+        <v>0.9848255653465774</v>
       </c>
       <c r="K9">
-        <v>0.9981447432306139</v>
+        <v>0.9981447432306144</v>
       </c>
       <c r="L9">
-        <v>0.9752141608688298</v>
+        <v>0.9752141608688305</v>
       </c>
       <c r="M9">
-        <v>0.9135810789849886</v>
+        <v>0.9135810789849904</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9382437181391787</v>
+        <v>0.938243718139179</v>
       </c>
       <c r="D10">
-        <v>0.969677112080468</v>
+        <v>0.9696771120804681</v>
       </c>
       <c r="E10">
-        <v>0.9430379500503431</v>
+        <v>0.9430379500503435</v>
       </c>
       <c r="F10">
-        <v>0.866654282758237</v>
+        <v>0.8666542827582371</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.019886071406649</v>
       </c>
       <c r="J10">
-        <v>0.9691415054316065</v>
+        <v>0.9691415054316068</v>
       </c>
       <c r="K10">
-        <v>0.9846163234574317</v>
+        <v>0.9846163234574318</v>
       </c>
       <c r="L10">
-        <v>0.9585179142694964</v>
+        <v>0.9585179142694968</v>
       </c>
       <c r="M10">
-        <v>0.8839356104925326</v>
+        <v>0.8839356104925327</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9290101142832765</v>
+        <v>0.929010114283278</v>
       </c>
       <c r="D11">
-        <v>0.9625067940433205</v>
+        <v>0.9625067940433215</v>
       </c>
       <c r="E11">
-        <v>0.9342540825815818</v>
+        <v>0.9342540825815828</v>
       </c>
       <c r="F11">
-        <v>0.851124752861863</v>
+        <v>0.8511247528618643</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016256768535287</v>
+        <v>1.016256768535288</v>
       </c>
       <c r="J11">
-        <v>0.9616663930666776</v>
+        <v>0.9616663930666789</v>
       </c>
       <c r="K11">
-        <v>0.9781721937096082</v>
+        <v>0.9781721937096093</v>
       </c>
       <c r="L11">
-        <v>0.9505323471210395</v>
+        <v>0.9505323471210405</v>
       </c>
       <c r="M11">
-        <v>0.8695311914934823</v>
+        <v>0.8695311914934838</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9254296331835407</v>
+        <v>0.9254296331835401</v>
       </c>
       <c r="D12">
-        <v>0.959728720777287</v>
+        <v>0.9597287207772864</v>
       </c>
       <c r="E12">
-        <v>0.9308416208697348</v>
+        <v>0.9308416208697341</v>
       </c>
       <c r="F12">
-        <v>0.845030744770504</v>
+        <v>0.8450307447705033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014845310997951</v>
+        <v>1.01484531099795</v>
       </c>
       <c r="J12">
-        <v>0.9587632981792668</v>
+        <v>0.9587632981792661</v>
       </c>
       <c r="K12">
-        <v>0.9756703791133847</v>
+        <v>0.9756703791133841</v>
       </c>
       <c r="L12">
-        <v>0.9474256086283581</v>
+        <v>0.9474256086283577</v>
       </c>
       <c r="M12">
-        <v>0.8638809954002387</v>
+        <v>0.8638809954002381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9262050525018258</v>
+        <v>0.9262050525018266</v>
       </c>
       <c r="D13">
-        <v>0.9603302506610742</v>
+        <v>0.9603302506610748</v>
       </c>
       <c r="E13">
-        <v>0.9315809699462844</v>
+        <v>0.9315809699462855</v>
       </c>
       <c r="F13">
-        <v>0.8463541407239725</v>
+        <v>0.8463541407239745</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015151175923739</v>
+        <v>1.01515117592374</v>
       </c>
       <c r="J13">
-        <v>0.9593922322924245</v>
+        <v>0.9593922322924253</v>
       </c>
       <c r="K13">
-        <v>0.9762123325610708</v>
+        <v>0.9762123325610715</v>
       </c>
       <c r="L13">
-        <v>0.9480989275655561</v>
+        <v>0.9480989275655572</v>
       </c>
       <c r="M13">
-        <v>0.8651078870756955</v>
+        <v>0.8651078870756973</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287174273671472</v>
+        <v>0.9287174273671492</v>
       </c>
       <c r="D14">
-        <v>0.9622796501991761</v>
+        <v>0.9622796501991776</v>
       </c>
       <c r="E14">
-        <v>0.9339752693855524</v>
+        <v>0.9339752693855542</v>
       </c>
       <c r="F14">
-        <v>0.8506281818184566</v>
+        <v>0.8506281818184593</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016141472528288</v>
+        <v>1.016141472528289</v>
       </c>
       <c r="J14">
-        <v>0.961429174182549</v>
+        <v>0.9614291741825508</v>
       </c>
       <c r="K14">
-        <v>0.9779677443736546</v>
+        <v>0.9779677443736563</v>
       </c>
       <c r="L14">
-        <v>0.9502786050256221</v>
+        <v>0.9502786050256239</v>
       </c>
       <c r="M14">
-        <v>0.8690707310264777</v>
+        <v>0.8690707310264804</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9302443869082967</v>
+        <v>0.9302443869082961</v>
       </c>
       <c r="D15">
-        <v>0.9634647657026381</v>
+        <v>0.9634647657026377</v>
       </c>
       <c r="E15">
-        <v>0.9354295825020704</v>
+        <v>0.93542958250207</v>
       </c>
       <c r="F15">
-        <v>0.8532157823604657</v>
+        <v>0.8532157823604655</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016742809589507</v>
       </c>
       <c r="J15">
-        <v>0.9626665695071495</v>
+        <v>0.9626665695071492</v>
       </c>
       <c r="K15">
-        <v>0.9790342428680168</v>
+        <v>0.9790342428680165</v>
       </c>
       <c r="L15">
-        <v>0.9516019645156467</v>
+        <v>0.9516019645156463</v>
       </c>
       <c r="M15">
-        <v>0.8714702608559639</v>
+        <v>0.8714702608559636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9388371634758184</v>
+        <v>0.9388371634758185</v>
       </c>
       <c r="D16">
-        <v>0.9701382382887778</v>
+        <v>0.970138238288778</v>
       </c>
       <c r="E16">
-        <v>0.9436017230353821</v>
+        <v>0.9436017230353824</v>
       </c>
       <c r="F16">
-        <v>0.8676437692720607</v>
+        <v>0.8676437692720613</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020118774923993</v>
       </c>
       <c r="J16">
-        <v>0.9696213644668666</v>
+        <v>0.9696213644668668</v>
       </c>
       <c r="K16">
-        <v>0.9850300974672703</v>
+        <v>0.9850300974672704</v>
       </c>
       <c r="L16">
         <v>0.9590298872276407</v>
       </c>
       <c r="M16">
-        <v>0.8848536536553437</v>
+        <v>0.8848536536553442</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9439919465917741</v>
+        <v>0.9439919465917731</v>
       </c>
       <c r="D17">
-        <v>0.9741450855531845</v>
+        <v>0.974145085553184</v>
       </c>
       <c r="E17">
-        <v>0.9484950803798168</v>
+        <v>0.948495080379816</v>
       </c>
       <c r="F17">
-        <v>0.8761979620262845</v>
+        <v>0.8761979620262834</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.022137110125507</v>
       </c>
       <c r="J17">
-        <v>0.973786634543407</v>
+        <v>0.9737866345434064</v>
       </c>
       <c r="K17">
-        <v>0.9886221581844753</v>
+        <v>0.9886221581844747</v>
       </c>
       <c r="L17">
-        <v>0.9634707503057455</v>
+        <v>0.9634707503057447</v>
       </c>
       <c r="M17">
-        <v>0.8927912088032718</v>
+        <v>0.8927912088032705</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9469222775313639</v>
+        <v>0.9469222775313635</v>
       </c>
       <c r="D18">
-        <v>0.976423955330421</v>
+        <v>0.9764239553304209</v>
       </c>
       <c r="E18">
-        <v>0.9512739409313267</v>
+        <v>0.9512739409313263</v>
       </c>
       <c r="F18">
-        <v>0.881029512562161</v>
+        <v>0.8810295125621601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023282008209612</v>
+        <v>1.023282008209611</v>
       </c>
       <c r="J18">
-        <v>0.9761521503772875</v>
+        <v>0.9761521503772872</v>
       </c>
       <c r="K18">
-        <v>0.9906624416504873</v>
+        <v>0.9906624416504872</v>
       </c>
       <c r="L18">
-        <v>0.9659903201948729</v>
+        <v>0.9659903201948725</v>
       </c>
       <c r="M18">
-        <v>0.8972751582611115</v>
+        <v>0.8972751582611104</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9479091901204934</v>
+        <v>0.9479091901204919</v>
       </c>
       <c r="D19">
-        <v>0.9771916362467283</v>
+        <v>0.9771916362467271</v>
       </c>
       <c r="E19">
-        <v>0.9522093873937648</v>
+        <v>0.9522093873937638</v>
       </c>
       <c r="F19">
-        <v>0.8826518556390379</v>
+        <v>0.8826518556390367</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023667184277764</v>
       </c>
       <c r="J19">
-        <v>0.9769484593775311</v>
+        <v>0.9769484593775299</v>
       </c>
       <c r="K19">
-        <v>0.9913493099993451</v>
+        <v>0.9913493099993442</v>
       </c>
       <c r="L19">
-        <v>0.9668380986997512</v>
+        <v>0.9668380986997501</v>
       </c>
       <c r="M19">
-        <v>0.8987808771118779</v>
+        <v>0.8987808771118767</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9434469576410729</v>
+        <v>0.9434469576410731</v>
       </c>
       <c r="D20">
-        <v>0.9737213437765138</v>
+        <v>0.9737213437765142</v>
       </c>
       <c r="E20">
-        <v>0.9479780373745897</v>
+        <v>0.9479780373745902</v>
       </c>
       <c r="F20">
-        <v>0.8752969368341771</v>
+        <v>0.8752969368341775</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021923979192237</v>
+        <v>1.021923979192238</v>
       </c>
       <c r="J20">
-        <v>0.9733465062083029</v>
+        <v>0.9733465062083035</v>
       </c>
       <c r="K20">
-        <v>0.9882425652310002</v>
+        <v>0.9882425652310006</v>
       </c>
       <c r="L20">
-        <v>0.9630017648069361</v>
+        <v>0.9630017648069364</v>
       </c>
       <c r="M20">
-        <v>0.8919550573813056</v>
+        <v>0.8919550573813062</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9279820372771965</v>
+        <v>0.9279820372771955</v>
       </c>
       <c r="D21">
-        <v>0.9617089792648342</v>
+        <v>0.9617089792648335</v>
       </c>
       <c r="E21">
-        <v>0.933274629703435</v>
+        <v>0.9332746297034346</v>
       </c>
       <c r="F21">
-        <v>0.849379293675795</v>
+        <v>0.8493792936757946</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015851719298802</v>
       </c>
       <c r="J21">
-        <v>0.9608330757627709</v>
+        <v>0.9608330757627699</v>
       </c>
       <c r="K21">
-        <v>0.9774540067232762</v>
+        <v>0.9774540067232755</v>
       </c>
       <c r="L21">
-        <v>0.949640894959965</v>
+        <v>0.9496408949599644</v>
       </c>
       <c r="M21">
-        <v>0.8679127027605101</v>
+        <v>0.8679127027605096</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9173632840985526</v>
+        <v>0.9173632840985514</v>
       </c>
       <c r="D22">
-        <v>0.9534750454901056</v>
+        <v>0.9534750454901049</v>
       </c>
       <c r="E22">
-        <v>0.9231395338742273</v>
+        <v>0.923139533874226</v>
       </c>
       <c r="F22">
-        <v>0.8311379904584432</v>
+        <v>0.8311379904584412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011657610290782</v>
+        <v>1.011657610290781</v>
       </c>
       <c r="J22">
-        <v>0.9522136042412698</v>
+        <v>0.9522136042412688</v>
       </c>
       <c r="K22">
-        <v>0.9700281629518486</v>
+        <v>0.9700281629518477</v>
       </c>
       <c r="L22">
-        <v>0.9404045436285863</v>
+        <v>0.9404045436285851</v>
       </c>
       <c r="M22">
-        <v>0.8510059655728183</v>
+        <v>0.8510059655728162</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.923090004048834</v>
+        <v>0.9230900040488355</v>
       </c>
       <c r="D23">
-        <v>0.9579141413781275</v>
+        <v>0.9579141413781291</v>
       </c>
       <c r="E23">
-        <v>0.9286097331024323</v>
+        <v>0.9286097331024337</v>
       </c>
       <c r="F23">
-        <v>0.8410252262599011</v>
+        <v>0.8410252262599035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013921825540307</v>
+        <v>1.013921825540308</v>
       </c>
       <c r="J23">
-        <v>0.956864924302847</v>
+        <v>0.9568649243028483</v>
       </c>
       <c r="K23">
-        <v>0.9740347101503827</v>
+        <v>0.9740347101503842</v>
       </c>
       <c r="L23">
-        <v>0.9453923493921413</v>
+        <v>0.9453923493921425</v>
       </c>
       <c r="M23">
-        <v>0.8601680111072851</v>
+        <v>0.8601680111072875</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9436934486924629</v>
+        <v>0.9436934486924616</v>
       </c>
       <c r="D24">
-        <v>0.9739129929729742</v>
+        <v>0.9739129929729731</v>
       </c>
       <c r="E24">
-        <v>0.9482118976873724</v>
+        <v>0.9482118976873716</v>
       </c>
       <c r="F24">
-        <v>0.8757045545652573</v>
+        <v>0.8757045545652558</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.022020383084291</v>
       </c>
       <c r="J24">
-        <v>0.973545577406865</v>
+        <v>0.973545577406864</v>
       </c>
       <c r="K24">
-        <v>0.9884142551992668</v>
+        <v>0.9884142551992661</v>
       </c>
       <c r="L24">
-        <v>0.9632138957814289</v>
+        <v>0.9632138957814277</v>
       </c>
       <c r="M24">
-        <v>0.8923333245736189</v>
+        <v>0.8923333245736176</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9646369625968476</v>
+        <v>0.9646369625968477</v>
       </c>
       <c r="D25">
-        <v>0.9902160197267306</v>
+        <v>0.9902160197267308</v>
       </c>
       <c r="E25">
-        <v>0.9680322963614812</v>
+        <v>0.9680322963614811</v>
       </c>
       <c r="F25">
-        <v>0.9098089152894304</v>
+        <v>0.9098089152894309</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030160883784271</v>
       </c>
       <c r="J25">
-        <v>0.9904159926182498</v>
+        <v>0.9904159926182499</v>
       </c>
       <c r="K25">
         <v>1.002968142230545</v>
       </c>
       <c r="L25">
-        <v>0.9811480060388836</v>
+        <v>0.9811480060388837</v>
       </c>
       <c r="M25">
-        <v>0.923989749458181</v>
+        <v>0.9239897494581815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9796258261582832</v>
+        <v>0.9822474508192128</v>
       </c>
       <c r="D2">
-        <v>1.001903745854518</v>
+        <v>1.0040364164282</v>
       </c>
       <c r="E2">
-        <v>0.9821624056555579</v>
+        <v>0.9844594653069298</v>
       </c>
       <c r="F2">
-        <v>0.9336709916001524</v>
+        <v>0.9362453694722138</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035914823833244</v>
+        <v>1.037108943467634</v>
       </c>
       <c r="J2">
-        <v>1.002433484153574</v>
+        <v>1.004972420263437</v>
       </c>
       <c r="K2">
-        <v>1.013336622037815</v>
+        <v>1.015439802537798</v>
       </c>
       <c r="L2">
-        <v>0.9938759701160208</v>
+        <v>0.9961396359285533</v>
       </c>
       <c r="M2">
-        <v>0.9461388563155054</v>
+        <v>0.9486706626989222</v>
+      </c>
+      <c r="N2">
+        <v>1.006399596372159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9897336481338728</v>
+        <v>0.9923231150315465</v>
       </c>
       <c r="D3">
-        <v>1.009792397183</v>
+        <v>1.011902721230417</v>
       </c>
       <c r="E3">
-        <v>0.9916675977995744</v>
+        <v>0.9939340286732122</v>
       </c>
       <c r="F3">
-        <v>0.9495555982427212</v>
+        <v>0.9520594693201209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039753287525064</v>
+        <v>1.040936553894397</v>
       </c>
       <c r="J3">
-        <v>1.010508151415911</v>
+        <v>1.013025270187338</v>
       </c>
       <c r="K3">
-        <v>1.020301497128681</v>
+        <v>1.022385536504107</v>
       </c>
       <c r="L3">
-        <v>1.002408215283718</v>
+        <v>1.004645117669305</v>
       </c>
       <c r="M3">
-        <v>0.9608773787688603</v>
+        <v>0.9633448738268889</v>
+      </c>
+      <c r="N3">
+        <v>1.014463882266627</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9959686494602537</v>
+        <v>0.9985402017764921</v>
       </c>
       <c r="D4">
-        <v>1.014660493269374</v>
+        <v>1.016758466687374</v>
       </c>
       <c r="E4">
-        <v>0.9975217861529032</v>
+        <v>0.9997712434952868</v>
       </c>
       <c r="F4">
-        <v>0.9592827621929489</v>
+        <v>0.961747467566</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042101606732576</v>
+        <v>1.043278987638383</v>
       </c>
       <c r="J4">
-        <v>1.015476042798962</v>
+        <v>1.017981323198866</v>
       </c>
       <c r="K4">
-        <v>1.024585141364067</v>
+        <v>1.026658753274378</v>
       </c>
       <c r="L4">
-        <v>1.007650213342734</v>
+        <v>1.00987243019076</v>
       </c>
       <c r="M4">
-        <v>0.9698987868329748</v>
+        <v>0.9723305970310894</v>
+      </c>
+      <c r="N4">
+        <v>1.019426973441899</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9985232868852835</v>
+        <v>1.00108789827296</v>
       </c>
       <c r="D5">
-        <v>1.016655390292135</v>
+        <v>1.018748601569075</v>
       </c>
       <c r="E5">
-        <v>0.9999184203203038</v>
+        <v>1.002161320308027</v>
       </c>
       <c r="F5">
-        <v>0.9632539959392886</v>
+        <v>0.9657035290340249</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043059077205201</v>
+        <v>1.044234216078442</v>
       </c>
       <c r="J5">
-        <v>1.017508467068095</v>
+        <v>1.020009233478668</v>
       </c>
       <c r="K5">
-        <v>1.026337203781697</v>
+        <v>1.028406830630078</v>
       </c>
       <c r="L5">
-        <v>1.009793205115222</v>
+        <v>1.012009782623643</v>
       </c>
       <c r="M5">
-        <v>0.9735807944984222</v>
+        <v>0.9759987916589188</v>
+      </c>
+      <c r="N5">
+        <v>1.021457763586902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9989484910919267</v>
+        <v>1.001511969135261</v>
       </c>
       <c r="D6">
-        <v>1.016987443165021</v>
+        <v>1.019079878215005</v>
       </c>
       <c r="E6">
-        <v>1.000317214788587</v>
+        <v>1.002559045126409</v>
       </c>
       <c r="F6">
-        <v>0.963914220260732</v>
+        <v>0.9663612754693534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04321816511217</v>
+        <v>1.044392940160442</v>
       </c>
       <c r="J6">
-        <v>1.017846574218172</v>
+        <v>1.020346607799575</v>
       </c>
       <c r="K6">
-        <v>1.026628643561528</v>
+        <v>1.028697622935289</v>
       </c>
       <c r="L6">
-        <v>1.010149618678774</v>
+        <v>1.012365278284942</v>
       </c>
       <c r="M6">
-        <v>0.9741928663708282</v>
+        <v>0.9766086083069574</v>
+      </c>
+      <c r="N6">
+        <v>1.021795617018043</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9960030382455808</v>
+        <v>0.9985744956152314</v>
       </c>
       <c r="D7">
-        <v>1.014687346163063</v>
+        <v>1.016785254345494</v>
       </c>
       <c r="E7">
-        <v>0.9975540556072224</v>
+        <v>0.9998034231758722</v>
       </c>
       <c r="F7">
-        <v>0.9593362733315142</v>
+        <v>0.9618007711796899</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042114514238709</v>
+        <v>1.043291864320028</v>
       </c>
       <c r="J7">
-        <v>1.015503413934145</v>
+        <v>1.018008632294309</v>
       </c>
       <c r="K7">
-        <v>1.024608738599667</v>
+        <v>1.026682295775701</v>
       </c>
       <c r="L7">
-        <v>1.007679079517918</v>
+        <v>1.009901219022746</v>
       </c>
       <c r="M7">
-        <v>0.9699484052613712</v>
+        <v>0.9723800264806438</v>
+      </c>
+      <c r="N7">
+        <v>1.019454321319389</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9831093501068634</v>
+        <v>0.9857194379949525</v>
       </c>
       <c r="D8">
-        <v>1.004621931610969</v>
+        <v>1.006746562304231</v>
       </c>
       <c r="E8">
-        <v>0.9854403235911364</v>
+        <v>0.9877263726855685</v>
       </c>
       <c r="F8">
-        <v>0.939162596768283</v>
+        <v>0.9417116355574923</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037241830780301</v>
+        <v>1.038432019652874</v>
       </c>
       <c r="J8">
-        <v>1.005219123287975</v>
+        <v>1.007750157742671</v>
       </c>
       <c r="K8">
-        <v>1.015739657769381</v>
+        <v>1.017835916092384</v>
       </c>
       <c r="L8">
-        <v>0.9968211948616773</v>
+        <v>0.9990752054074866</v>
       </c>
       <c r="M8">
-        <v>0.9512349801651312</v>
+        <v>0.9537436660354672</v>
+      </c>
+      <c r="N8">
+        <v>1.009181278557225</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.95768465726365</v>
+        <v>0.9603913662411568</v>
       </c>
       <c r="D9">
-        <v>0.9848001492581917</v>
+        <v>0.9869927099070881</v>
       </c>
       <c r="E9">
-        <v>0.9614632957402515</v>
+        <v>0.9638422416769817</v>
       </c>
       <c r="F9">
-        <v>0.8985964535241712</v>
+        <v>0.901360167476924</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027470381078742</v>
+        <v>1.028694419859989</v>
       </c>
       <c r="J9">
-        <v>0.9848255653465774</v>
+        <v>0.9874247478452783</v>
       </c>
       <c r="K9">
-        <v>0.9981447432306144</v>
+        <v>1.00030040648976</v>
       </c>
       <c r="L9">
-        <v>0.9752141608688305</v>
+        <v>0.977550522582987</v>
       </c>
       <c r="M9">
-        <v>0.9135810789849904</v>
+        <v>0.9162857626874166</v>
+      </c>
+      <c r="N9">
+        <v>0.9888270042464199</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.938243718139179</v>
+        <v>0.9410477798607555</v>
       </c>
       <c r="D10">
-        <v>0.9696771120804681</v>
+        <v>0.9719391150412894</v>
       </c>
       <c r="E10">
-        <v>0.9430379500503435</v>
+        <v>0.9455118902429417</v>
       </c>
       <c r="F10">
-        <v>0.8666542827582371</v>
+        <v>0.8696416681951384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019886071406649</v>
+        <v>1.021145683491073</v>
       </c>
       <c r="J10">
-        <v>0.9691415054316068</v>
+        <v>0.9718126677322771</v>
       </c>
       <c r="K10">
-        <v>0.9846163234574318</v>
+        <v>0.9868341995950576</v>
       </c>
       <c r="L10">
-        <v>0.9585179142694968</v>
+        <v>0.9609399384324991</v>
       </c>
       <c r="M10">
-        <v>0.8839356104925327</v>
+        <v>0.8868444736283287</v>
+      </c>
+      <c r="N10">
+        <v>0.973192753188928</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.929010114283278</v>
+        <v>0.9318697848550914</v>
       </c>
       <c r="D11">
-        <v>0.9625067940433215</v>
+        <v>0.9648087876848702</v>
       </c>
       <c r="E11">
-        <v>0.9342540825815828</v>
+        <v>0.9367828476100195</v>
       </c>
       <c r="F11">
-        <v>0.8511247528618643</v>
+        <v>0.8542437721007814</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016256768535288</v>
+        <v>1.017537132851685</v>
       </c>
       <c r="J11">
-        <v>0.9616663930666789</v>
+        <v>0.9643797241010036</v>
       </c>
       <c r="K11">
-        <v>0.9781721937096093</v>
+        <v>0.9804263398912487</v>
       </c>
       <c r="L11">
-        <v>0.9505323471210405</v>
+        <v>0.9530042500544175</v>
       </c>
       <c r="M11">
-        <v>0.8695311914934838</v>
+        <v>0.8725601000925061</v>
+      </c>
+      <c r="N11">
+        <v>0.9657492539251274</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9254296331835401</v>
+        <v>0.9283128293351011</v>
       </c>
       <c r="D12">
-        <v>0.9597287207772864</v>
+        <v>0.9620476935213674</v>
       </c>
       <c r="E12">
-        <v>0.9308416208697341</v>
+        <v>0.933393696705758</v>
       </c>
       <c r="F12">
-        <v>0.8450307447705033</v>
+        <v>0.8482063354607512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01484531099795</v>
+        <v>1.016134530485819</v>
       </c>
       <c r="J12">
-        <v>0.9587632981792661</v>
+        <v>0.9614946600622175</v>
       </c>
       <c r="K12">
-        <v>0.9756703791133841</v>
+        <v>0.9779400016630491</v>
       </c>
       <c r="L12">
-        <v>0.9474256086283577</v>
+        <v>0.9499187967723044</v>
       </c>
       <c r="M12">
-        <v>0.8638809954002381</v>
+        <v>0.8669614620990701</v>
+      </c>
+      <c r="N12">
+        <v>0.9628600927644848</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9262050525018266</v>
+        <v>0.9290830532392867</v>
       </c>
       <c r="D13">
-        <v>0.9603302506610748</v>
+        <v>0.962645470766297</v>
       </c>
       <c r="E13">
-        <v>0.9315809699462855</v>
+        <v>0.9341278919326753</v>
       </c>
       <c r="F13">
-        <v>0.8463541407239745</v>
+        <v>0.8495171925349827</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01515117592374</v>
+        <v>1.016438436237209</v>
       </c>
       <c r="J13">
-        <v>0.9593922322924253</v>
+        <v>0.9621196030818157</v>
       </c>
       <c r="K13">
-        <v>0.9762123325610715</v>
+        <v>0.9784785309840408</v>
       </c>
       <c r="L13">
-        <v>0.9480989275655572</v>
+        <v>0.9505874060495165</v>
       </c>
       <c r="M13">
-        <v>0.8651078870756973</v>
+        <v>0.8681769278774973</v>
+      </c>
+      <c r="N13">
+        <v>0.9634859232748529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287174273671492</v>
+        <v>0.931578977313846</v>
       </c>
       <c r="D14">
-        <v>0.9622796501991776</v>
+        <v>0.964582998964572</v>
       </c>
       <c r="E14">
-        <v>0.9339752693855542</v>
+        <v>0.9365058941152326</v>
       </c>
       <c r="F14">
-        <v>0.8506281818184593</v>
+        <v>0.8537517009080354</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016141472528289</v>
+        <v>1.017422542694641</v>
       </c>
       <c r="J14">
-        <v>0.9614291741825508</v>
+        <v>0.9641439416763021</v>
       </c>
       <c r="K14">
-        <v>0.9779677443736563</v>
+        <v>0.9802231241728924</v>
       </c>
       <c r="L14">
-        <v>0.9502786050256239</v>
+        <v>0.9527522044749847</v>
       </c>
       <c r="M14">
-        <v>0.8690707310264804</v>
+        <v>0.872103741454136</v>
+      </c>
+      <c r="N14">
+        <v>0.9655131366623381</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9302443869082961</v>
+        <v>0.9330962150210025</v>
       </c>
       <c r="D15">
-        <v>0.9634647657026377</v>
+        <v>0.965761106979223</v>
       </c>
       <c r="E15">
-        <v>0.93542958250207</v>
+        <v>0.9379505919215221</v>
       </c>
       <c r="F15">
-        <v>0.8532157823604655</v>
+        <v>0.8563160604541729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016742809589507</v>
+        <v>1.018020231472553</v>
       </c>
       <c r="J15">
-        <v>0.9626665695071492</v>
+        <v>0.9653739139579957</v>
       </c>
       <c r="K15">
-        <v>0.9790342428680165</v>
+        <v>0.9812832465470387</v>
       </c>
       <c r="L15">
-        <v>0.9516019645156463</v>
+        <v>0.95406679544882</v>
       </c>
       <c r="M15">
-        <v>0.8714702608559636</v>
+        <v>0.8744820846264718</v>
+      </c>
+      <c r="N15">
+        <v>0.9667448556457516</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9388371634758185</v>
+        <v>0.9416378803239327</v>
       </c>
       <c r="D16">
-        <v>0.970138238288778</v>
+        <v>0.9723978426696296</v>
       </c>
       <c r="E16">
-        <v>0.9436017230353824</v>
+        <v>0.9460723781772064</v>
       </c>
       <c r="F16">
-        <v>0.8676437692720613</v>
+        <v>0.8706233292260467</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020118774923993</v>
+        <v>1.021377147560136</v>
       </c>
       <c r="J16">
-        <v>0.9696213644668668</v>
+        <v>0.9722900122138888</v>
       </c>
       <c r="K16">
-        <v>0.9850300974672704</v>
+        <v>0.9872458071341768</v>
       </c>
       <c r="L16">
-        <v>0.9590298872276407</v>
+        <v>0.9614489316431313</v>
       </c>
       <c r="M16">
-        <v>0.8848536536553442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8877553770451104</v>
+      </c>
+      <c r="N16">
+        <v>0.9736707755544558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9439919465917731</v>
+        <v>0.9467646728650353</v>
       </c>
       <c r="D17">
-        <v>0.974145085553184</v>
+        <v>0.9763846510050648</v>
       </c>
       <c r="E17">
-        <v>0.948495080379816</v>
+        <v>0.9509383033524736</v>
       </c>
       <c r="F17">
-        <v>0.8761979620262834</v>
+        <v>0.879112438829043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022137110125507</v>
+        <v>1.023385154307706</v>
       </c>
       <c r="J17">
-        <v>0.9737866345434064</v>
+        <v>0.9764343465393676</v>
       </c>
       <c r="K17">
-        <v>0.9886221581844747</v>
+        <v>0.9908198124675037</v>
       </c>
       <c r="L17">
-        <v>0.9634707503057447</v>
+        <v>0.9658649560876521</v>
       </c>
       <c r="M17">
-        <v>0.8927912088032705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8956335398198622</v>
+      </c>
+      <c r="N17">
+        <v>0.9778209953100383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9469222775313635</v>
+        <v>0.9496799016426429</v>
       </c>
       <c r="D18">
-        <v>0.9764239553304209</v>
+        <v>0.9786527344113694</v>
       </c>
       <c r="E18">
-        <v>0.9512739409313263</v>
+        <v>0.9537024065688006</v>
       </c>
       <c r="F18">
-        <v>0.8810295125621601</v>
+        <v>0.8839091679248653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023282008209611</v>
+        <v>1.024524514101133</v>
       </c>
       <c r="J18">
-        <v>0.9761521503772872</v>
+        <v>0.9787886499396932</v>
       </c>
       <c r="K18">
-        <v>0.9906624416504872</v>
+        <v>0.9928504123346606</v>
       </c>
       <c r="L18">
-        <v>0.9659903201948725</v>
+        <v>0.9683711985794246</v>
       </c>
       <c r="M18">
-        <v>0.8972751582611104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9000857042745061</v>
+      </c>
+      <c r="N18">
+        <v>0.9801786420912348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9479091901204919</v>
+        <v>0.9506618535289567</v>
       </c>
       <c r="D19">
-        <v>0.9771916362467271</v>
+        <v>0.9794168763630248</v>
       </c>
       <c r="E19">
-        <v>0.9522093873937638</v>
+        <v>0.9546330123666508</v>
       </c>
       <c r="F19">
-        <v>0.8826518556390367</v>
+        <v>0.8855201170912748</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023667184277764</v>
+        <v>1.024907876596226</v>
       </c>
       <c r="J19">
-        <v>0.9769484593775299</v>
+        <v>0.9795812894087915</v>
       </c>
       <c r="K19">
-        <v>0.9913493099993442</v>
+        <v>0.9935341092773584</v>
       </c>
       <c r="L19">
-        <v>0.9668380986997501</v>
+        <v>0.9692146111321883</v>
       </c>
       <c r="M19">
-        <v>0.8987808771118767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9015810216518468</v>
+      </c>
+      <c r="N19">
+        <v>0.9809724071992965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9434469576410731</v>
+        <v>0.9462225556934925</v>
       </c>
       <c r="D20">
-        <v>0.9737213437765142</v>
+        <v>0.9759629624063453</v>
       </c>
       <c r="E20">
-        <v>0.9479780373745902</v>
+        <v>0.9504240700380518</v>
       </c>
       <c r="F20">
-        <v>0.8752969368341775</v>
+        <v>0.8782180582660002</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021923979192238</v>
+        <v>1.023173079339336</v>
       </c>
       <c r="J20">
-        <v>0.9733465062083035</v>
+        <v>0.9759963571279541</v>
       </c>
       <c r="K20">
-        <v>0.9882425652310006</v>
+        <v>0.9904420656643983</v>
       </c>
       <c r="L20">
-        <v>0.9630017648069364</v>
+        <v>0.9653985108807445</v>
       </c>
       <c r="M20">
-        <v>0.8919550573813062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8948034529927582</v>
+      </c>
+      <c r="N20">
+        <v>0.9773823839034227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9279820372771955</v>
+        <v>0.9308483430145843</v>
       </c>
       <c r="D21">
-        <v>0.9617089792648335</v>
+        <v>0.9640157581955866</v>
       </c>
       <c r="E21">
-        <v>0.9332746297034346</v>
+        <v>0.935809962399449</v>
       </c>
       <c r="F21">
-        <v>0.8493792936757946</v>
+        <v>0.8525142147707677</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015851719298802</v>
+        <v>1.017134576859689</v>
       </c>
       <c r="J21">
-        <v>0.9608330757627699</v>
+        <v>0.9635514813594825</v>
       </c>
       <c r="K21">
-        <v>0.9774540067232755</v>
+        <v>0.9797125103660075</v>
       </c>
       <c r="L21">
-        <v>0.9496408949599644</v>
+        <v>0.9521187905126324</v>
       </c>
       <c r="M21">
-        <v>0.8679127027605096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8709561060813745</v>
+      </c>
+      <c r="N21">
+        <v>0.9649198349839126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9173632840985514</v>
+        <v>0.9203041017530946</v>
       </c>
       <c r="D22">
-        <v>0.9534750454901049</v>
+        <v>0.9558357451352197</v>
       </c>
       <c r="E22">
-        <v>0.923139533874226</v>
+        <v>0.9257489887955894</v>
       </c>
       <c r="F22">
-        <v>0.8311379904584412</v>
+        <v>0.8344543884633775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011657610290781</v>
+        <v>1.012968685256571</v>
       </c>
       <c r="J22">
-        <v>0.9522136042412688</v>
+        <v>0.9549895559838497</v>
       </c>
       <c r="K22">
-        <v>0.9700281629518477</v>
+        <v>0.9723359862096406</v>
       </c>
       <c r="L22">
-        <v>0.9404045436285851</v>
+        <v>0.9429502945529279</v>
       </c>
       <c r="M22">
-        <v>0.8510059655728162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8542146695174777</v>
+      </c>
+      <c r="N22">
+        <v>0.9563457506921798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9230900040488355</v>
+        <v>0.9259892266863103</v>
       </c>
       <c r="D23">
-        <v>0.9579141413781291</v>
+        <v>0.9602447003228702</v>
       </c>
       <c r="E23">
-        <v>0.9286097331024337</v>
+        <v>0.9311777279537624</v>
       </c>
       <c r="F23">
-        <v>0.8410252262599035</v>
+        <v>0.844239659358075</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013921825540308</v>
+        <v>1.015217100906563</v>
       </c>
       <c r="J23">
-        <v>0.9568649243028483</v>
+        <v>0.9596086292403013</v>
       </c>
       <c r="K23">
-        <v>0.9740347101503842</v>
+        <v>0.9763149170124725</v>
       </c>
       <c r="L23">
-        <v>0.9453923493921425</v>
+        <v>0.9479000971209536</v>
       </c>
       <c r="M23">
-        <v>0.8601680111072875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8632838659055996</v>
+      </c>
+      <c r="N23">
+        <v>0.9609713835624707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9436934486924616</v>
+        <v>0.9464677453851943</v>
       </c>
       <c r="D24">
-        <v>0.9739129929729731</v>
+        <v>0.9761536811151857</v>
       </c>
       <c r="E24">
-        <v>0.9482118976873716</v>
+        <v>0.9506566569896685</v>
       </c>
       <c r="F24">
-        <v>0.8757045545652558</v>
+        <v>0.8786226640331255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022020383084291</v>
+        <v>1.023269004607066</v>
       </c>
       <c r="J24">
-        <v>0.973545577406864</v>
+        <v>0.9761944587995594</v>
       </c>
       <c r="K24">
-        <v>0.9884142551992661</v>
+        <v>0.990612918857197</v>
       </c>
       <c r="L24">
-        <v>0.9632138957814277</v>
+        <v>0.965609490476247</v>
       </c>
       <c r="M24">
-        <v>0.8923333245736176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8951789711722641</v>
+      </c>
+      <c r="N24">
+        <v>0.9775807669021241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9646369625968477</v>
+        <v>0.9673142109587685</v>
       </c>
       <c r="D25">
-        <v>0.9902160197267308</v>
+        <v>0.9923877409270383</v>
       </c>
       <c r="E25">
-        <v>0.9680322963614811</v>
+        <v>0.9703827603637654</v>
       </c>
       <c r="F25">
-        <v>0.9098089152894309</v>
+        <v>0.9125065044396208</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030160883784271</v>
+        <v>1.031374407012638</v>
       </c>
       <c r="J25">
-        <v>0.9904159926182499</v>
+        <v>0.9929939735166011</v>
       </c>
       <c r="K25">
-        <v>1.002968142230545</v>
+        <v>1.005105388103606</v>
       </c>
       <c r="L25">
-        <v>0.9811480060388837</v>
+        <v>0.9834589314265496</v>
       </c>
       <c r="M25">
-        <v>0.9239897494581815</v>
+        <v>0.9266340463500088</v>
+      </c>
+      <c r="N25">
+        <v>0.9944041388569956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822474508192128</v>
+        <v>1.005438898910362</v>
       </c>
       <c r="D2">
-        <v>1.0040364164282</v>
+        <v>1.028882966353359</v>
       </c>
       <c r="E2">
-        <v>0.9844594653069298</v>
+        <v>1.008686729446791</v>
       </c>
       <c r="F2">
-        <v>0.9362453694722138</v>
+        <v>1.035284177173329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037108943467634</v>
+        <v>1.05255920528327</v>
       </c>
       <c r="J2">
-        <v>1.004972420263437</v>
+        <v>1.027458141540677</v>
       </c>
       <c r="K2">
-        <v>1.015439802537798</v>
+        <v>1.039954062581907</v>
       </c>
       <c r="L2">
-        <v>0.9961396359285533</v>
+        <v>1.02002635648925</v>
       </c>
       <c r="M2">
-        <v>0.9486706626989222</v>
+        <v>1.046272895425512</v>
       </c>
       <c r="N2">
-        <v>1.006399596372159</v>
+        <v>1.028917249952761</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9923231150315465</v>
+        <v>1.014753562309124</v>
       </c>
       <c r="D3">
-        <v>1.011902721230417</v>
+        <v>1.036270675609023</v>
       </c>
       <c r="E3">
-        <v>0.9939340286732122</v>
+        <v>1.016772440793766</v>
       </c>
       <c r="F3">
-        <v>0.9520594693201209</v>
+        <v>1.043153732259377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040936553894397</v>
+        <v>1.056011784614372</v>
       </c>
       <c r="J3">
-        <v>1.013025270187338</v>
+        <v>1.034849953881054</v>
       </c>
       <c r="K3">
-        <v>1.022385536504107</v>
+        <v>1.046459582779653</v>
       </c>
       <c r="L3">
-        <v>1.004645117669305</v>
+        <v>1.027195120364318</v>
       </c>
       <c r="M3">
-        <v>0.9633448738268889</v>
+        <v>1.053262694240836</v>
       </c>
       <c r="N3">
-        <v>1.014463882266627</v>
+        <v>1.036319559514514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9985402017764921</v>
+        <v>1.020558947680774</v>
       </c>
       <c r="D4">
-        <v>1.016758466687374</v>
+        <v>1.040878794345291</v>
       </c>
       <c r="E4">
-        <v>0.9997712434952868</v>
+        <v>1.02181234135323</v>
       </c>
       <c r="F4">
-        <v>0.961747467566</v>
+        <v>1.048067429760022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043278987638383</v>
+        <v>1.058148562099973</v>
       </c>
       <c r="J4">
-        <v>1.017981323198866</v>
+        <v>1.03945098336058</v>
       </c>
       <c r="K4">
-        <v>1.026658753274378</v>
+        <v>1.050507665676844</v>
       </c>
       <c r="L4">
-        <v>1.00987243019076</v>
+        <v>1.031654449702844</v>
       </c>
       <c r="M4">
-        <v>0.9723305970310894</v>
+        <v>1.057618373563433</v>
       </c>
       <c r="N4">
-        <v>1.019426973441899</v>
+        <v>1.040927122983647</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00108789827296</v>
+        <v>1.022950101186796</v>
       </c>
       <c r="D5">
-        <v>1.018748601569075</v>
+        <v>1.042777539888824</v>
       </c>
       <c r="E5">
-        <v>1.002161320308027</v>
+        <v>1.023888214801468</v>
       </c>
       <c r="F5">
-        <v>0.9657035290340249</v>
+        <v>1.050093273495744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044234216078442</v>
+        <v>1.059024971830148</v>
       </c>
       <c r="J5">
-        <v>1.020009233478668</v>
+        <v>1.041344575860994</v>
       </c>
       <c r="K5">
-        <v>1.028406830630078</v>
+        <v>1.052173338168975</v>
       </c>
       <c r="L5">
-        <v>1.012009782623643</v>
+        <v>1.033489038502162</v>
       </c>
       <c r="M5">
-        <v>0.9759987916589188</v>
+        <v>1.059412088099199</v>
       </c>
       <c r="N5">
-        <v>1.021457763586902</v>
+        <v>1.042823404602609</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001511969135261</v>
+        <v>1.02334878727522</v>
       </c>
       <c r="D6">
-        <v>1.019079878215005</v>
+        <v>1.043094163361568</v>
       </c>
       <c r="E6">
-        <v>1.002559045126409</v>
+        <v>1.024234331060376</v>
       </c>
       <c r="F6">
-        <v>0.9663612754693534</v>
+        <v>1.050431160392433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044392940160442</v>
+        <v>1.059170878988801</v>
       </c>
       <c r="J6">
-        <v>1.020346607799575</v>
+        <v>1.041660210999242</v>
       </c>
       <c r="K6">
-        <v>1.028697622935289</v>
+        <v>1.052450960423569</v>
       </c>
       <c r="L6">
-        <v>1.012365278284942</v>
+        <v>1.033794798245112</v>
       </c>
       <c r="M6">
-        <v>0.9766086083069574</v>
+        <v>1.059711137577789</v>
       </c>
       <c r="N6">
-        <v>1.021795617018043</v>
+        <v>1.043139487978957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9985744956152314</v>
+        <v>1.020591088055732</v>
       </c>
       <c r="D7">
-        <v>1.016785254345494</v>
+        <v>1.040904313398815</v>
       </c>
       <c r="E7">
-        <v>0.9998034231758722</v>
+        <v>1.021840244009119</v>
       </c>
       <c r="F7">
-        <v>0.9618007711796899</v>
+        <v>1.048094652328924</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043291864320028</v>
+        <v>1.05816035701313</v>
       </c>
       <c r="J7">
-        <v>1.018008632294309</v>
+        <v>1.039476441899194</v>
       </c>
       <c r="K7">
-        <v>1.026682295775701</v>
+        <v>1.050530061373638</v>
       </c>
       <c r="L7">
-        <v>1.009901219022746</v>
+        <v>1.031679117679467</v>
       </c>
       <c r="M7">
-        <v>0.9723800264806438</v>
+        <v>1.057642485024673</v>
       </c>
       <c r="N7">
-        <v>1.019454321319389</v>
+        <v>1.040952617676305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9857194379949525</v>
+        <v>1.008635107007536</v>
       </c>
       <c r="D8">
-        <v>1.006746562304231</v>
+        <v>1.031417072075974</v>
       </c>
       <c r="E8">
-        <v>0.9877263726855685</v>
+        <v>1.011461075542087</v>
       </c>
       <c r="F8">
-        <v>0.9417116355574923</v>
+        <v>1.037982485773152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038432019652874</v>
+        <v>1.053747050815286</v>
       </c>
       <c r="J8">
-        <v>1.007750157742671</v>
+        <v>1.029995754380545</v>
       </c>
       <c r="K8">
-        <v>1.017835916092384</v>
+        <v>1.042187652888364</v>
       </c>
       <c r="L8">
-        <v>0.9990752054074866</v>
+        <v>1.022488005408558</v>
       </c>
       <c r="M8">
-        <v>0.9537436660354672</v>
+        <v>1.048671412207108</v>
       </c>
       <c r="N8">
-        <v>1.009181278557225</v>
+        <v>1.03145846649393</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9603913662411568</v>
+        <v>0.9856783677827137</v>
       </c>
       <c r="D9">
-        <v>0.9869927099070881</v>
+        <v>1.013240026520148</v>
       </c>
       <c r="E9">
-        <v>0.9638422416769817</v>
+        <v>0.9915412579988506</v>
       </c>
       <c r="F9">
-        <v>0.901360167476924</v>
+        <v>1.018650639641192</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028694419859989</v>
+        <v>1.045153323177864</v>
       </c>
       <c r="J9">
-        <v>0.9874247478452783</v>
+        <v>1.011747197600044</v>
       </c>
       <c r="K9">
-        <v>1.00030040648976</v>
+        <v>1.02612188468688</v>
       </c>
       <c r="L9">
-        <v>0.977550522582987</v>
+        <v>1.004773079584455</v>
       </c>
       <c r="M9">
-        <v>0.9162857626874166</v>
+        <v>1.031448200683788</v>
       </c>
       <c r="N9">
-        <v>0.9888270042464199</v>
+        <v>1.013183994669662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9410477798607555</v>
+        <v>0.9687899967371851</v>
       </c>
       <c r="D10">
-        <v>0.9719391150412894</v>
+        <v>0.9999096505623135</v>
       </c>
       <c r="E10">
-        <v>0.9455118902429417</v>
+        <v>0.976902644942041</v>
       </c>
       <c r="F10">
-        <v>0.8696416681951384</v>
+        <v>1.004504514329104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021145683491073</v>
+        <v>1.03875636736177</v>
       </c>
       <c r="J10">
-        <v>0.9718126677322771</v>
+        <v>0.9982990451762479</v>
       </c>
       <c r="K10">
-        <v>0.9868341995950576</v>
+        <v>1.014280536487656</v>
       </c>
       <c r="L10">
-        <v>0.9609399384324991</v>
+        <v>0.9917018392414901</v>
       </c>
       <c r="M10">
-        <v>0.8868444736283287</v>
+        <v>1.018792911894374</v>
       </c>
       <c r="N10">
-        <v>0.973192753188928</v>
+        <v>0.9997167443268989</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9318697848550914</v>
+        <v>0.9610130127842965</v>
       </c>
       <c r="D11">
-        <v>0.9648087876848702</v>
+        <v>0.9937850748583025</v>
       </c>
       <c r="E11">
-        <v>0.9367828476100195</v>
+        <v>0.9701679806279561</v>
       </c>
       <c r="F11">
-        <v>0.8542437721007814</v>
+        <v>0.9980131191570148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017537132851685</v>
+        <v>1.035794778092281</v>
       </c>
       <c r="J11">
-        <v>0.9643797241010036</v>
+        <v>0.9921027108415387</v>
       </c>
       <c r="K11">
-        <v>0.9804263398912487</v>
+        <v>1.008825155068379</v>
       </c>
       <c r="L11">
-        <v>0.9530042500544175</v>
+        <v>0.9856753004769272</v>
       </c>
       <c r="M11">
-        <v>0.8725601000925061</v>
+        <v>1.012972602664244</v>
       </c>
       <c r="N11">
-        <v>0.9657492539251274</v>
+        <v>0.9935116104867051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283128293351011</v>
+        <v>0.958045223450241</v>
       </c>
       <c r="D12">
-        <v>0.9620476935213674</v>
+        <v>0.9914503763053416</v>
       </c>
       <c r="E12">
-        <v>0.933393696705758</v>
+        <v>0.9675991741417251</v>
       </c>
       <c r="F12">
-        <v>0.8482063354607512</v>
+        <v>0.9955398450929268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016134530485819</v>
+        <v>1.03466242507949</v>
       </c>
       <c r="J12">
-        <v>0.9614946600622175</v>
+        <v>0.9897377930229269</v>
       </c>
       <c r="K12">
-        <v>0.9779400016630491</v>
+        <v>1.006743227336576</v>
       </c>
       <c r="L12">
-        <v>0.9499187967723044</v>
+        <v>0.9833746110819834</v>
       </c>
       <c r="M12">
-        <v>0.8669614620990701</v>
+        <v>1.010752996410614</v>
       </c>
       <c r="N12">
-        <v>0.9628600927644848</v>
+        <v>0.9911433342135307</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290830532392867</v>
+        <v>0.9586855722787797</v>
       </c>
       <c r="D13">
-        <v>0.962645470766297</v>
+        <v>0.991954004922603</v>
       </c>
       <c r="E13">
-        <v>0.9341278919326753</v>
+        <v>0.9681533759957913</v>
       </c>
       <c r="F13">
-        <v>0.8495171925349827</v>
+        <v>0.9960733087635076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016438436237209</v>
+        <v>1.034906843090405</v>
       </c>
       <c r="J13">
-        <v>0.9621196030818157</v>
+        <v>0.9902480733077295</v>
       </c>
       <c r="K13">
-        <v>0.9784785309840408</v>
+        <v>1.007192435986323</v>
       </c>
       <c r="L13">
-        <v>0.9505874060495165</v>
+        <v>0.9838710586123744</v>
       </c>
       <c r="M13">
-        <v>0.8681769278774973</v>
+        <v>1.011231838403793</v>
       </c>
       <c r="N13">
-        <v>0.9634859232748529</v>
+        <v>0.991654339154868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.931578977313846</v>
+        <v>0.9607693678885737</v>
       </c>
       <c r="D14">
-        <v>0.964582998964572</v>
+        <v>0.9935933510442522</v>
       </c>
       <c r="E14">
-        <v>0.9365058941152326</v>
+        <v>0.9699570643674127</v>
       </c>
       <c r="F14">
-        <v>0.8537517009080354</v>
+        <v>0.9978099898215039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017422542694641</v>
+        <v>1.03570185866163</v>
       </c>
       <c r="J14">
-        <v>0.9641439416763021</v>
+        <v>0.9919085647385519</v>
       </c>
       <c r="K14">
-        <v>0.9802231241728924</v>
+        <v>1.008654236221534</v>
       </c>
       <c r="L14">
-        <v>0.9527522044749847</v>
+        <v>0.9854864387728518</v>
       </c>
       <c r="M14">
-        <v>0.872103741454136</v>
+        <v>1.012790348295887</v>
       </c>
       <c r="N14">
-        <v>0.9655131366623381</v>
+        <v>0.9933171886739834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9330962150210025</v>
+        <v>0.9620424754946564</v>
       </c>
       <c r="D15">
-        <v>0.965761106979223</v>
+        <v>0.9945952619334725</v>
       </c>
       <c r="E15">
-        <v>0.9379505919215221</v>
+        <v>0.971059207589531</v>
       </c>
       <c r="F15">
-        <v>0.8563160604541729</v>
+        <v>0.9988715550161652</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018020231472553</v>
+        <v>1.036187299908331</v>
       </c>
       <c r="J15">
-        <v>0.9653739139579957</v>
+        <v>0.9929230166020844</v>
       </c>
       <c r="K15">
-        <v>0.9812832465470387</v>
+        <v>1.009547329623937</v>
       </c>
       <c r="L15">
-        <v>0.95406679544882</v>
+        <v>0.9864732552973267</v>
       </c>
       <c r="M15">
-        <v>0.8744820846264718</v>
+        <v>1.013742737427898</v>
       </c>
       <c r="N15">
-        <v>0.9667448556457516</v>
+        <v>0.9943330811755212</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9416378803239327</v>
+        <v>0.9692955928304838</v>
       </c>
       <c r="D16">
-        <v>0.9723978426696296</v>
+        <v>1.000308140483189</v>
       </c>
       <c r="E16">
-        <v>0.9460723781772064</v>
+        <v>0.9773406293039978</v>
       </c>
       <c r="F16">
-        <v>0.8706233292260467</v>
+        <v>1.004927039618984</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021377147560136</v>
+        <v>1.038948596758839</v>
       </c>
       <c r="J16">
-        <v>0.9722900122138888</v>
+        <v>0.9987018241183356</v>
       </c>
       <c r="K16">
-        <v>0.9872458071341768</v>
+        <v>1.014635172193586</v>
       </c>
       <c r="L16">
-        <v>0.9614489316431313</v>
+        <v>0.9920935018741875</v>
       </c>
       <c r="M16">
-        <v>0.8877553770451104</v>
+        <v>1.019171483030893</v>
       </c>
       <c r="N16">
-        <v>0.9736707755544558</v>
+        <v>1.000120095261284</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9467646728650353</v>
+        <v>0.9737149501381415</v>
       </c>
       <c r="D17">
-        <v>0.9763846510050648</v>
+        <v>1.003792898724848</v>
       </c>
       <c r="E17">
-        <v>0.9509383033524736</v>
+        <v>0.9811697336957194</v>
       </c>
       <c r="F17">
-        <v>0.879112438829043</v>
+        <v>1.008622882935351</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023385154307706</v>
+        <v>1.040627103131975</v>
       </c>
       <c r="J17">
-        <v>0.9764343465393676</v>
+        <v>1.002222093014048</v>
       </c>
       <c r="K17">
-        <v>0.9908198124675037</v>
+        <v>1.01773474991886</v>
       </c>
       <c r="L17">
-        <v>0.9658649560876521</v>
+        <v>0.9955161826477446</v>
       </c>
       <c r="M17">
-        <v>0.8956335398198622</v>
+        <v>1.022481392316547</v>
       </c>
       <c r="N17">
-        <v>0.9778209953100383</v>
+        <v>1.003645363342609</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9496799016426429</v>
+        <v>0.9762486122576074</v>
       </c>
       <c r="D18">
-        <v>0.9786527344113694</v>
+        <v>1.005792015267001</v>
       </c>
       <c r="E18">
-        <v>0.9537024065688006</v>
+        <v>0.9833655657969795</v>
       </c>
       <c r="F18">
-        <v>0.8839091679248653</v>
+        <v>1.010743831398225</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024524514101133</v>
+        <v>1.041587921644335</v>
       </c>
       <c r="J18">
-        <v>0.9787886499396932</v>
+        <v>1.004239953770343</v>
       </c>
       <c r="K18">
-        <v>0.9928504123346606</v>
+        <v>1.019511514371341</v>
       </c>
       <c r="L18">
-        <v>0.9683711985794246</v>
+        <v>0.9974777447096074</v>
       </c>
       <c r="M18">
-        <v>0.9000857042745061</v>
+        <v>1.024379653986326</v>
       </c>
       <c r="N18">
-        <v>0.9801786420912348</v>
+        <v>1.005666089692629</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9506618535289567</v>
+        <v>0.9771053050643027</v>
       </c>
       <c r="D19">
-        <v>0.9794168763630248</v>
+        <v>1.006468169551245</v>
       </c>
       <c r="E19">
-        <v>0.9546330123666508</v>
+        <v>0.9841081192143897</v>
       </c>
       <c r="F19">
-        <v>0.8855201170912748</v>
+        <v>1.01146131607412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024907876596226</v>
+        <v>1.041912540232742</v>
       </c>
       <c r="J19">
-        <v>0.9795812894087915</v>
+        <v>1.00492217751491</v>
       </c>
       <c r="K19">
-        <v>0.9935341092773584</v>
+        <v>1.020112230761533</v>
       </c>
       <c r="L19">
-        <v>0.9692146111321883</v>
+        <v>0.9981408731194211</v>
       </c>
       <c r="M19">
-        <v>0.9015810216518468</v>
+        <v>1.025021603662204</v>
       </c>
       <c r="N19">
-        <v>0.9809724071992965</v>
+        <v>1.006349282273166</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9462225556934925</v>
+        <v>0.9732454155224862</v>
       </c>
       <c r="D20">
-        <v>0.9759629624063453</v>
+        <v>1.003422525727646</v>
       </c>
       <c r="E20">
-        <v>0.9504240700380518</v>
+        <v>0.9807628496171332</v>
       </c>
       <c r="F20">
-        <v>0.8782180582660002</v>
+        <v>1.00822999785243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023173079339336</v>
+        <v>1.040448923636637</v>
       </c>
       <c r="J20">
-        <v>0.9759963571279541</v>
+        <v>1.001848116602603</v>
       </c>
       <c r="K20">
-        <v>0.9904420656643983</v>
+        <v>1.017405459933529</v>
       </c>
       <c r="L20">
-        <v>0.9653985108807445</v>
+        <v>0.9951526109896471</v>
       </c>
       <c r="M20">
-        <v>0.8948034529927582</v>
+        <v>1.022129660065956</v>
       </c>
       <c r="N20">
-        <v>0.9773823839034227</v>
+        <v>1.003270855841764</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9308483430145843</v>
+        <v>0.9601580088455268</v>
       </c>
       <c r="D21">
-        <v>0.9640157581955866</v>
+        <v>0.9931123153332235</v>
       </c>
       <c r="E21">
-        <v>0.935809962399449</v>
+        <v>0.9694278493305645</v>
       </c>
       <c r="F21">
-        <v>0.8525142147707677</v>
+        <v>0.9973003580061945</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017134576859689</v>
+        <v>1.03546866906236</v>
       </c>
       <c r="J21">
-        <v>0.9635514813594825</v>
+        <v>0.9914214047326382</v>
       </c>
       <c r="K21">
-        <v>0.9797125103660075</v>
+        <v>1.008225362586755</v>
       </c>
       <c r="L21">
-        <v>0.9521187905126324</v>
+        <v>0.9850125293888546</v>
       </c>
       <c r="M21">
-        <v>0.8709561060813745</v>
+        <v>1.012333057069664</v>
       </c>
       <c r="N21">
-        <v>0.9649198349839126</v>
+        <v>0.9928293368449831</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9203041017530946</v>
+        <v>0.9514658966718457</v>
       </c>
       <c r="D22">
-        <v>0.9558357451352197</v>
+        <v>0.9862797319158854</v>
       </c>
       <c r="E22">
-        <v>0.9257489887955894</v>
+        <v>0.9619069681473711</v>
       </c>
       <c r="F22">
-        <v>0.8344543884633775</v>
+        <v>0.990064700183538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012968685256571</v>
+        <v>1.032148327459867</v>
       </c>
       <c r="J22">
-        <v>0.9549895559838497</v>
+        <v>0.9844946498516783</v>
       </c>
       <c r="K22">
-        <v>0.9723359862096406</v>
+        <v>1.002127979525253</v>
       </c>
       <c r="L22">
-        <v>0.9429502945529279</v>
+        <v>0.9782728066632437</v>
       </c>
       <c r="M22">
-        <v>0.8542146695174777</v>
+        <v>1.005835580528525</v>
       </c>
       <c r="N22">
-        <v>0.9563457506921798</v>
+        <v>0.9858927451775826</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9259892266863103</v>
+        <v>0.9561213084871275</v>
       </c>
       <c r="D23">
-        <v>0.9602447003228702</v>
+        <v>0.9899376385782245</v>
       </c>
       <c r="E23">
-        <v>0.9311777279537624</v>
+        <v>0.9659342889326964</v>
       </c>
       <c r="F23">
-        <v>0.844239659358075</v>
+        <v>0.9939376819318163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015217100906563</v>
+        <v>1.033927774826663</v>
       </c>
       <c r="J23">
-        <v>0.9596086292403013</v>
+        <v>0.9882046373525224</v>
       </c>
       <c r="K23">
-        <v>0.9763149170124725</v>
+        <v>1.005393601158973</v>
       </c>
       <c r="L23">
-        <v>0.9479000971209536</v>
+        <v>0.9818829324807089</v>
       </c>
       <c r="M23">
-        <v>0.8632838659055996</v>
+        <v>1.009314577853299</v>
       </c>
       <c r="N23">
-        <v>0.9609713835624707</v>
+        <v>0.9896080012862193</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9464677453851943</v>
+        <v>0.9734577135186917</v>
       </c>
       <c r="D24">
-        <v>0.9761536811151857</v>
+        <v>1.003589984315675</v>
       </c>
       <c r="E24">
-        <v>0.9506566569896685</v>
+        <v>0.9809468187023275</v>
       </c>
       <c r="F24">
-        <v>0.8786226640331255</v>
+        <v>1.008407632650172</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023269004607066</v>
+        <v>1.040529491346475</v>
       </c>
       <c r="J24">
-        <v>0.9761944587995594</v>
+        <v>1.002017209468824</v>
       </c>
       <c r="K24">
-        <v>0.990612918857197</v>
+        <v>1.017554347755158</v>
       </c>
       <c r="L24">
-        <v>0.965609490476247</v>
+        <v>0.9953170004834098</v>
       </c>
       <c r="M24">
-        <v>0.8951789711722641</v>
+        <v>1.022288692226614</v>
       </c>
       <c r="N24">
-        <v>0.9775807669021241</v>
+        <v>1.003440188839251</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9673142109587685</v>
+        <v>0.9918663858845177</v>
       </c>
       <c r="D25">
-        <v>0.9923877409270383</v>
+        <v>1.018133796727508</v>
       </c>
       <c r="E25">
-        <v>0.9703827603637654</v>
+        <v>0.9969087727296659</v>
       </c>
       <c r="F25">
-        <v>0.9125065044396208</v>
+        <v>1.023850233783099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031374407012638</v>
+        <v>1.047482909439683</v>
       </c>
       <c r="J25">
-        <v>0.9929939735166011</v>
+        <v>1.016670613666927</v>
       </c>
       <c r="K25">
-        <v>1.005105388103606</v>
+        <v>1.030456982885174</v>
       </c>
       <c r="L25">
-        <v>0.9834589314265496</v>
+        <v>1.00955526630953</v>
       </c>
       <c r="M25">
-        <v>0.9266340463500088</v>
+        <v>1.036089253170542</v>
       </c>
       <c r="N25">
-        <v>0.9944041388569956</v>
+        <v>1.018114402552084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005438898910362</v>
+        <v>1.017886678097777</v>
       </c>
       <c r="D2">
-        <v>1.028882966353359</v>
+        <v>1.033950384715268</v>
       </c>
       <c r="E2">
-        <v>1.008686729446791</v>
+        <v>1.030376015266706</v>
       </c>
       <c r="F2">
-        <v>1.035284177173329</v>
+        <v>1.037986142507848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05255920528327</v>
+        <v>1.054864486735816</v>
       </c>
       <c r="J2">
-        <v>1.027458141540677</v>
+        <v>1.039545253236006</v>
       </c>
       <c r="K2">
-        <v>1.039954062581907</v>
+        <v>1.044956162553729</v>
       </c>
       <c r="L2">
-        <v>1.02002635648925</v>
+        <v>1.041427782753608</v>
       </c>
       <c r="M2">
-        <v>1.046272895425512</v>
+        <v>1.048940469628549</v>
       </c>
       <c r="N2">
-        <v>1.028917249952761</v>
+        <v>1.041021526733109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014753562309124</v>
+        <v>1.022156483555238</v>
       </c>
       <c r="D3">
-        <v>1.036270675609023</v>
+        <v>1.037189597646116</v>
       </c>
       <c r="E3">
-        <v>1.016772440793766</v>
+        <v>1.034082949968</v>
       </c>
       <c r="F3">
-        <v>1.043153732259377</v>
+        <v>1.042351899581853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056011784614372</v>
+        <v>1.056416986415994</v>
       </c>
       <c r="J3">
-        <v>1.034849953881054</v>
+        <v>1.042060838185551</v>
       </c>
       <c r="K3">
-        <v>1.046459582779653</v>
+        <v>1.047367755827454</v>
       </c>
       <c r="L3">
-        <v>1.027195120364318</v>
+        <v>1.044297542990839</v>
       </c>
       <c r="M3">
-        <v>1.053262694240836</v>
+        <v>1.052470107551785</v>
       </c>
       <c r="N3">
-        <v>1.036319559514514</v>
+        <v>1.043540684101823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020558947680774</v>
+        <v>1.024864764568487</v>
       </c>
       <c r="D4">
-        <v>1.040878794345291</v>
+        <v>1.039246055465272</v>
       </c>
       <c r="E4">
-        <v>1.02181234135323</v>
+        <v>1.03643972528739</v>
       </c>
       <c r="F4">
-        <v>1.048067429760022</v>
+        <v>1.045127761226435</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058148562099973</v>
+        <v>1.057391735063224</v>
       </c>
       <c r="J4">
-        <v>1.03945098336058</v>
+        <v>1.043653125809898</v>
       </c>
       <c r="K4">
-        <v>1.050507665676844</v>
+        <v>1.048892810813555</v>
       </c>
       <c r="L4">
-        <v>1.031654449702844</v>
+        <v>1.046117381263792</v>
       </c>
       <c r="M4">
-        <v>1.057618373563433</v>
+        <v>1.054710413257516</v>
       </c>
       <c r="N4">
-        <v>1.040927122983647</v>
+        <v>1.045135232957235</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022950101186796</v>
+        <v>1.02599069777007</v>
       </c>
       <c r="D5">
-        <v>1.042777539888824</v>
+        <v>1.040101406810364</v>
       </c>
       <c r="E5">
-        <v>1.023888214801468</v>
+        <v>1.037420817397788</v>
       </c>
       <c r="F5">
-        <v>1.050093273495744</v>
+        <v>1.046283384065112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059024971830148</v>
+        <v>1.057794544287412</v>
       </c>
       <c r="J5">
-        <v>1.041344575860994</v>
+        <v>1.044314275100322</v>
       </c>
       <c r="K5">
-        <v>1.052173338168975</v>
+        <v>1.049525697344141</v>
       </c>
       <c r="L5">
-        <v>1.033489038502162</v>
+        <v>1.046873828197569</v>
       </c>
       <c r="M5">
-        <v>1.059412088099199</v>
+        <v>1.055642126002466</v>
       </c>
       <c r="N5">
-        <v>1.042823404602609</v>
+        <v>1.045797321155485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02334878727522</v>
+        <v>1.026179018675726</v>
       </c>
       <c r="D6">
-        <v>1.043094163361568</v>
+        <v>1.040244493441274</v>
       </c>
       <c r="E6">
-        <v>1.024234331060376</v>
+        <v>1.037584987664108</v>
       </c>
       <c r="F6">
-        <v>1.050431160392433</v>
+        <v>1.046476763962824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059170878988801</v>
+        <v>1.057861773340031</v>
       </c>
       <c r="J6">
-        <v>1.041660210999242</v>
+        <v>1.044424808102113</v>
       </c>
       <c r="K6">
-        <v>1.052450960423569</v>
+        <v>1.049631484679704</v>
       </c>
       <c r="L6">
-        <v>1.033794798245112</v>
+        <v>1.047000341397095</v>
       </c>
       <c r="M6">
-        <v>1.059711137577789</v>
+        <v>1.055797980959155</v>
       </c>
       <c r="N6">
-        <v>1.043139487978957</v>
+        <v>1.045908011126818</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020591088055732</v>
+        <v>1.024879858400431</v>
       </c>
       <c r="D7">
-        <v>1.040904313398815</v>
+        <v>1.039257520434604</v>
       </c>
       <c r="E7">
-        <v>1.021840244009119</v>
+        <v>1.036452872367464</v>
       </c>
       <c r="F7">
-        <v>1.048094652328924</v>
+        <v>1.045143246794592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05816035701313</v>
+        <v>1.057397144614546</v>
       </c>
       <c r="J7">
-        <v>1.039476441899194</v>
+        <v>1.043661992217275</v>
       </c>
       <c r="K7">
-        <v>1.050530061373638</v>
+        <v>1.048901299580466</v>
       </c>
       <c r="L7">
-        <v>1.031679117679467</v>
+        <v>1.046127522444345</v>
       </c>
       <c r="M7">
-        <v>1.057642485024673</v>
+        <v>1.054722902157637</v>
       </c>
       <c r="N7">
-        <v>1.040952617676305</v>
+        <v>1.045144111955927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008635107007536</v>
+        <v>1.019341246627005</v>
       </c>
       <c r="D8">
-        <v>1.031417072075974</v>
+        <v>1.0350534494182</v>
       </c>
       <c r="E8">
-        <v>1.011461075542087</v>
+        <v>1.031637658874031</v>
       </c>
       <c r="F8">
-        <v>1.037982485773152</v>
+        <v>1.039471978167929</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053747050815286</v>
+        <v>1.055395437773018</v>
       </c>
       <c r="J8">
-        <v>1.029995754380545</v>
+        <v>1.040402899227645</v>
       </c>
       <c r="K8">
-        <v>1.042187652888364</v>
+        <v>1.045778645007196</v>
       </c>
       <c r="L8">
-        <v>1.022488005408558</v>
+        <v>1.042405475202241</v>
       </c>
       <c r="M8">
-        <v>1.048671412207108</v>
+        <v>1.050142558323309</v>
       </c>
       <c r="N8">
-        <v>1.03145846649393</v>
+        <v>1.041880390680429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9856783677827137</v>
+        <v>1.009142911751978</v>
       </c>
       <c r="D9">
-        <v>1.013240026520148</v>
+        <v>1.02732934326752</v>
       </c>
       <c r="E9">
-        <v>0.9915412579988506</v>
+        <v>1.022816672289778</v>
       </c>
       <c r="F9">
-        <v>1.018650639641192</v>
+        <v>1.02908372619909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045153323177864</v>
+        <v>1.051631965385968</v>
       </c>
       <c r="J9">
-        <v>1.011747197600044</v>
+        <v>1.034376890543882</v>
       </c>
       <c r="K9">
-        <v>1.02612188468688</v>
+        <v>1.039994053401152</v>
       </c>
       <c r="L9">
-        <v>1.004773079584455</v>
+        <v>1.035550102055405</v>
       </c>
       <c r="M9">
-        <v>1.031448200683788</v>
+        <v>1.041721927521776</v>
       </c>
       <c r="N9">
-        <v>1.013183994669662</v>
+        <v>1.035845824373142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9687899967371851</v>
+        <v>1.002018485859218</v>
       </c>
       <c r="D10">
-        <v>0.9999096505623135</v>
+        <v>1.021947882398202</v>
       </c>
       <c r="E10">
-        <v>0.976902644942041</v>
+        <v>1.016687391646321</v>
       </c>
       <c r="F10">
-        <v>1.004504514329104</v>
+        <v>1.021864853597947</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03875636736177</v>
+        <v>1.04895258813487</v>
       </c>
       <c r="J10">
-        <v>0.9982990451762479</v>
+        <v>1.030152247538013</v>
       </c>
       <c r="K10">
-        <v>1.014280536487656</v>
+        <v>1.035931854664396</v>
       </c>
       <c r="L10">
-        <v>0.9917018392414901</v>
+        <v>1.030761747880402</v>
       </c>
       <c r="M10">
-        <v>1.018792911894374</v>
+        <v>1.035850243100099</v>
       </c>
       <c r="N10">
-        <v>0.9997167443268989</v>
+        <v>1.031615181889631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9610130127842965</v>
+        <v>0.9988489285151116</v>
       </c>
       <c r="D11">
-        <v>0.9937850748583025</v>
+        <v>1.019557902224738</v>
       </c>
       <c r="E11">
-        <v>0.9701679806279561</v>
+        <v>1.013968914605007</v>
       </c>
       <c r="F11">
-        <v>0.9980131191570148</v>
+        <v>1.018662698176263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035794778092281</v>
+        <v>1.04774918092697</v>
       </c>
       <c r="J11">
-        <v>0.9921027108415387</v>
+        <v>1.028269671933816</v>
       </c>
       <c r="K11">
-        <v>1.008825155068379</v>
+        <v>1.034120175766776</v>
       </c>
       <c r="L11">
-        <v>0.9856753004769272</v>
+        <v>1.028632119647299</v>
       </c>
       <c r="M11">
-        <v>1.012972602664244</v>
+        <v>1.033241041410899</v>
       </c>
       <c r="N11">
-        <v>0.9935116104867051</v>
+        <v>1.029729932812142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.958045223450241</v>
+        <v>0.9976582208092351</v>
       </c>
       <c r="D12">
-        <v>0.9914503763053416</v>
+        <v>1.018660746693198</v>
       </c>
       <c r="E12">
-        <v>0.9675991741417251</v>
+        <v>1.012948967856896</v>
       </c>
       <c r="F12">
-        <v>0.9955398450929268</v>
+        <v>1.017461191724348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03466242507949</v>
+        <v>1.047295432747874</v>
       </c>
       <c r="J12">
-        <v>0.9897377930229269</v>
+        <v>1.027562020668781</v>
       </c>
       <c r="K12">
-        <v>1.006743227336576</v>
+        <v>1.03343896089169</v>
       </c>
       <c r="L12">
-        <v>0.9833746110819834</v>
+        <v>1.027832220973269</v>
       </c>
       <c r="M12">
-        <v>1.010752996410614</v>
+        <v>1.032261338201251</v>
       </c>
       <c r="N12">
-        <v>0.9911433342135307</v>
+        <v>1.029021276601142</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9586855722787797</v>
+        <v>0.9979142490985935</v>
       </c>
       <c r="D13">
-        <v>0.991954004922603</v>
+        <v>1.018853622660265</v>
       </c>
       <c r="E13">
-        <v>0.9681533759957913</v>
+        <v>1.013168219085284</v>
       </c>
       <c r="F13">
-        <v>0.9960733087635076</v>
+        <v>1.017719476046382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034906843090405</v>
+        <v>1.047393072982316</v>
       </c>
       <c r="J13">
-        <v>0.9902480733077295</v>
+        <v>1.027714199714334</v>
       </c>
       <c r="K13">
-        <v>1.007192435986323</v>
+        <v>1.033585464305983</v>
       </c>
       <c r="L13">
-        <v>0.9838710586123744</v>
+        <v>1.028004209772931</v>
       </c>
       <c r="M13">
-        <v>1.011231838403793</v>
+        <v>1.032471972821168</v>
       </c>
       <c r="N13">
-        <v>0.991654339154868</v>
+        <v>1.029173671758395</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9607693678885737</v>
+        <v>0.9987507815370237</v>
       </c>
       <c r="D14">
-        <v>0.9935933510442522</v>
+        <v>1.019483937625843</v>
       </c>
       <c r="E14">
-        <v>0.9699570643674127</v>
+        <v>1.01388481622588</v>
       </c>
       <c r="F14">
-        <v>0.9978099898215039</v>
+        <v>1.018563631470762</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03570185866163</v>
+        <v>1.047711813181343</v>
       </c>
       <c r="J14">
-        <v>0.9919085647385519</v>
+        <v>1.028211350438484</v>
       </c>
       <c r="K14">
-        <v>1.008654236221534</v>
+        <v>1.034064037315376</v>
       </c>
       <c r="L14">
-        <v>0.9854864387728518</v>
+        <v>1.02856618298194</v>
       </c>
       <c r="M14">
-        <v>1.012790348295887</v>
+        <v>1.033160276673622</v>
       </c>
       <c r="N14">
-        <v>0.9933171886739834</v>
+        <v>1.029671528493597</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9620424754946564</v>
+        <v>0.9992644010423745</v>
       </c>
       <c r="D15">
-        <v>0.9945952619334725</v>
+        <v>1.019871035159401</v>
       </c>
       <c r="E15">
-        <v>0.971059207589531</v>
+        <v>1.014324970509088</v>
       </c>
       <c r="F15">
-        <v>0.9988715550161652</v>
+        <v>1.019082123264661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036187299908331</v>
+        <v>1.047907297268008</v>
       </c>
       <c r="J15">
-        <v>0.9929230166020844</v>
+        <v>1.028516539508464</v>
       </c>
       <c r="K15">
-        <v>1.009547329623937</v>
+        <v>1.034357794159207</v>
       </c>
       <c r="L15">
-        <v>0.9864732552973267</v>
+        <v>1.028911246464194</v>
       </c>
       <c r="M15">
-        <v>1.013742737427898</v>
+        <v>1.033582952468193</v>
       </c>
       <c r="N15">
-        <v>0.9943330811755212</v>
+        <v>1.029977150967063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9692955928304838</v>
+        <v>1.002226998980852</v>
       </c>
       <c r="D16">
-        <v>1.000308140483189</v>
+        <v>1.022105202066494</v>
       </c>
       <c r="E16">
-        <v>0.9773406293039978</v>
+        <v>1.016866408067752</v>
       </c>
       <c r="F16">
-        <v>1.004927039618984</v>
+        <v>1.022075710225014</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038948596758839</v>
+        <v>1.04903152226053</v>
       </c>
       <c r="J16">
-        <v>0.9987018241183356</v>
+        <v>1.03027603397296</v>
       </c>
       <c r="K16">
-        <v>1.014635172193586</v>
+        <v>1.036050949206334</v>
       </c>
       <c r="L16">
-        <v>0.9920935018741875</v>
+        <v>1.030901864949503</v>
       </c>
       <c r="M16">
-        <v>1.019171483030893</v>
+        <v>1.036021959063091</v>
       </c>
       <c r="N16">
-        <v>1.000120095261284</v>
+        <v>1.031739144115515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737149501381415</v>
+        <v>1.004062235082937</v>
       </c>
       <c r="D17">
-        <v>1.003792898724848</v>
+        <v>1.023490337923546</v>
       </c>
       <c r="E17">
-        <v>0.9811697336957194</v>
+        <v>1.018442984913452</v>
       </c>
       <c r="F17">
-        <v>1.008622882935351</v>
+        <v>1.023932649274441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040627103131975</v>
+        <v>1.049724972387065</v>
       </c>
       <c r="J17">
-        <v>1.002222093014048</v>
+        <v>1.031365197683456</v>
       </c>
       <c r="K17">
-        <v>1.01773474991886</v>
+        <v>1.037098661782202</v>
       </c>
       <c r="L17">
-        <v>0.9955161826477446</v>
+        <v>1.032135188849517</v>
       </c>
       <c r="M17">
-        <v>1.022481392316547</v>
+        <v>1.037533673232413</v>
       </c>
       <c r="N17">
-        <v>1.003645363342609</v>
+        <v>1.032829854563408</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9762486122576074</v>
+        <v>1.005124579407024</v>
       </c>
       <c r="D18">
-        <v>1.005792015267001</v>
+        <v>1.024292527577833</v>
       </c>
       <c r="E18">
-        <v>0.9833655657969795</v>
+        <v>1.019356391608588</v>
       </c>
       <c r="F18">
-        <v>1.010743831398225</v>
+        <v>1.025008448658534</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041587921644335</v>
+        <v>1.05012529824413</v>
       </c>
       <c r="J18">
-        <v>1.004239953770343</v>
+        <v>1.031995374520535</v>
       </c>
       <c r="K18">
-        <v>1.019511514371341</v>
+        <v>1.037704713326649</v>
       </c>
       <c r="L18">
-        <v>0.9974777447096074</v>
+        <v>1.03284916864267</v>
       </c>
       <c r="M18">
-        <v>1.024379653986326</v>
+        <v>1.038409028466909</v>
       </c>
       <c r="N18">
-        <v>1.005666089692629</v>
+        <v>1.033460926323879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771053050643027</v>
+        <v>1.005485454285615</v>
       </c>
       <c r="D19">
-        <v>1.006468169551245</v>
+        <v>1.024565093105918</v>
       </c>
       <c r="E19">
-        <v>0.9841081192143897</v>
+        <v>1.019666805429879</v>
       </c>
       <c r="F19">
-        <v>1.01146131607412</v>
+        <v>1.025374044573616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041912540232742</v>
+        <v>1.050261102287208</v>
       </c>
       <c r="J19">
-        <v>1.00492217751491</v>
+        <v>1.032209392101898</v>
       </c>
       <c r="K19">
-        <v>1.020112230761533</v>
+        <v>1.037910513163948</v>
       </c>
       <c r="L19">
-        <v>0.9981408731194211</v>
+        <v>1.033091713883857</v>
       </c>
       <c r="M19">
-        <v>1.025021603662204</v>
+        <v>1.038706430885614</v>
       </c>
       <c r="N19">
-        <v>1.006349282273166</v>
+        <v>1.033675247834755</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9732454155224862</v>
+        <v>1.00386617603833</v>
       </c>
       <c r="D20">
-        <v>1.003422525727646</v>
+        <v>1.023342322347565</v>
       </c>
       <c r="E20">
-        <v>0.9807628496171332</v>
+        <v>1.018274476275361</v>
       </c>
       <c r="F20">
-        <v>1.00822999785243</v>
+        <v>1.023734178927355</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040448923636637</v>
+        <v>1.049651002995394</v>
       </c>
       <c r="J20">
-        <v>1.001848116602603</v>
+        <v>1.031248872311895</v>
       </c>
       <c r="K20">
-        <v>1.017405459933529</v>
+        <v>1.036986778170371</v>
       </c>
       <c r="L20">
-        <v>0.9951526109896471</v>
+        <v>1.032003426004989</v>
       </c>
       <c r="M20">
-        <v>1.022129660065956</v>
+        <v>1.03737214635071</v>
       </c>
       <c r="N20">
-        <v>1.003270855841764</v>
+        <v>1.032713363996476</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9601580088455268</v>
+        <v>0.9985048189676846</v>
       </c>
       <c r="D21">
-        <v>0.9931123153332235</v>
+        <v>1.019298588949785</v>
       </c>
       <c r="E21">
-        <v>0.9694278493305645</v>
+        <v>1.013674081510002</v>
       </c>
       <c r="F21">
-        <v>0.9973003580061945</v>
+        <v>1.018315387436488</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03546866906236</v>
+        <v>1.04761814058755</v>
       </c>
       <c r="J21">
-        <v>0.9914214047326382</v>
+        <v>1.028065186371064</v>
       </c>
       <c r="K21">
-        <v>1.008225362586755</v>
+        <v>1.033923340945737</v>
       </c>
       <c r="L21">
-        <v>0.9850125293888546</v>
+        <v>1.028400943888442</v>
       </c>
       <c r="M21">
-        <v>1.012333057069664</v>
+        <v>1.032957883232823</v>
       </c>
       <c r="N21">
-        <v>0.9928293368449831</v>
+        <v>1.029525156856436</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9514658966718457</v>
+        <v>0.9950560638072675</v>
       </c>
       <c r="D22">
-        <v>0.9862797319158854</v>
+        <v>1.01670145343987</v>
       </c>
       <c r="E22">
-        <v>0.9619069681473711</v>
+        <v>1.010722441945226</v>
       </c>
       <c r="F22">
-        <v>0.990064700183538</v>
+        <v>1.014838133408465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032148327459867</v>
+        <v>1.046300811463277</v>
       </c>
       <c r="J22">
-        <v>0.9844946498516783</v>
+        <v>1.026014795343993</v>
       </c>
       <c r="K22">
-        <v>1.002127979525253</v>
+        <v>1.03194915647952</v>
       </c>
       <c r="L22">
-        <v>0.9782728066632437</v>
+        <v>1.026084436357423</v>
       </c>
       <c r="M22">
-        <v>1.005835580528525</v>
+        <v>1.030121265648277</v>
       </c>
       <c r="N22">
-        <v>0.9858927451775826</v>
+        <v>1.027471854038923</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9561213084871275</v>
+        <v>0.9968919325352023</v>
       </c>
       <c r="D23">
-        <v>0.9899376385782245</v>
+        <v>1.018083578188311</v>
       </c>
       <c r="E23">
-        <v>0.9659342889326964</v>
+        <v>1.012292947590277</v>
       </c>
       <c r="F23">
-        <v>0.9939376819318163</v>
+        <v>1.016688365858555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033927774826663</v>
+        <v>1.047002957059829</v>
       </c>
       <c r="J23">
-        <v>0.9882046373525224</v>
+        <v>1.027106492459943</v>
       </c>
       <c r="K23">
-        <v>1.005393601158973</v>
+        <v>1.033000391524352</v>
       </c>
       <c r="L23">
-        <v>0.9818829324807089</v>
+        <v>1.027317485142059</v>
       </c>
       <c r="M23">
-        <v>1.009314577853299</v>
+        <v>1.031630988278809</v>
       </c>
       <c r="N23">
-        <v>0.9896080012862193</v>
+        <v>1.028565101489997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9734577135186917</v>
+        <v>1.003954791718618</v>
       </c>
       <c r="D24">
-        <v>1.003589984315675</v>
+        <v>1.023409221912074</v>
       </c>
       <c r="E24">
-        <v>0.9809468187023275</v>
+        <v>1.018350637149666</v>
       </c>
       <c r="F24">
-        <v>1.008407632650172</v>
+        <v>1.023823881716099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040529491346475</v>
+        <v>1.049684439391393</v>
       </c>
       <c r="J24">
-        <v>1.002017209468824</v>
+        <v>1.031301450516557</v>
       </c>
       <c r="K24">
-        <v>1.017554347755158</v>
+        <v>1.03703734917426</v>
       </c>
       <c r="L24">
-        <v>0.9953170004834098</v>
+        <v>1.032062980611939</v>
       </c>
       <c r="M24">
-        <v>1.022288692226614</v>
+        <v>1.037445153143465</v>
       </c>
       <c r="N24">
-        <v>1.003440188839251</v>
+        <v>1.03276601686822</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9918663858845177</v>
+        <v>1.011834440451619</v>
       </c>
       <c r="D25">
-        <v>1.018133796727508</v>
+        <v>1.029365603196066</v>
       </c>
       <c r="E25">
-        <v>0.9969087727296659</v>
+        <v>1.025139180483818</v>
       </c>
       <c r="F25">
-        <v>1.023850233783099</v>
+        <v>1.0318188945132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047482909439683</v>
+        <v>1.052634053717525</v>
       </c>
       <c r="J25">
-        <v>1.016670613666927</v>
+        <v>1.035969988420788</v>
       </c>
       <c r="K25">
-        <v>1.030456982885174</v>
+        <v>1.041524539013432</v>
       </c>
       <c r="L25">
-        <v>1.00955526630953</v>
+        <v>1.037359386396898</v>
       </c>
       <c r="M25">
-        <v>1.036089253170542</v>
+        <v>1.043942556693017</v>
       </c>
       <c r="N25">
-        <v>1.018114402552084</v>
+        <v>1.037441184631764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017886678097777</v>
+        <v>1.041119126895842</v>
       </c>
       <c r="D2">
-        <v>1.033950384715268</v>
+        <v>1.045006794012703</v>
       </c>
       <c r="E2">
-        <v>1.030376015266706</v>
+        <v>1.049815510834324</v>
       </c>
       <c r="F2">
-        <v>1.037986142507848</v>
+        <v>1.061655576950616</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054864486735816</v>
+        <v>1.044354288157395</v>
       </c>
       <c r="J2">
-        <v>1.039545253236006</v>
+        <v>1.046202055977866</v>
       </c>
       <c r="K2">
-        <v>1.044956162553729</v>
+        <v>1.047776245389759</v>
       </c>
       <c r="L2">
-        <v>1.041427782753608</v>
+        <v>1.052571518963095</v>
       </c>
       <c r="M2">
-        <v>1.048940469628549</v>
+        <v>1.064379047113664</v>
       </c>
       <c r="N2">
-        <v>1.041021526733109</v>
+        <v>1.047687782898408</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022156483555238</v>
+        <v>1.042014604222189</v>
       </c>
       <c r="D3">
-        <v>1.037189597646116</v>
+        <v>1.045700229525413</v>
       </c>
       <c r="E3">
-        <v>1.034082949968</v>
+        <v>1.05064641970567</v>
       </c>
       <c r="F3">
-        <v>1.042351899581853</v>
+        <v>1.062648406746973</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056416986415994</v>
+        <v>1.044618088882875</v>
       </c>
       <c r="J3">
-        <v>1.042060838185551</v>
+        <v>1.04674370010143</v>
       </c>
       <c r="K3">
-        <v>1.047367755827454</v>
+        <v>1.048281341465999</v>
       </c>
       <c r="L3">
-        <v>1.044297542990839</v>
+        <v>1.053214701598445</v>
       </c>
       <c r="M3">
-        <v>1.052470107551785</v>
+        <v>1.06518609156722</v>
       </c>
       <c r="N3">
-        <v>1.043540684101823</v>
+        <v>1.048230196218755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.024864764568487</v>
+        <v>1.042594450378797</v>
       </c>
       <c r="D4">
-        <v>1.039246055465272</v>
+        <v>1.046149186519731</v>
       </c>
       <c r="E4">
-        <v>1.03643972528739</v>
+        <v>1.051184847752058</v>
       </c>
       <c r="F4">
-        <v>1.045127761226435</v>
+        <v>1.063291880806394</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057391735063224</v>
+        <v>1.044787678839789</v>
       </c>
       <c r="J4">
-        <v>1.043653125809898</v>
+        <v>1.047093943625774</v>
       </c>
       <c r="K4">
-        <v>1.048892810813555</v>
+        <v>1.048607753039079</v>
       </c>
       <c r="L4">
-        <v>1.046117381263792</v>
+        <v>1.053631008467366</v>
       </c>
       <c r="M4">
-        <v>1.054710413257516</v>
+        <v>1.065708731462802</v>
       </c>
       <c r="N4">
-        <v>1.045135232957235</v>
+        <v>1.048580937129077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02599069777007</v>
+        <v>1.04283831525401</v>
       </c>
       <c r="D5">
-        <v>1.040101406810364</v>
+        <v>1.046337988318112</v>
       </c>
       <c r="E5">
-        <v>1.037420817397788</v>
+        <v>1.051411386872007</v>
       </c>
       <c r="F5">
-        <v>1.046283384065112</v>
+        <v>1.063562646479921</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057794544287412</v>
+        <v>1.044858708836618</v>
       </c>
       <c r="J5">
-        <v>1.044314275100322</v>
+        <v>1.047241128380312</v>
       </c>
       <c r="K5">
-        <v>1.049525697344141</v>
+        <v>1.048744875015406</v>
       </c>
       <c r="L5">
-        <v>1.046873828197569</v>
+        <v>1.053806052589218</v>
       </c>
       <c r="M5">
-        <v>1.055642126002466</v>
+        <v>1.065928550505637</v>
       </c>
       <c r="N5">
-        <v>1.045797321155485</v>
+        <v>1.048728330902849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026179018675726</v>
+        <v>1.042879266925543</v>
       </c>
       <c r="D6">
-        <v>1.040244493441274</v>
+        <v>1.046369692463338</v>
       </c>
       <c r="E6">
-        <v>1.037584987664108</v>
+        <v>1.051449434533425</v>
       </c>
       <c r="F6">
-        <v>1.046476763962824</v>
+        <v>1.063608123798535</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057861773340031</v>
+        <v>1.044870619490269</v>
       </c>
       <c r="J6">
-        <v>1.044424808102113</v>
+        <v>1.047265837939615</v>
       </c>
       <c r="K6">
-        <v>1.049631484679704</v>
+        <v>1.048767892418989</v>
       </c>
       <c r="L6">
-        <v>1.047000341397095</v>
+        <v>1.053835444918259</v>
       </c>
       <c r="M6">
-        <v>1.055797980959155</v>
+        <v>1.065965464989421</v>
       </c>
       <c r="N6">
-        <v>1.045908011126818</v>
+        <v>1.04875307555256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024879858400431</v>
+        <v>1.042597708531368</v>
       </c>
       <c r="D7">
-        <v>1.039257520434604</v>
+        <v>1.046151709063573</v>
       </c>
       <c r="E7">
-        <v>1.036452872367464</v>
+        <v>1.05118787405779</v>
       </c>
       <c r="F7">
-        <v>1.045143246794592</v>
+        <v>1.063295497813253</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057397144614546</v>
+        <v>1.044788628990617</v>
       </c>
       <c r="J7">
-        <v>1.043661992217275</v>
+        <v>1.047095910543361</v>
       </c>
       <c r="K7">
-        <v>1.048901299580466</v>
+        <v>1.048609585669581</v>
       </c>
       <c r="L7">
-        <v>1.046127522444345</v>
+        <v>1.053633347304087</v>
       </c>
       <c r="M7">
-        <v>1.054722902157637</v>
+        <v>1.065711668299437</v>
       </c>
       <c r="N7">
-        <v>1.045144111955927</v>
+        <v>1.048582906839913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019341246627005</v>
+        <v>1.041421671534567</v>
       </c>
       <c r="D8">
-        <v>1.0350534494182</v>
+        <v>1.045241089529176</v>
       </c>
       <c r="E8">
-        <v>1.031637658874031</v>
+        <v>1.050096159161011</v>
       </c>
       <c r="F8">
-        <v>1.039471978167929</v>
+        <v>1.061990890825652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055395437773018</v>
+        <v>1.0444436696094</v>
       </c>
       <c r="J8">
-        <v>1.040402899227645</v>
+        <v>1.046385155489856</v>
       </c>
       <c r="K8">
-        <v>1.045778645007196</v>
+        <v>1.047947031172494</v>
       </c>
       <c r="L8">
-        <v>1.042405475202241</v>
+        <v>1.052788859042454</v>
       </c>
       <c r="M8">
-        <v>1.050142558323309</v>
+        <v>1.064651702143762</v>
       </c>
       <c r="N8">
-        <v>1.041880390680429</v>
+        <v>1.047871142432706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009142911751978</v>
+        <v>1.039352555524132</v>
       </c>
       <c r="D9">
-        <v>1.02732934326752</v>
+        <v>1.043638500446225</v>
       </c>
       <c r="E9">
-        <v>1.022816672289778</v>
+        <v>1.048178412724757</v>
       </c>
       <c r="F9">
-        <v>1.02908372619909</v>
+        <v>1.059700086815532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051631965385968</v>
+        <v>1.04382735998144</v>
       </c>
       <c r="J9">
-        <v>1.034376890543882</v>
+        <v>1.045130948378695</v>
       </c>
       <c r="K9">
-        <v>1.039994053401152</v>
+        <v>1.046776360151693</v>
       </c>
       <c r="L9">
-        <v>1.035550102055405</v>
+        <v>1.051301768125253</v>
       </c>
       <c r="M9">
-        <v>1.041721927521776</v>
+        <v>1.062787241901278</v>
       </c>
       <c r="N9">
-        <v>1.035845824373142</v>
+        <v>1.046615154203589</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002018485859218</v>
+        <v>1.037975373965457</v>
       </c>
       <c r="D10">
-        <v>1.021947882398202</v>
+        <v>1.042571564491027</v>
       </c>
       <c r="E10">
-        <v>1.016687391646321</v>
+        <v>1.046904030488268</v>
       </c>
       <c r="F10">
-        <v>1.021864853597947</v>
+        <v>1.058178400967619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04895258813487</v>
+        <v>1.043410846632912</v>
       </c>
       <c r="J10">
-        <v>1.030152247538013</v>
+        <v>1.044293683121915</v>
       </c>
       <c r="K10">
-        <v>1.035931854664396</v>
+        <v>1.045993846787538</v>
       </c>
       <c r="L10">
-        <v>1.030761747880402</v>
+        <v>1.05031111733691</v>
       </c>
       <c r="M10">
-        <v>1.035850243100099</v>
+        <v>1.061546586258634</v>
       </c>
       <c r="N10">
-        <v>1.031615181889631</v>
+        <v>1.045776699934108</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9988489285151116</v>
+        <v>1.037379582291667</v>
       </c>
       <c r="D11">
-        <v>1.019557902224738</v>
+        <v>1.042109932953209</v>
       </c>
       <c r="E11">
-        <v>1.013968914605007</v>
+        <v>1.046353202757381</v>
       </c>
       <c r="F11">
-        <v>1.018662698176263</v>
+        <v>1.057520820211498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04774918092697</v>
+        <v>1.043229162070341</v>
       </c>
       <c r="J11">
-        <v>1.028269671933816</v>
+        <v>1.043930883169907</v>
       </c>
       <c r="K11">
-        <v>1.034120175766776</v>
+        <v>1.045654532782139</v>
       </c>
       <c r="L11">
-        <v>1.028632119647299</v>
+        <v>1.049882344881816</v>
       </c>
       <c r="M11">
-        <v>1.033241041410899</v>
+        <v>1.061009934071966</v>
       </c>
       <c r="N11">
-        <v>1.029729932812142</v>
+        <v>1.045413384764554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9976582208092351</v>
+        <v>1.037158360540783</v>
       </c>
       <c r="D12">
-        <v>1.018660746693198</v>
+        <v>1.041938517780339</v>
       </c>
       <c r="E12">
-        <v>1.012948967856896</v>
+        <v>1.046148750688746</v>
       </c>
       <c r="F12">
-        <v>1.017461191724348</v>
+        <v>1.057276765027582</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047295432747874</v>
+        <v>1.043161476908284</v>
       </c>
       <c r="J12">
-        <v>1.027562020668781</v>
+        <v>1.043796085246923</v>
       </c>
       <c r="K12">
-        <v>1.03343896089169</v>
+        <v>1.045528425271391</v>
       </c>
       <c r="L12">
-        <v>1.027832220973269</v>
+        <v>1.049723108731034</v>
       </c>
       <c r="M12">
-        <v>1.032261338201251</v>
+        <v>1.060810682905496</v>
       </c>
       <c r="N12">
-        <v>1.029021276601142</v>
+        <v>1.045278395413058</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9979142490985935</v>
+        <v>1.037205809637428</v>
       </c>
       <c r="D13">
-        <v>1.018853622660265</v>
+        <v>1.041975284389806</v>
       </c>
       <c r="E13">
-        <v>1.013168219085284</v>
+        <v>1.046192599546601</v>
       </c>
       <c r="F13">
-        <v>1.017719476046382</v>
+        <v>1.057329106638978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047393072982316</v>
+        <v>1.043176004619747</v>
       </c>
       <c r="J13">
-        <v>1.027714199714334</v>
+        <v>1.043825001556803</v>
       </c>
       <c r="K13">
-        <v>1.033585464305983</v>
+        <v>1.045555478965294</v>
       </c>
       <c r="L13">
-        <v>1.028004209772931</v>
+        <v>1.049757264094491</v>
       </c>
       <c r="M13">
-        <v>1.032471972821168</v>
+        <v>1.060853419074993</v>
       </c>
       <c r="N13">
-        <v>1.029173671758395</v>
+        <v>1.045307352787415</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9987507815370237</v>
+        <v>1.037361294357439</v>
       </c>
       <c r="D14">
-        <v>1.019483937625843</v>
+        <v>1.042095762584457</v>
       </c>
       <c r="E14">
-        <v>1.01388481622588</v>
+        <v>1.046336299620009</v>
       </c>
       <c r="F14">
-        <v>1.018563631470762</v>
+        <v>1.057500642454317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047711813181343</v>
+        <v>1.043223571258356</v>
       </c>
       <c r="J14">
-        <v>1.028211350438484</v>
+        <v>1.043919741498347</v>
       </c>
       <c r="K14">
-        <v>1.034064037315376</v>
+        <v>1.045644110142152</v>
       </c>
       <c r="L14">
-        <v>1.02856618298194</v>
+        <v>1.049869181773318</v>
       </c>
       <c r="M14">
-        <v>1.033160276673622</v>
+        <v>1.060993462160136</v>
       </c>
       <c r="N14">
-        <v>1.029671528493597</v>
+        <v>1.045402227270543</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9992644010423745</v>
+        <v>1.037457104498587</v>
       </c>
       <c r="D15">
-        <v>1.019871035159401</v>
+        <v>1.042170000551658</v>
       </c>
       <c r="E15">
-        <v>1.014324970509088</v>
+        <v>1.046424857880247</v>
       </c>
       <c r="F15">
-        <v>1.019082123264661</v>
+        <v>1.057606357820307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047907297268008</v>
+        <v>1.04325285222706</v>
       </c>
       <c r="J15">
-        <v>1.028516539508464</v>
+        <v>1.043978108914724</v>
       </c>
       <c r="K15">
-        <v>1.034357794159207</v>
+        <v>1.045698709333641</v>
       </c>
       <c r="L15">
-        <v>1.028911246464194</v>
+        <v>1.049938141828838</v>
       </c>
       <c r="M15">
-        <v>1.033582952468193</v>
+        <v>1.061079758673523</v>
       </c>
       <c r="N15">
-        <v>1.029977150967063</v>
+        <v>1.045460677575345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002226998980852</v>
+        <v>1.038014926106904</v>
       </c>
       <c r="D16">
-        <v>1.022105202066494</v>
+        <v>1.042602209137098</v>
       </c>
       <c r="E16">
-        <v>1.016866408067752</v>
+        <v>1.046940608051162</v>
       </c>
       <c r="F16">
-        <v>1.022075710225014</v>
+        <v>1.058222070350033</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04903152226053</v>
+        <v>1.043422876438109</v>
       </c>
       <c r="J16">
-        <v>1.03027603397296</v>
+        <v>1.044317755595729</v>
       </c>
       <c r="K16">
-        <v>1.036050949206334</v>
+        <v>1.046016355902605</v>
       </c>
       <c r="L16">
-        <v>1.030901864949503</v>
+        <v>1.050339577563036</v>
       </c>
       <c r="M16">
-        <v>1.036021959063091</v>
+        <v>1.061582213998296</v>
       </c>
       <c r="N16">
-        <v>1.031739144115515</v>
+        <v>1.045800806593596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004062235082937</v>
+        <v>1.038364977432999</v>
       </c>
       <c r="D17">
-        <v>1.023490337923546</v>
+        <v>1.042873419229277</v>
       </c>
       <c r="E17">
-        <v>1.018442984913452</v>
+        <v>1.047264390069977</v>
       </c>
       <c r="F17">
-        <v>1.023932649274441</v>
+        <v>1.05860864473194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049724972387065</v>
+        <v>1.043529172082609</v>
       </c>
       <c r="J17">
-        <v>1.031365197683456</v>
+        <v>1.044530738450243</v>
       </c>
       <c r="K17">
-        <v>1.037098661782202</v>
+        <v>1.046215479262556</v>
       </c>
       <c r="L17">
-        <v>1.032135188849517</v>
+        <v>1.050591438136405</v>
       </c>
       <c r="M17">
-        <v>1.037533673232413</v>
+        <v>1.061897541717497</v>
       </c>
       <c r="N17">
-        <v>1.032829854563408</v>
+        <v>1.046014091908192</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005124579407024</v>
+        <v>1.038569208189192</v>
       </c>
       <c r="D18">
-        <v>1.024292527577833</v>
+        <v>1.043031646007742</v>
       </c>
       <c r="E18">
-        <v>1.019356391608588</v>
+        <v>1.047453341894582</v>
       </c>
       <c r="F18">
-        <v>1.025008448658534</v>
+        <v>1.05883425422483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05012529824413</v>
+        <v>1.043591044018108</v>
       </c>
       <c r="J18">
-        <v>1.031995374520535</v>
+        <v>1.044654942731774</v>
       </c>
       <c r="K18">
-        <v>1.037704713326649</v>
+        <v>1.046331578114709</v>
       </c>
       <c r="L18">
-        <v>1.03284916864267</v>
+        <v>1.050738362007652</v>
       </c>
       <c r="M18">
-        <v>1.038409028466909</v>
+        <v>1.06208152098002</v>
       </c>
       <c r="N18">
-        <v>1.033460926323879</v>
+        <v>1.04613847257405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005485454285615</v>
+        <v>1.0386388543412</v>
       </c>
       <c r="D19">
-        <v>1.024565093105918</v>
+        <v>1.043085603061862</v>
       </c>
       <c r="E19">
-        <v>1.019666805429879</v>
+        <v>1.047517785697083</v>
       </c>
       <c r="F19">
-        <v>1.025374044573616</v>
+        <v>1.058911202764257</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050261102287208</v>
+        <v>1.043612118931841</v>
       </c>
       <c r="J19">
-        <v>1.032209392101898</v>
+        <v>1.044697288909418</v>
       </c>
       <c r="K19">
-        <v>1.037910513163948</v>
+        <v>1.046371156915959</v>
       </c>
       <c r="L19">
-        <v>1.033091713883857</v>
+        <v>1.050788462246661</v>
       </c>
       <c r="M19">
-        <v>1.038706430885614</v>
+        <v>1.062144262265596</v>
       </c>
       <c r="N19">
-        <v>1.033675247834755</v>
+        <v>1.046180878888123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00386617603833</v>
+        <v>1.038327414878716</v>
       </c>
       <c r="D20">
-        <v>1.023342322347565</v>
+        <v>1.042844317372145</v>
       </c>
       <c r="E20">
-        <v>1.018274476275361</v>
+        <v>1.047229641461132</v>
       </c>
       <c r="F20">
-        <v>1.023734178927355</v>
+        <v>1.058567155792745</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049651002995394</v>
+        <v>1.043517780854394</v>
       </c>
       <c r="J20">
-        <v>1.031248872311895</v>
+        <v>1.044507889985838</v>
       </c>
       <c r="K20">
-        <v>1.036986778170371</v>
+        <v>1.046194120006132</v>
       </c>
       <c r="L20">
-        <v>1.032003426004989</v>
+        <v>1.050564414025137</v>
       </c>
       <c r="M20">
-        <v>1.03737214635071</v>
+        <v>1.061863704449394</v>
       </c>
       <c r="N20">
-        <v>1.032713363996476</v>
+        <v>1.045991210996348</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9985048189676846</v>
+        <v>1.037315505715519</v>
       </c>
       <c r="D21">
-        <v>1.019298588949785</v>
+        <v>1.042060283219968</v>
       </c>
       <c r="E21">
-        <v>1.013674081510002</v>
+        <v>1.046293979381357</v>
       </c>
       <c r="F21">
-        <v>1.018315387436488</v>
+        <v>1.057450123911388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04761814058755</v>
+        <v>1.043209569568981</v>
       </c>
       <c r="J21">
-        <v>1.028065186371064</v>
+        <v>1.043891843984333</v>
       </c>
       <c r="K21">
-        <v>1.033923340945737</v>
+        <v>1.045618012426421</v>
       </c>
       <c r="L21">
-        <v>1.028400943888442</v>
+        <v>1.049836223996125</v>
       </c>
       <c r="M21">
-        <v>1.032957883232823</v>
+        <v>1.060952220596052</v>
       </c>
       <c r="N21">
-        <v>1.029525156856436</v>
+        <v>1.045374290138859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9950560638072675</v>
+        <v>1.036679752115428</v>
       </c>
       <c r="D22">
-        <v>1.01670145343987</v>
+        <v>1.041567650686789</v>
       </c>
       <c r="E22">
-        <v>1.010722441945226</v>
+        <v>1.045706559332746</v>
       </c>
       <c r="F22">
-        <v>1.014838133408465</v>
+        <v>1.056748957073034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046300811463277</v>
+        <v>1.043014631393071</v>
       </c>
       <c r="J22">
-        <v>1.026014795343993</v>
+        <v>1.043504292810965</v>
       </c>
       <c r="K22">
-        <v>1.03194915647952</v>
+        <v>1.045255379396951</v>
       </c>
       <c r="L22">
-        <v>1.026084436357423</v>
+        <v>1.049378550530423</v>
       </c>
       <c r="M22">
-        <v>1.030121265648277</v>
+        <v>1.060379628942105</v>
       </c>
       <c r="N22">
-        <v>1.027471854038923</v>
+        <v>1.044986188598372</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9968919325352023</v>
+        <v>1.037016731836177</v>
       </c>
       <c r="D23">
-        <v>1.018083578188311</v>
+        <v>1.041828773621815</v>
       </c>
       <c r="E23">
-        <v>1.012292947590277</v>
+        <v>1.046017879082151</v>
       </c>
       <c r="F23">
-        <v>1.016688365858555</v>
+        <v>1.057120548895162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047002957059829</v>
+        <v>1.04311808093944</v>
       </c>
       <c r="J23">
-        <v>1.027106492459943</v>
+        <v>1.043709761413936</v>
       </c>
       <c r="K23">
-        <v>1.033000391524352</v>
+        <v>1.045447656676582</v>
       </c>
       <c r="L23">
-        <v>1.027317485142059</v>
+        <v>1.049621155552259</v>
       </c>
       <c r="M23">
-        <v>1.031630988278809</v>
+        <v>1.060683123334025</v>
       </c>
       <c r="N23">
-        <v>1.028565101489997</v>
+        <v>1.045191948990327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003954791718618</v>
+        <v>1.03834438762036</v>
       </c>
       <c r="D24">
-        <v>1.023409221912074</v>
+        <v>1.042857467142205</v>
       </c>
       <c r="E24">
-        <v>1.018350637149666</v>
+        <v>1.047245342567573</v>
       </c>
       <c r="F24">
-        <v>1.023823881716099</v>
+        <v>1.058585902465615</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049684439391393</v>
+        <v>1.043522928457241</v>
       </c>
       <c r="J24">
-        <v>1.031301450516557</v>
+        <v>1.044518214300785</v>
       </c>
       <c r="K24">
-        <v>1.03703734917426</v>
+        <v>1.046203771478288</v>
       </c>
       <c r="L24">
-        <v>1.032062980611939</v>
+        <v>1.050576625002704</v>
       </c>
       <c r="M24">
-        <v>1.037445153143465</v>
+        <v>1.061878993887797</v>
       </c>
       <c r="N24">
-        <v>1.03276601686822</v>
+        <v>1.046001549973006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011834440451619</v>
+        <v>1.039887083845737</v>
       </c>
       <c r="D25">
-        <v>1.029365603196066</v>
+        <v>1.044052557660458</v>
       </c>
       <c r="E25">
-        <v>1.025139180483818</v>
+        <v>1.048673476999115</v>
       </c>
       <c r="F25">
-        <v>1.0318188945132</v>
+        <v>1.060291348356869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052634053717525</v>
+        <v>1.043987687798458</v>
       </c>
       <c r="J25">
-        <v>1.035969988420788</v>
+        <v>1.045455394058194</v>
       </c>
       <c r="K25">
-        <v>1.041524539013432</v>
+        <v>1.04707937537578</v>
       </c>
       <c r="L25">
-        <v>1.037359386396898</v>
+        <v>1.051686090714523</v>
       </c>
       <c r="M25">
-        <v>1.043942556693017</v>
+        <v>1.063268846543012</v>
       </c>
       <c r="N25">
-        <v>1.037441184631764</v>
+        <v>1.046940060633167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041119126895842</v>
+        <v>1.017886678097777</v>
       </c>
       <c r="D2">
-        <v>1.045006794012703</v>
+        <v>1.033950384715268</v>
       </c>
       <c r="E2">
-        <v>1.049815510834324</v>
+        <v>1.030376015266705</v>
       </c>
       <c r="F2">
-        <v>1.061655576950616</v>
+        <v>1.037986142507848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044354288157395</v>
+        <v>1.054864486735815</v>
       </c>
       <c r="J2">
-        <v>1.046202055977866</v>
+        <v>1.039545253236006</v>
       </c>
       <c r="K2">
-        <v>1.047776245389759</v>
+        <v>1.044956162553729</v>
       </c>
       <c r="L2">
-        <v>1.052571518963095</v>
+        <v>1.041427782753608</v>
       </c>
       <c r="M2">
-        <v>1.064379047113664</v>
+        <v>1.048940469628549</v>
       </c>
       <c r="N2">
-        <v>1.047687782898408</v>
+        <v>1.041021526733109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042014604222189</v>
+        <v>1.022156483555238</v>
       </c>
       <c r="D3">
-        <v>1.045700229525413</v>
+        <v>1.037189597646116</v>
       </c>
       <c r="E3">
-        <v>1.05064641970567</v>
+        <v>1.034082949968</v>
       </c>
       <c r="F3">
-        <v>1.062648406746973</v>
+        <v>1.042351899581853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044618088882875</v>
+        <v>1.056416986415994</v>
       </c>
       <c r="J3">
-        <v>1.04674370010143</v>
+        <v>1.042060838185551</v>
       </c>
       <c r="K3">
-        <v>1.048281341465999</v>
+        <v>1.047367755827454</v>
       </c>
       <c r="L3">
-        <v>1.053214701598445</v>
+        <v>1.044297542990839</v>
       </c>
       <c r="M3">
-        <v>1.06518609156722</v>
+        <v>1.052470107551785</v>
       </c>
       <c r="N3">
-        <v>1.048230196218755</v>
+        <v>1.043540684101823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042594450378797</v>
+        <v>1.024864764568486</v>
       </c>
       <c r="D4">
-        <v>1.046149186519731</v>
+        <v>1.03924605546527</v>
       </c>
       <c r="E4">
-        <v>1.051184847752058</v>
+        <v>1.036439725287389</v>
       </c>
       <c r="F4">
-        <v>1.063291880806394</v>
+        <v>1.045127761226434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044787678839789</v>
+        <v>1.057391735063224</v>
       </c>
       <c r="J4">
-        <v>1.047093943625774</v>
+        <v>1.043653125809897</v>
       </c>
       <c r="K4">
-        <v>1.048607753039079</v>
+        <v>1.048892810813554</v>
       </c>
       <c r="L4">
-        <v>1.053631008467366</v>
+        <v>1.046117381263791</v>
       </c>
       <c r="M4">
-        <v>1.065708731462802</v>
+        <v>1.054710413257515</v>
       </c>
       <c r="N4">
-        <v>1.048580937129077</v>
+        <v>1.045135232957233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04283831525401</v>
+        <v>1.025990697770069</v>
       </c>
       <c r="D5">
-        <v>1.046337988318112</v>
+        <v>1.040101406810362</v>
       </c>
       <c r="E5">
-        <v>1.051411386872007</v>
+        <v>1.037420817397788</v>
       </c>
       <c r="F5">
-        <v>1.063562646479921</v>
+        <v>1.046283384065112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044858708836618</v>
+        <v>1.057794544287412</v>
       </c>
       <c r="J5">
-        <v>1.047241128380312</v>
+        <v>1.04431427510032</v>
       </c>
       <c r="K5">
-        <v>1.048744875015406</v>
+        <v>1.04952569734414</v>
       </c>
       <c r="L5">
-        <v>1.053806052589218</v>
+        <v>1.046873828197569</v>
       </c>
       <c r="M5">
-        <v>1.065928550505637</v>
+        <v>1.055642126002466</v>
       </c>
       <c r="N5">
-        <v>1.048728330902849</v>
+        <v>1.045797321155484</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042879266925543</v>
+        <v>1.026179018675726</v>
       </c>
       <c r="D6">
-        <v>1.046369692463338</v>
+        <v>1.040244493441274</v>
       </c>
       <c r="E6">
-        <v>1.051449434533425</v>
+        <v>1.037584987664108</v>
       </c>
       <c r="F6">
-        <v>1.063608123798535</v>
+        <v>1.046476763962824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044870619490269</v>
+        <v>1.05786177334003</v>
       </c>
       <c r="J6">
-        <v>1.047265837939615</v>
+        <v>1.044424808102113</v>
       </c>
       <c r="K6">
-        <v>1.048767892418989</v>
+        <v>1.049631484679704</v>
       </c>
       <c r="L6">
-        <v>1.053835444918259</v>
+        <v>1.047000341397095</v>
       </c>
       <c r="M6">
-        <v>1.065965464989421</v>
+        <v>1.055797980959154</v>
       </c>
       <c r="N6">
-        <v>1.04875307555256</v>
+        <v>1.045908011126818</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042597708531368</v>
+        <v>1.02487985840043</v>
       </c>
       <c r="D7">
-        <v>1.046151709063573</v>
+        <v>1.039257520434603</v>
       </c>
       <c r="E7">
-        <v>1.05118787405779</v>
+        <v>1.036452872367463</v>
       </c>
       <c r="F7">
-        <v>1.063295497813253</v>
+        <v>1.045143246794591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044788628990617</v>
+        <v>1.057397144614545</v>
       </c>
       <c r="J7">
-        <v>1.047095910543361</v>
+        <v>1.043661992217274</v>
       </c>
       <c r="K7">
-        <v>1.048609585669581</v>
+        <v>1.048901299580465</v>
       </c>
       <c r="L7">
-        <v>1.053633347304087</v>
+        <v>1.046127522444345</v>
       </c>
       <c r="M7">
-        <v>1.065711668299437</v>
+        <v>1.054722902157636</v>
       </c>
       <c r="N7">
-        <v>1.048582906839913</v>
+        <v>1.045144111955927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041421671534567</v>
+        <v>1.019341246627005</v>
       </c>
       <c r="D8">
-        <v>1.045241089529176</v>
+        <v>1.0350534494182</v>
       </c>
       <c r="E8">
-        <v>1.050096159161011</v>
+        <v>1.031637658874031</v>
       </c>
       <c r="F8">
-        <v>1.061990890825652</v>
+        <v>1.039471978167929</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0444436696094</v>
+        <v>1.055395437773018</v>
       </c>
       <c r="J8">
-        <v>1.046385155489856</v>
+        <v>1.040402899227645</v>
       </c>
       <c r="K8">
-        <v>1.047947031172494</v>
+        <v>1.045778645007196</v>
       </c>
       <c r="L8">
-        <v>1.052788859042454</v>
+        <v>1.042405475202242</v>
       </c>
       <c r="M8">
-        <v>1.064651702143762</v>
+        <v>1.050142558323309</v>
       </c>
       <c r="N8">
-        <v>1.047871142432706</v>
+        <v>1.041880390680429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039352555524132</v>
+        <v>1.009142911751978</v>
       </c>
       <c r="D9">
-        <v>1.043638500446225</v>
+        <v>1.027329343267521</v>
       </c>
       <c r="E9">
-        <v>1.048178412724757</v>
+        <v>1.022816672289779</v>
       </c>
       <c r="F9">
-        <v>1.059700086815532</v>
+        <v>1.02908372619909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04382735998144</v>
+        <v>1.051631965385969</v>
       </c>
       <c r="J9">
-        <v>1.045130948378695</v>
+        <v>1.034376890543882</v>
       </c>
       <c r="K9">
-        <v>1.046776360151693</v>
+        <v>1.039994053401152</v>
       </c>
       <c r="L9">
-        <v>1.051301768125253</v>
+        <v>1.035550102055405</v>
       </c>
       <c r="M9">
-        <v>1.062787241901278</v>
+        <v>1.041721927521776</v>
       </c>
       <c r="N9">
-        <v>1.046615154203589</v>
+        <v>1.035845824373142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037975373965457</v>
+        <v>1.002018485859218</v>
       </c>
       <c r="D10">
-        <v>1.042571564491027</v>
+        <v>1.021947882398202</v>
       </c>
       <c r="E10">
-        <v>1.046904030488268</v>
+        <v>1.016687391646321</v>
       </c>
       <c r="F10">
-        <v>1.058178400967619</v>
+        <v>1.021864853597947</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043410846632912</v>
+        <v>1.04895258813487</v>
       </c>
       <c r="J10">
-        <v>1.044293683121915</v>
+        <v>1.030152247538012</v>
       </c>
       <c r="K10">
-        <v>1.045993846787538</v>
+        <v>1.035931854664396</v>
       </c>
       <c r="L10">
-        <v>1.05031111733691</v>
+        <v>1.030761747880401</v>
       </c>
       <c r="M10">
-        <v>1.061546586258634</v>
+        <v>1.035850243100099</v>
       </c>
       <c r="N10">
-        <v>1.045776699934108</v>
+        <v>1.031615181889631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037379582291667</v>
+        <v>0.998848928515111</v>
       </c>
       <c r="D11">
-        <v>1.042109932953209</v>
+        <v>1.019557902224738</v>
       </c>
       <c r="E11">
-        <v>1.046353202757381</v>
+        <v>1.013968914605006</v>
       </c>
       <c r="F11">
-        <v>1.057520820211498</v>
+        <v>1.018662698176263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043229162070341</v>
+        <v>1.04774918092697</v>
       </c>
       <c r="J11">
-        <v>1.043930883169907</v>
+        <v>1.028269671933816</v>
       </c>
       <c r="K11">
-        <v>1.045654532782139</v>
+        <v>1.034120175766776</v>
       </c>
       <c r="L11">
-        <v>1.049882344881816</v>
+        <v>1.028632119647298</v>
       </c>
       <c r="M11">
-        <v>1.061009934071966</v>
+        <v>1.033241041410898</v>
       </c>
       <c r="N11">
-        <v>1.045413384764554</v>
+        <v>1.029729932812142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037158360540783</v>
+        <v>0.9976582208092357</v>
       </c>
       <c r="D12">
-        <v>1.041938517780339</v>
+        <v>1.018660746693199</v>
       </c>
       <c r="E12">
-        <v>1.046148750688746</v>
+        <v>1.012948967856897</v>
       </c>
       <c r="F12">
-        <v>1.057276765027582</v>
+        <v>1.017461191724349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043161476908284</v>
+        <v>1.047295432747874</v>
       </c>
       <c r="J12">
-        <v>1.043796085246923</v>
+        <v>1.027562020668781</v>
       </c>
       <c r="K12">
-        <v>1.045528425271391</v>
+        <v>1.033438960891691</v>
       </c>
       <c r="L12">
-        <v>1.049723108731034</v>
+        <v>1.02783222097327</v>
       </c>
       <c r="M12">
-        <v>1.060810682905496</v>
+        <v>1.032261338201252</v>
       </c>
       <c r="N12">
-        <v>1.045278395413058</v>
+        <v>1.029021276601143</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037205809637428</v>
+        <v>0.9979142490985921</v>
       </c>
       <c r="D13">
-        <v>1.041975284389806</v>
+        <v>1.018853622660263</v>
       </c>
       <c r="E13">
-        <v>1.046192599546601</v>
+        <v>1.013168219085282</v>
       </c>
       <c r="F13">
-        <v>1.057329106638978</v>
+        <v>1.017719476046381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043176004619747</v>
+        <v>1.047393072982314</v>
       </c>
       <c r="J13">
-        <v>1.043825001556803</v>
+        <v>1.027714199714332</v>
       </c>
       <c r="K13">
-        <v>1.045555478965294</v>
+        <v>1.033585464305981</v>
       </c>
       <c r="L13">
-        <v>1.049757264094491</v>
+        <v>1.02800420977293</v>
       </c>
       <c r="M13">
-        <v>1.060853419074993</v>
+        <v>1.032471972821167</v>
       </c>
       <c r="N13">
-        <v>1.045307352787415</v>
+        <v>1.029173671758393</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037361294357439</v>
+        <v>0.9987507815370231</v>
       </c>
       <c r="D14">
-        <v>1.042095762584457</v>
+        <v>1.019483937625843</v>
       </c>
       <c r="E14">
-        <v>1.046336299620009</v>
+        <v>1.013884816225881</v>
       </c>
       <c r="F14">
-        <v>1.057500642454317</v>
+        <v>1.018563631470762</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043223571258356</v>
+        <v>1.047711813181343</v>
       </c>
       <c r="J14">
-        <v>1.043919741498347</v>
+        <v>1.028211350438484</v>
       </c>
       <c r="K14">
-        <v>1.045644110142152</v>
+        <v>1.034064037315376</v>
       </c>
       <c r="L14">
-        <v>1.049869181773318</v>
+        <v>1.02856618298194</v>
       </c>
       <c r="M14">
-        <v>1.060993462160136</v>
+        <v>1.033160276673622</v>
       </c>
       <c r="N14">
-        <v>1.045402227270543</v>
+        <v>1.029671528493597</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037457104498587</v>
+        <v>0.999264401042374</v>
       </c>
       <c r="D15">
-        <v>1.042170000551658</v>
+        <v>1.0198710351594</v>
       </c>
       <c r="E15">
-        <v>1.046424857880247</v>
+        <v>1.014324970509088</v>
       </c>
       <c r="F15">
-        <v>1.057606357820307</v>
+        <v>1.019082123264661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04325285222706</v>
+        <v>1.047907297268008</v>
       </c>
       <c r="J15">
-        <v>1.043978108914724</v>
+        <v>1.028516539508464</v>
       </c>
       <c r="K15">
-        <v>1.045698709333641</v>
+        <v>1.034357794159207</v>
       </c>
       <c r="L15">
-        <v>1.049938141828838</v>
+        <v>1.028911246464194</v>
       </c>
       <c r="M15">
-        <v>1.061079758673523</v>
+        <v>1.033582952468192</v>
       </c>
       <c r="N15">
-        <v>1.045460677575345</v>
+        <v>1.029977150967062</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038014926106904</v>
+        <v>1.002226998980852</v>
       </c>
       <c r="D16">
-        <v>1.042602209137098</v>
+        <v>1.022105202066493</v>
       </c>
       <c r="E16">
-        <v>1.046940608051162</v>
+        <v>1.016866408067752</v>
       </c>
       <c r="F16">
-        <v>1.058222070350033</v>
+        <v>1.022075710225013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043422876438109</v>
+        <v>1.04903152226053</v>
       </c>
       <c r="J16">
-        <v>1.044317755595729</v>
+        <v>1.03027603397296</v>
       </c>
       <c r="K16">
-        <v>1.046016355902605</v>
+        <v>1.036050949206334</v>
       </c>
       <c r="L16">
-        <v>1.050339577563036</v>
+        <v>1.030901864949502</v>
       </c>
       <c r="M16">
-        <v>1.061582213998296</v>
+        <v>1.036021959063091</v>
       </c>
       <c r="N16">
-        <v>1.045800806593596</v>
+        <v>1.031739144115514</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038364977432999</v>
+        <v>1.004062235082937</v>
       </c>
       <c r="D17">
-        <v>1.042873419229277</v>
+        <v>1.023490337923546</v>
       </c>
       <c r="E17">
-        <v>1.047264390069977</v>
+        <v>1.018442984913452</v>
       </c>
       <c r="F17">
-        <v>1.05860864473194</v>
+        <v>1.023932649274441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043529172082609</v>
+        <v>1.049724972387065</v>
       </c>
       <c r="J17">
-        <v>1.044530738450243</v>
+        <v>1.031365197683456</v>
       </c>
       <c r="K17">
-        <v>1.046215479262556</v>
+        <v>1.037098661782202</v>
       </c>
       <c r="L17">
-        <v>1.050591438136405</v>
+        <v>1.032135188849517</v>
       </c>
       <c r="M17">
-        <v>1.061897541717497</v>
+        <v>1.037533673232413</v>
       </c>
       <c r="N17">
-        <v>1.046014091908192</v>
+        <v>1.032829854563408</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038569208189192</v>
+        <v>1.005124579407023</v>
       </c>
       <c r="D18">
-        <v>1.043031646007742</v>
+        <v>1.024292527577833</v>
       </c>
       <c r="E18">
-        <v>1.047453341894582</v>
+        <v>1.019356391608587</v>
       </c>
       <c r="F18">
-        <v>1.05883425422483</v>
+        <v>1.025008448658534</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043591044018108</v>
+        <v>1.05012529824413</v>
       </c>
       <c r="J18">
-        <v>1.044654942731774</v>
+        <v>1.031995374520535</v>
       </c>
       <c r="K18">
-        <v>1.046331578114709</v>
+        <v>1.037704713326649</v>
       </c>
       <c r="L18">
-        <v>1.050738362007652</v>
+        <v>1.03284916864267</v>
       </c>
       <c r="M18">
-        <v>1.06208152098002</v>
+        <v>1.038409028466909</v>
       </c>
       <c r="N18">
-        <v>1.04613847257405</v>
+        <v>1.033460926323879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0386388543412</v>
+        <v>1.005485454285614</v>
       </c>
       <c r="D19">
-        <v>1.043085603061862</v>
+        <v>1.024565093105917</v>
       </c>
       <c r="E19">
-        <v>1.047517785697083</v>
+        <v>1.019666805429879</v>
       </c>
       <c r="F19">
-        <v>1.058911202764257</v>
+        <v>1.025374044573615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043612118931841</v>
+        <v>1.050261102287208</v>
       </c>
       <c r="J19">
-        <v>1.044697288909418</v>
+        <v>1.032209392101898</v>
       </c>
       <c r="K19">
-        <v>1.046371156915959</v>
+        <v>1.037910513163947</v>
       </c>
       <c r="L19">
-        <v>1.050788462246661</v>
+        <v>1.033091713883856</v>
       </c>
       <c r="M19">
-        <v>1.062144262265596</v>
+        <v>1.038706430885613</v>
       </c>
       <c r="N19">
-        <v>1.046180878888123</v>
+        <v>1.033675247834754</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038327414878716</v>
+        <v>1.003866176038331</v>
       </c>
       <c r="D20">
-        <v>1.042844317372145</v>
+        <v>1.023342322347567</v>
       </c>
       <c r="E20">
-        <v>1.047229641461132</v>
+        <v>1.018274476275362</v>
       </c>
       <c r="F20">
-        <v>1.058567155792745</v>
+        <v>1.023734178927356</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043517780854394</v>
+        <v>1.049651002995395</v>
       </c>
       <c r="J20">
-        <v>1.044507889985838</v>
+        <v>1.031248872311896</v>
       </c>
       <c r="K20">
-        <v>1.046194120006132</v>
+        <v>1.036986778170372</v>
       </c>
       <c r="L20">
-        <v>1.050564414025137</v>
+        <v>1.03200342600499</v>
       </c>
       <c r="M20">
-        <v>1.061863704449394</v>
+        <v>1.037372146350711</v>
       </c>
       <c r="N20">
-        <v>1.045991210996348</v>
+        <v>1.032713363996478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037315505715519</v>
+        <v>0.9985048189676835</v>
       </c>
       <c r="D21">
-        <v>1.042060283219968</v>
+        <v>1.019298588949785</v>
       </c>
       <c r="E21">
-        <v>1.046293979381357</v>
+        <v>1.01367408151</v>
       </c>
       <c r="F21">
-        <v>1.057450123911388</v>
+        <v>1.018315387436487</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043209569568981</v>
+        <v>1.047618140587549</v>
       </c>
       <c r="J21">
-        <v>1.043891843984333</v>
+        <v>1.028065186371063</v>
       </c>
       <c r="K21">
-        <v>1.045618012426421</v>
+        <v>1.033923340945736</v>
       </c>
       <c r="L21">
-        <v>1.049836223996125</v>
+        <v>1.028400943888441</v>
       </c>
       <c r="M21">
-        <v>1.060952220596052</v>
+        <v>1.032957883232822</v>
       </c>
       <c r="N21">
-        <v>1.045374290138859</v>
+        <v>1.029525156856435</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036679752115428</v>
+        <v>0.9950560638072681</v>
       </c>
       <c r="D22">
-        <v>1.041567650686789</v>
+        <v>1.01670145343987</v>
       </c>
       <c r="E22">
-        <v>1.045706559332746</v>
+        <v>1.010722441945226</v>
       </c>
       <c r="F22">
-        <v>1.056748957073034</v>
+        <v>1.014838133408465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043014631393071</v>
+        <v>1.046300811463277</v>
       </c>
       <c r="J22">
-        <v>1.043504292810965</v>
+        <v>1.026014795343993</v>
       </c>
       <c r="K22">
-        <v>1.045255379396951</v>
+        <v>1.03194915647952</v>
       </c>
       <c r="L22">
-        <v>1.049378550530423</v>
+        <v>1.026084436357423</v>
       </c>
       <c r="M22">
-        <v>1.060379628942105</v>
+        <v>1.030121265648277</v>
       </c>
       <c r="N22">
-        <v>1.044986188598372</v>
+        <v>1.027471854038924</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037016731836177</v>
+        <v>0.9968919325352016</v>
       </c>
       <c r="D23">
-        <v>1.041828773621815</v>
+        <v>1.018083578188311</v>
       </c>
       <c r="E23">
-        <v>1.046017879082151</v>
+        <v>1.012292947590276</v>
       </c>
       <c r="F23">
-        <v>1.057120548895162</v>
+        <v>1.016688365858555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04311808093944</v>
+        <v>1.047002957059829</v>
       </c>
       <c r="J23">
-        <v>1.043709761413936</v>
+        <v>1.027106492459942</v>
       </c>
       <c r="K23">
-        <v>1.045447656676582</v>
+        <v>1.033000391524352</v>
       </c>
       <c r="L23">
-        <v>1.049621155552259</v>
+        <v>1.027317485142059</v>
       </c>
       <c r="M23">
-        <v>1.060683123334025</v>
+        <v>1.031630988278809</v>
       </c>
       <c r="N23">
-        <v>1.045191948990327</v>
+        <v>1.028565101489997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03834438762036</v>
+        <v>1.003954791718617</v>
       </c>
       <c r="D24">
-        <v>1.042857467142205</v>
+        <v>1.023409221912073</v>
       </c>
       <c r="E24">
-        <v>1.047245342567573</v>
+        <v>1.018350637149665</v>
       </c>
       <c r="F24">
-        <v>1.058585902465615</v>
+        <v>1.023823881716099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043522928457241</v>
+        <v>1.049684439391393</v>
       </c>
       <c r="J24">
-        <v>1.044518214300785</v>
+        <v>1.031301450516557</v>
       </c>
       <c r="K24">
-        <v>1.046203771478288</v>
+        <v>1.037037349174259</v>
       </c>
       <c r="L24">
-        <v>1.050576625002704</v>
+        <v>1.032062980611938</v>
       </c>
       <c r="M24">
-        <v>1.061878993887797</v>
+        <v>1.037445153143465</v>
       </c>
       <c r="N24">
-        <v>1.046001549973006</v>
+        <v>1.03276601686822</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039887083845737</v>
+        <v>1.011834440451619</v>
       </c>
       <c r="D25">
-        <v>1.044052557660458</v>
+        <v>1.029365603196066</v>
       </c>
       <c r="E25">
-        <v>1.048673476999115</v>
+        <v>1.025139180483818</v>
       </c>
       <c r="F25">
-        <v>1.060291348356869</v>
+        <v>1.0318188945132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043987687798458</v>
+        <v>1.052634053717525</v>
       </c>
       <c r="J25">
-        <v>1.045455394058194</v>
+        <v>1.035969988420788</v>
       </c>
       <c r="K25">
-        <v>1.04707937537578</v>
+        <v>1.041524539013432</v>
       </c>
       <c r="L25">
-        <v>1.051686090714523</v>
+        <v>1.037359386396898</v>
       </c>
       <c r="M25">
-        <v>1.063268846543012</v>
+        <v>1.043942556693017</v>
       </c>
       <c r="N25">
-        <v>1.046940060633167</v>
+        <v>1.037441184631764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017886678097777</v>
+        <v>1.003440077867968</v>
       </c>
       <c r="D2">
-        <v>1.033950384715268</v>
+        <v>1.028872808849434</v>
       </c>
       <c r="E2">
-        <v>1.030376015266705</v>
+        <v>1.009296609684371</v>
       </c>
       <c r="F2">
-        <v>1.037986142507848</v>
+        <v>1.037782255383235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054864486735815</v>
+        <v>1.052683421301682</v>
       </c>
       <c r="J2">
-        <v>1.039545253236006</v>
+        <v>1.025518381393584</v>
       </c>
       <c r="K2">
-        <v>1.044956162553729</v>
+        <v>1.039944036815663</v>
       </c>
       <c r="L2">
-        <v>1.041427782753608</v>
+        <v>1.020627929691402</v>
       </c>
       <c r="M2">
-        <v>1.048940469628549</v>
+        <v>1.048739169818218</v>
       </c>
       <c r="N2">
-        <v>1.041021526733109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012073170824966</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047146143971649</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039314172174445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022156483555238</v>
+        <v>1.007967100140523</v>
       </c>
       <c r="D3">
-        <v>1.037189597646116</v>
+        <v>1.031846148991816</v>
       </c>
       <c r="E3">
-        <v>1.034082949968</v>
+        <v>1.012926437937197</v>
       </c>
       <c r="F3">
-        <v>1.042351899581853</v>
+        <v>1.040641953822033</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056416986415994</v>
+        <v>1.053746590608001</v>
       </c>
       <c r="J3">
-        <v>1.042060838185551</v>
+        <v>1.028242905389885</v>
       </c>
       <c r="K3">
-        <v>1.047367755827454</v>
+        <v>1.042087143540448</v>
       </c>
       <c r="L3">
-        <v>1.044297542990839</v>
+        <v>1.023396551662715</v>
       </c>
       <c r="M3">
-        <v>1.052470107551785</v>
+        <v>1.050779938107647</v>
       </c>
       <c r="N3">
-        <v>1.043540684101823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013019361628696</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048761258766437</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040826872141694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024864764568486</v>
+        <v>1.0108388096052</v>
       </c>
       <c r="D4">
-        <v>1.03924605546527</v>
+        <v>1.033735222915125</v>
       </c>
       <c r="E4">
-        <v>1.036439725287389</v>
+        <v>1.01523504225287</v>
       </c>
       <c r="F4">
-        <v>1.045127761226434</v>
+        <v>1.042462478313158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057391735063224</v>
+        <v>1.054408394563676</v>
       </c>
       <c r="J4">
-        <v>1.043653125809897</v>
+        <v>1.029969263297697</v>
       </c>
       <c r="K4">
-        <v>1.048892810813554</v>
+        <v>1.043442853548932</v>
       </c>
       <c r="L4">
-        <v>1.046117381263791</v>
+        <v>1.025153006352158</v>
       </c>
       <c r="M4">
-        <v>1.054710413257515</v>
+        <v>1.052074068635334</v>
       </c>
       <c r="N4">
-        <v>1.045135232957233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013618674784701</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049785464040525</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041786367210425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025990697770069</v>
+        <v>1.012037072860543</v>
       </c>
       <c r="D5">
-        <v>1.040101406810362</v>
+        <v>1.034525855442717</v>
       </c>
       <c r="E5">
-        <v>1.037420817397788</v>
+        <v>1.016200426762079</v>
       </c>
       <c r="F5">
-        <v>1.046283384065112</v>
+        <v>1.043224091776596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057794544287412</v>
+        <v>1.054682848464868</v>
       </c>
       <c r="J5">
-        <v>1.04431427510032</v>
+        <v>1.030690720155387</v>
       </c>
       <c r="K5">
-        <v>1.04952569734414</v>
+        <v>1.044010088314591</v>
       </c>
       <c r="L5">
-        <v>1.046873828197569</v>
+        <v>1.025887382213906</v>
       </c>
       <c r="M5">
-        <v>1.055642126002466</v>
+        <v>1.052615153122296</v>
       </c>
       <c r="N5">
-        <v>1.045797321155484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013869999876389</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050213690585812</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042194598133763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026179018675726</v>
+        <v>1.012242729539558</v>
       </c>
       <c r="D6">
-        <v>1.040244493441274</v>
+        <v>1.034663701265581</v>
       </c>
       <c r="E6">
-        <v>1.037584987664108</v>
+        <v>1.016367022574529</v>
       </c>
       <c r="F6">
-        <v>1.046476763962824</v>
+        <v>1.043355479337266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05786177334003</v>
+        <v>1.054731463720694</v>
       </c>
       <c r="J6">
-        <v>1.044424808102113</v>
+        <v>1.030816469661835</v>
       </c>
       <c r="K6">
-        <v>1.049631484679704</v>
+        <v>1.044110415222669</v>
       </c>
       <c r="L6">
-        <v>1.047000341397095</v>
+        <v>1.026015200596446</v>
       </c>
       <c r="M6">
-        <v>1.055797980959154</v>
+        <v>1.052709517677299</v>
       </c>
       <c r="N6">
-        <v>1.045908011126818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013914930904197</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050288372811499</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042274255482817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02487985840043</v>
+        <v>1.010868972490441</v>
       </c>
       <c r="D7">
-        <v>1.039257520434603</v>
+        <v>1.033760762386207</v>
       </c>
       <c r="E7">
-        <v>1.036452872367463</v>
+        <v>1.015261587354497</v>
       </c>
       <c r="F7">
-        <v>1.045143246794591</v>
+        <v>1.042483189699693</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057397144614545</v>
+        <v>1.05441984603397</v>
       </c>
       <c r="J7">
-        <v>1.043661992217274</v>
+        <v>1.029992686260002</v>
       </c>
       <c r="K7">
-        <v>1.048901299580465</v>
+        <v>1.043465238465901</v>
       </c>
       <c r="L7">
-        <v>1.046127522444345</v>
+        <v>1.025176302047318</v>
       </c>
       <c r="M7">
-        <v>1.054722902157636</v>
+        <v>1.052091715791053</v>
       </c>
       <c r="N7">
-        <v>1.045144111955927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013629917328247</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04979943040402</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041822251668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019341246627005</v>
+        <v>1.004999993892191</v>
       </c>
       <c r="D8">
-        <v>1.0350534494182</v>
+        <v>1.029903614096634</v>
       </c>
       <c r="E8">
-        <v>1.031637658874031</v>
+        <v>1.010549070618482</v>
       </c>
       <c r="F8">
-        <v>1.039471978167929</v>
+        <v>1.038768099670842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055395437773018</v>
+        <v>1.05305784251614</v>
       </c>
       <c r="J8">
-        <v>1.040402899227645</v>
+        <v>1.026464144504535</v>
       </c>
       <c r="K8">
-        <v>1.045778645007196</v>
+        <v>1.040693202018224</v>
       </c>
       <c r="L8">
-        <v>1.042405475202242</v>
+        <v>1.021588019171626</v>
       </c>
       <c r="M8">
-        <v>1.050142558323309</v>
+        <v>1.049447341433471</v>
       </c>
       <c r="N8">
-        <v>1.041880390680429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012405740754531</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047706609005162</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039866767510895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009142911751978</v>
+        <v>0.9941712780582015</v>
       </c>
       <c r="D9">
-        <v>1.027329343267521</v>
+        <v>1.022804392256503</v>
       </c>
       <c r="E9">
-        <v>1.022816672289779</v>
+        <v>1.001900406054328</v>
       </c>
       <c r="F9">
-        <v>1.02908372619909</v>
+        <v>1.031966147285655</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051631965385969</v>
+        <v>1.050439874710607</v>
       </c>
       <c r="J9">
-        <v>1.034376890543882</v>
+        <v>1.019931555925012</v>
       </c>
       <c r="K9">
-        <v>1.039994053401152</v>
+        <v>1.035538010079714</v>
       </c>
       <c r="L9">
-        <v>1.035550102055405</v>
+        <v>1.014962725560125</v>
       </c>
       <c r="M9">
-        <v>1.041721927521776</v>
+        <v>1.044561044097165</v>
       </c>
       <c r="N9">
-        <v>1.035845824373142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010132472590868</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043839460289113</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036218524948749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002018485859218</v>
+        <v>0.9866712005456784</v>
       </c>
       <c r="D10">
-        <v>1.021947882398202</v>
+        <v>1.017933236259601</v>
       </c>
       <c r="E10">
-        <v>1.016687391646321</v>
+        <v>0.995959403806952</v>
       </c>
       <c r="F10">
-        <v>1.021864853597947</v>
+        <v>1.027386097691563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04895258813487</v>
+        <v>1.048587525834135</v>
       </c>
       <c r="J10">
-        <v>1.030152247538012</v>
+        <v>1.015423811014408</v>
       </c>
       <c r="K10">
-        <v>1.035931854664396</v>
+        <v>1.031986077638298</v>
       </c>
       <c r="L10">
-        <v>1.030761747880401</v>
+        <v>1.010401997722711</v>
       </c>
       <c r="M10">
-        <v>1.035850243100099</v>
+        <v>1.041277887295686</v>
       </c>
       <c r="N10">
-        <v>1.031615181889631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008579285114114</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04129233247601</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033723909222719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.998848928515111</v>
+        <v>0.9838154354097989</v>
       </c>
       <c r="D11">
-        <v>1.019557902224738</v>
+        <v>1.016256255417538</v>
       </c>
       <c r="E11">
-        <v>1.013968914605006</v>
+        <v>0.9938002935602075</v>
       </c>
       <c r="F11">
-        <v>1.018662698176263</v>
+        <v>1.026355287926005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04774918092697</v>
+        <v>1.048039454906242</v>
       </c>
       <c r="J11">
-        <v>1.028269671933816</v>
+        <v>1.013877362861082</v>
       </c>
       <c r="K11">
-        <v>1.034120175766776</v>
+        <v>1.030877978883507</v>
       </c>
       <c r="L11">
-        <v>1.028632119647298</v>
+        <v>1.008840082055369</v>
       </c>
       <c r="M11">
-        <v>1.033241041410898</v>
+        <v>1.040796728148906</v>
       </c>
       <c r="N11">
-        <v>1.029729932812142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008175684693075</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041346319591248</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032973355725096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9976582208092357</v>
+        <v>0.9828735976866002</v>
       </c>
       <c r="D12">
-        <v>1.018660746693199</v>
+        <v>1.015755908739073</v>
       </c>
       <c r="E12">
-        <v>1.012948967856897</v>
+        <v>0.9931262510256478</v>
       </c>
       <c r="F12">
-        <v>1.017461191724349</v>
+        <v>1.026294177072782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047295432747874</v>
+        <v>1.047911677930402</v>
       </c>
       <c r="J12">
-        <v>1.027562020668781</v>
+        <v>1.013420889306324</v>
       </c>
       <c r="K12">
-        <v>1.033438960891691</v>
+        <v>1.030587350230436</v>
       </c>
       <c r="L12">
-        <v>1.02783222097327</v>
+        <v>1.0083863367979</v>
       </c>
       <c r="M12">
-        <v>1.032261338201252</v>
+        <v>1.040934384226021</v>
       </c>
       <c r="N12">
-        <v>1.029021276601143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008118054182647</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04178057986519</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032767870804739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9979142490985921</v>
+        <v>0.9833678851540604</v>
       </c>
       <c r="D13">
-        <v>1.018853622660263</v>
+        <v>1.016153717613717</v>
       </c>
       <c r="E13">
-        <v>1.013168219085282</v>
+        <v>0.9935709919109968</v>
       </c>
       <c r="F13">
-        <v>1.017719476046381</v>
+        <v>1.027006689658666</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047393072982314</v>
+        <v>1.04811838205974</v>
       </c>
       <c r="J13">
-        <v>1.027714199714332</v>
+        <v>1.013797951002492</v>
       </c>
       <c r="K13">
-        <v>1.033585464305981</v>
+        <v>1.030934828712365</v>
       </c>
       <c r="L13">
-        <v>1.02800420977293</v>
+        <v>1.008777955003192</v>
       </c>
       <c r="M13">
-        <v>1.032471972821167</v>
+        <v>1.041591790227104</v>
       </c>
       <c r="N13">
-        <v>1.029173671758393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008335427081837</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042576247588348</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033011051187519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9987507815370231</v>
+        <v>0.9843619295561969</v>
       </c>
       <c r="D14">
-        <v>1.019483937625843</v>
+        <v>1.016836926591446</v>
       </c>
       <c r="E14">
-        <v>1.013884816225881</v>
+        <v>0.9943866231922718</v>
       </c>
       <c r="F14">
-        <v>1.018563631470762</v>
+        <v>1.027852863090522</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047711813181343</v>
+        <v>1.048412945311311</v>
       </c>
       <c r="J14">
-        <v>1.028211350438484</v>
+        <v>1.014436665518918</v>
       </c>
       <c r="K14">
-        <v>1.034064037315376</v>
+        <v>1.031464720038746</v>
       </c>
       <c r="L14">
-        <v>1.02856618298194</v>
+        <v>1.009432290689632</v>
       </c>
       <c r="M14">
-        <v>1.033160276673622</v>
+        <v>1.042284266382175</v>
       </c>
       <c r="N14">
-        <v>1.029671528493597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008610956159014</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043296496001005</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033387132044309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.999264401042374</v>
+        <v>0.9849259673846256</v>
       </c>
       <c r="D15">
-        <v>1.0198710351594</v>
+        <v>1.017211320651184</v>
       </c>
       <c r="E15">
-        <v>1.014324970509088</v>
+        <v>0.9948381925475263</v>
       </c>
       <c r="F15">
-        <v>1.019082123264661</v>
+        <v>1.028247736943538</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047907297268008</v>
+        <v>1.048564814889385</v>
       </c>
       <c r="J15">
-        <v>1.028516539508464</v>
+        <v>1.014784597404232</v>
       </c>
       <c r="K15">
-        <v>1.034357794159207</v>
+        <v>1.031745628861364</v>
       </c>
       <c r="L15">
-        <v>1.028911246464194</v>
+        <v>1.009785640888053</v>
       </c>
       <c r="M15">
-        <v>1.033582952468192</v>
+        <v>1.042586822383668</v>
       </c>
       <c r="N15">
-        <v>1.029977150967062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008743119452584</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043573078457357</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033591629782429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002226998980852</v>
+        <v>0.9880216328244579</v>
       </c>
       <c r="D16">
-        <v>1.022105202066493</v>
+        <v>1.019216793692186</v>
       </c>
       <c r="E16">
-        <v>1.016866408067752</v>
+        <v>0.9972724169959772</v>
       </c>
       <c r="F16">
-        <v>1.022075710225013</v>
+        <v>1.030098020018679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04903152226053</v>
+        <v>1.049338168669881</v>
       </c>
       <c r="J16">
-        <v>1.03027603397296</v>
+        <v>1.016640357424506</v>
       </c>
       <c r="K16">
-        <v>1.036050949206334</v>
+        <v>1.033211854884963</v>
       </c>
       <c r="L16">
-        <v>1.030901864949502</v>
+        <v>1.01165427092195</v>
       </c>
       <c r="M16">
-        <v>1.036021959063091</v>
+        <v>1.043909162120328</v>
       </c>
       <c r="N16">
-        <v>1.031739144115514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009365501488867</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.0445796449634</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034631476457084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004062235082937</v>
+        <v>0.9898780436267298</v>
       </c>
       <c r="D17">
-        <v>1.023490337923546</v>
+        <v>1.020399301674559</v>
       </c>
       <c r="E17">
-        <v>1.018442984913452</v>
+        <v>0.9987168455352726</v>
       </c>
       <c r="F17">
-        <v>1.023932649274441</v>
+        <v>1.031069507958829</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049724972387065</v>
+        <v>1.049774186697678</v>
       </c>
       <c r="J17">
-        <v>1.031365197683456</v>
+        <v>1.017730828654398</v>
       </c>
       <c r="K17">
-        <v>1.037098661782202</v>
+        <v>1.034058867467439</v>
       </c>
       <c r="L17">
-        <v>1.032135188849517</v>
+        <v>1.012747410564994</v>
       </c>
       <c r="M17">
-        <v>1.037533673232413</v>
+        <v>1.044553857079262</v>
       </c>
       <c r="N17">
-        <v>1.032829854563408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009699394815127</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044960586438084</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035232935277179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,81 +1281,105 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005124579407023</v>
+        <v>0.9908214531272863</v>
       </c>
       <c r="D18">
-        <v>1.024292527577833</v>
+        <v>1.020950542901884</v>
       </c>
       <c r="E18">
-        <v>1.019356391608587</v>
+        <v>0.9994196296171222</v>
       </c>
       <c r="F18">
-        <v>1.025008448658534</v>
+        <v>1.031314016042214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05012529824413</v>
+        <v>1.049942919901282</v>
       </c>
       <c r="J18">
-        <v>1.031995374520535</v>
+        <v>1.018235756386487</v>
       </c>
       <c r="K18">
-        <v>1.037704713326649</v>
+        <v>1.034417183034682</v>
       </c>
       <c r="L18">
-        <v>1.03284916864267</v>
+        <v>1.013248388535261</v>
       </c>
       <c r="M18">
-        <v>1.038409028466909</v>
+        <v>1.0446132670319</v>
       </c>
       <c r="N18">
-        <v>1.033460926323879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009800692818866</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044770690276358</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035474624433164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>1.005485454285614</v>
+        <v>0.9909245922687071</v>
       </c>
       <c r="D19">
-        <v>1.024565093105917</v>
+        <v>1.020916816856162</v>
       </c>
       <c r="E19">
-        <v>1.019666805429879</v>
+        <v>0.9994409377679869</v>
       </c>
       <c r="F19">
-        <v>1.025374044573615</v>
+        <v>1.030881809740239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050261102287208</v>
+        <v>1.049864129033116</v>
       </c>
       <c r="J19">
-        <v>1.032209392101898</v>
+        <v>1.018198236021025</v>
       </c>
       <c r="K19">
-        <v>1.037910513163947</v>
+        <v>1.034321347259857</v>
       </c>
       <c r="L19">
-        <v>1.033091713883856</v>
+        <v>1.013204733050421</v>
       </c>
       <c r="M19">
-        <v>1.038706430885613</v>
+        <v>1.044126152076023</v>
       </c>
       <c r="N19">
-        <v>1.033675247834754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009695821030955</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044061287761769</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035413267681323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003866176038331</v>
+        <v>0.9886565305533225</v>
       </c>
       <c r="D20">
-        <v>1.023342322347567</v>
+        <v>1.01923547675888</v>
       </c>
       <c r="E20">
-        <v>1.018274476275362</v>
+        <v>0.997536642828329</v>
       </c>
       <c r="F20">
-        <v>1.023734178927356</v>
+        <v>1.02860352592584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049651002995395</v>
+        <v>1.049093634127696</v>
       </c>
       <c r="J20">
-        <v>1.031248872311896</v>
+        <v>1.016631837301143</v>
       </c>
       <c r="K20">
-        <v>1.036986778170372</v>
+        <v>1.032948320956872</v>
       </c>
       <c r="L20">
-        <v>1.03200342600499</v>
+        <v>1.011622946143547</v>
       </c>
       <c r="M20">
-        <v>1.037372146350711</v>
+        <v>1.042161396316909</v>
       </c>
       <c r="N20">
-        <v>1.032713363996478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009005633524908</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041981021019109</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034446414362288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9985048189676835</v>
+        <v>0.9829096888825334</v>
       </c>
       <c r="D21">
-        <v>1.019298588949785</v>
+        <v>1.015474442183082</v>
       </c>
       <c r="E21">
-        <v>1.01367408151</v>
+        <v>0.9929797113532304</v>
       </c>
       <c r="F21">
-        <v>1.018315387436487</v>
+        <v>1.024971342537762</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047618140587549</v>
+        <v>1.047617324644682</v>
       </c>
       <c r="J21">
-        <v>1.028065186371063</v>
+        <v>1.013139744268847</v>
       </c>
       <c r="K21">
-        <v>1.033923340945736</v>
+        <v>1.030168459659805</v>
       </c>
       <c r="L21">
-        <v>1.028400943888441</v>
+        <v>1.008095317134404</v>
       </c>
       <c r="M21">
-        <v>1.032957883232822</v>
+        <v>1.039494581266342</v>
       </c>
       <c r="N21">
-        <v>1.029525156856435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007777574567416</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039829702047675</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03248418815329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950560638072681</v>
+        <v>0.9792273778165643</v>
       </c>
       <c r="D22">
-        <v>1.01670145343987</v>
+        <v>1.013076677212151</v>
       </c>
       <c r="E22">
-        <v>1.010722441945226</v>
+        <v>0.9900714373801174</v>
       </c>
       <c r="F22">
-        <v>1.014838133408465</v>
+        <v>1.022698358807031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046300811463277</v>
+        <v>1.046666446889492</v>
       </c>
       <c r="J22">
-        <v>1.026014795343993</v>
+        <v>1.010907174027952</v>
       </c>
       <c r="K22">
-        <v>1.03194915647952</v>
+        <v>1.02839345865921</v>
       </c>
       <c r="L22">
-        <v>1.026084436357423</v>
+        <v>1.005842180707371</v>
       </c>
       <c r="M22">
-        <v>1.030121265648277</v>
+        <v>1.03783318033806</v>
       </c>
       <c r="N22">
-        <v>1.027471854038924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006995806243744</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03851481217821</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031215633410232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9968919325352016</v>
+        <v>0.9811739099759699</v>
       </c>
       <c r="D23">
-        <v>1.018083578188311</v>
+        <v>1.014338812969103</v>
       </c>
       <c r="E23">
-        <v>1.012292947590276</v>
+        <v>0.9916052614455869</v>
       </c>
       <c r="F23">
-        <v>1.016688365858555</v>
+        <v>1.023897660944647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047002957059829</v>
+        <v>1.047166668209133</v>
       </c>
       <c r="J23">
-        <v>1.027106492459942</v>
+        <v>1.012082569642722</v>
       </c>
       <c r="K23">
-        <v>1.033000391524352</v>
+        <v>1.029325107547316</v>
       </c>
       <c r="L23">
-        <v>1.027317485142059</v>
+        <v>1.007028159180733</v>
       </c>
       <c r="M23">
-        <v>1.031630988278809</v>
+        <v>1.038707908867999</v>
       </c>
       <c r="N23">
-        <v>1.028565101489997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007403862127275</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039207102739806</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031864681990619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003954791718617</v>
+        <v>0.9886818349755218</v>
       </c>
       <c r="D24">
-        <v>1.023409221912073</v>
+        <v>1.019226978274102</v>
       </c>
       <c r="E24">
-        <v>1.018350637149665</v>
+        <v>0.997543976210827</v>
       </c>
       <c r="F24">
-        <v>1.023823881716099</v>
+        <v>1.028547127027266</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049684439391393</v>
+        <v>1.049077130574477</v>
       </c>
       <c r="J24">
-        <v>1.031301450516557</v>
+        <v>1.01662263887873</v>
       </c>
       <c r="K24">
-        <v>1.037037349174259</v>
+        <v>1.032924655112247</v>
       </c>
       <c r="L24">
-        <v>1.032062980611938</v>
+        <v>1.011614360096113</v>
       </c>
       <c r="M24">
-        <v>1.037445153143465</v>
+        <v>1.042090807384399</v>
       </c>
       <c r="N24">
-        <v>1.03276601686822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008985627057658</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041884439932809</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034402223812893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011834440451619</v>
+        <v>0.9970521357229695</v>
       </c>
       <c r="D25">
-        <v>1.029365603196066</v>
+        <v>1.024698042533869</v>
       </c>
       <c r="E25">
-        <v>1.025139180483818</v>
+        <v>1.004199164140136</v>
       </c>
       <c r="F25">
-        <v>1.0318188945132</v>
+        <v>1.033770996169984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052634053717525</v>
+        <v>1.05115407369339</v>
       </c>
       <c r="J25">
-        <v>1.035969988420788</v>
+        <v>1.021679116159345</v>
       </c>
       <c r="K25">
-        <v>1.041524539013432</v>
+        <v>1.036924680540879</v>
       </c>
       <c r="L25">
-        <v>1.037359386396898</v>
+        <v>1.016732641366074</v>
       </c>
       <c r="M25">
-        <v>1.043942556693017</v>
+        <v>1.045866742219914</v>
       </c>
       <c r="N25">
-        <v>1.037441184631764</v>
+        <v>1.010746260711896</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044872827319255</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037227583480543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003440077867968</v>
+        <v>1.003056042209991</v>
       </c>
       <c r="D2">
-        <v>1.028872808849434</v>
+        <v>1.027960454364605</v>
       </c>
       <c r="E2">
-        <v>1.009296609684371</v>
+        <v>1.009001585332434</v>
       </c>
       <c r="F2">
-        <v>1.037782255383235</v>
+        <v>1.03713981747273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052683421301682</v>
+        <v>1.052210428453795</v>
       </c>
       <c r="J2">
-        <v>1.025518381393584</v>
+        <v>1.025145730216395</v>
       </c>
       <c r="K2">
-        <v>1.039944036815663</v>
+        <v>1.039043528401072</v>
       </c>
       <c r="L2">
-        <v>1.020627929691402</v>
+        <v>1.020336922218515</v>
       </c>
       <c r="M2">
-        <v>1.048739169818218</v>
+        <v>1.048104892710639</v>
       </c>
       <c r="N2">
-        <v>1.012073170824966</v>
+        <v>1.013656998195427</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047146143971649</v>
+        <v>1.046644160570409</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039314172174445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038686201959967</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022375253694586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007967100140523</v>
+        <v>1.007318643473492</v>
       </c>
       <c r="D3">
-        <v>1.031846148991816</v>
+        <v>1.030663139744449</v>
       </c>
       <c r="E3">
-        <v>1.012926437937197</v>
+        <v>1.012396342888477</v>
       </c>
       <c r="F3">
-        <v>1.040641953822033</v>
+        <v>1.039809652241328</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053746590608001</v>
+        <v>1.053132664839341</v>
       </c>
       <c r="J3">
-        <v>1.028242905389885</v>
+        <v>1.027611763927686</v>
       </c>
       <c r="K3">
-        <v>1.042087143540448</v>
+        <v>1.040918155057731</v>
       </c>
       <c r="L3">
-        <v>1.023396551662715</v>
+        <v>1.022873029662253</v>
       </c>
       <c r="M3">
-        <v>1.050779938107647</v>
+        <v>1.049957291570668</v>
       </c>
       <c r="N3">
-        <v>1.013019361628696</v>
+        <v>1.014332388936034</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048761258766437</v>
+        <v>1.048110196254843</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040826872141694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040008783798593</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022779152558347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0108388096052</v>
+        <v>1.01002477445295</v>
       </c>
       <c r="D4">
-        <v>1.033735222915125</v>
+        <v>1.032381761439457</v>
       </c>
       <c r="E4">
-        <v>1.01523504225287</v>
+        <v>1.014557604970279</v>
       </c>
       <c r="F4">
-        <v>1.042462478313158</v>
+        <v>1.0415107705733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054408394563676</v>
+        <v>1.05370554969067</v>
       </c>
       <c r="J4">
-        <v>1.029969263297697</v>
+        <v>1.029175475821496</v>
       </c>
       <c r="K4">
-        <v>1.043442853548932</v>
+        <v>1.042104465367065</v>
       </c>
       <c r="L4">
-        <v>1.025153006352158</v>
+        <v>1.024483451000607</v>
       </c>
       <c r="M4">
-        <v>1.052074068635334</v>
+        <v>1.051132738104672</v>
       </c>
       <c r="N4">
-        <v>1.013618674784701</v>
+        <v>1.014760659352067</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049785464040525</v>
+        <v>1.049040473104448</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041786367210425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040848579405546</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023032328458027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012037072860543</v>
+        <v>1.01115421706888</v>
       </c>
       <c r="D5">
-        <v>1.034525855442717</v>
+        <v>1.033101492606639</v>
       </c>
       <c r="E5">
-        <v>1.016200426762079</v>
+        <v>1.015461665695967</v>
       </c>
       <c r="F5">
-        <v>1.043224091776596</v>
+        <v>1.042222752193281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054682848464868</v>
+        <v>1.053942978736539</v>
       </c>
       <c r="J5">
-        <v>1.030690720155387</v>
+        <v>1.029829159942535</v>
       </c>
       <c r="K5">
-        <v>1.044010088314591</v>
+        <v>1.042601165975403</v>
       </c>
       <c r="L5">
-        <v>1.025887382213906</v>
+        <v>1.025156982666215</v>
       </c>
       <c r="M5">
-        <v>1.052615153122296</v>
+        <v>1.051624442472132</v>
       </c>
       <c r="N5">
-        <v>1.013869999876389</v>
+        <v>1.014940327407361</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050213690585812</v>
+        <v>1.049429619501596</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042194598133763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04120764757082</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023138379446438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012242729539558</v>
+        <v>1.011347823885403</v>
       </c>
       <c r="D6">
-        <v>1.034663701265581</v>
+        <v>1.033227111545234</v>
       </c>
       <c r="E6">
-        <v>1.016367022574529</v>
+        <v>1.01561745432283</v>
       </c>
       <c r="F6">
-        <v>1.043355479337266</v>
+        <v>1.042345581813899</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054731463720694</v>
+        <v>1.053985207765798</v>
       </c>
       <c r="J6">
-        <v>1.030816469661835</v>
+        <v>1.029943037855558</v>
       </c>
       <c r="K6">
-        <v>1.044110415222669</v>
+        <v>1.04268932715191</v>
       </c>
       <c r="L6">
-        <v>1.026015200596446</v>
+        <v>1.025274076452549</v>
       </c>
       <c r="M6">
-        <v>1.052709517677299</v>
+        <v>1.051710291044008</v>
       </c>
       <c r="N6">
-        <v>1.013914930904197</v>
+        <v>1.014972402775098</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050288372811499</v>
+        <v>1.049497562058949</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042274255482817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04127957196016</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023157940940577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010868972490441</v>
+        <v>1.010063484438941</v>
       </c>
       <c r="D7">
-        <v>1.033760762386207</v>
+        <v>1.032412445207615</v>
       </c>
       <c r="E7">
-        <v>1.015261587354497</v>
+        <v>1.014592001846904</v>
       </c>
       <c r="F7">
-        <v>1.042483189699693</v>
+        <v>1.041535102278754</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05441984603397</v>
+        <v>1.053719669640557</v>
       </c>
       <c r="J7">
-        <v>1.029992686260002</v>
+        <v>1.029207224136827</v>
       </c>
       <c r="K7">
-        <v>1.043465238465901</v>
+        <v>1.042131931282001</v>
       </c>
       <c r="L7">
-        <v>1.025176302047318</v>
+        <v>1.024514503929506</v>
       </c>
       <c r="M7">
-        <v>1.052091715791053</v>
+        <v>1.051153962119847</v>
       </c>
       <c r="N7">
-        <v>1.013629917328247</v>
+        <v>1.014798169110712</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04979943040402</v>
+        <v>1.049057270293272</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041822251668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040890056136095</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023041243840004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004999993892191</v>
+        <v>1.004557352004938</v>
       </c>
       <c r="D8">
-        <v>1.029903614096634</v>
+        <v>1.028919524822271</v>
       </c>
       <c r="E8">
-        <v>1.010549070618482</v>
+        <v>1.0102032217546</v>
       </c>
       <c r="F8">
-        <v>1.038768099670842</v>
+        <v>1.038075354442974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05305784251614</v>
+        <v>1.052547487032241</v>
       </c>
       <c r="J8">
-        <v>1.026464144504535</v>
+        <v>1.026034176091278</v>
       </c>
       <c r="K8">
-        <v>1.040693202018224</v>
+        <v>1.039721509083629</v>
       </c>
       <c r="L8">
-        <v>1.021588019171626</v>
+        <v>1.021246735130188</v>
       </c>
       <c r="M8">
-        <v>1.049447341433471</v>
+        <v>1.048763135085671</v>
       </c>
       <c r="N8">
-        <v>1.012405740754531</v>
+        <v>1.01398443585467</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047706609005162</v>
+        <v>1.047165110700982</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039866767510895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039190728615275</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022527475688059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9941712780582015</v>
+        <v>0.994381138801004</v>
       </c>
       <c r="D9">
-        <v>1.022804392256503</v>
+        <v>1.022479337444221</v>
       </c>
       <c r="E9">
-        <v>1.001900406054328</v>
+        <v>1.002134065660343</v>
       </c>
       <c r="F9">
-        <v>1.031966147285655</v>
+        <v>1.031736845222794</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050439874710607</v>
+        <v>1.050271684620014</v>
       </c>
       <c r="J9">
-        <v>1.019931555925012</v>
+        <v>1.020133885816849</v>
       </c>
       <c r="K9">
-        <v>1.035538010079714</v>
+        <v>1.03521793528254</v>
       </c>
       <c r="L9">
-        <v>1.014962725560125</v>
+        <v>1.015192613767036</v>
       </c>
       <c r="M9">
-        <v>1.044561044097165</v>
+        <v>1.044335175717593</v>
       </c>
       <c r="N9">
-        <v>1.010132472590868</v>
+        <v>1.012376505100075</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043839460289113</v>
+        <v>1.043660701411991</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036218524948749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036002958978979</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021541761106668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9866712005456784</v>
+        <v>0.9873886378164566</v>
       </c>
       <c r="D10">
-        <v>1.017933236259601</v>
+        <v>1.018098921581189</v>
       </c>
       <c r="E10">
-        <v>0.995959403806952</v>
+        <v>0.996643200681845</v>
       </c>
       <c r="F10">
-        <v>1.027386097691563</v>
+        <v>1.027503133099843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048587525834135</v>
+        <v>1.048673125313401</v>
       </c>
       <c r="J10">
-        <v>1.015423811014408</v>
+        <v>1.016111709622705</v>
       </c>
       <c r="K10">
-        <v>1.031986077638298</v>
+        <v>1.032148906821466</v>
       </c>
       <c r="L10">
-        <v>1.010401997722711</v>
+        <v>1.011073328834777</v>
       </c>
       <c r="M10">
-        <v>1.041277887295686</v>
+        <v>1.041392952680574</v>
       </c>
       <c r="N10">
-        <v>1.008579285114114</v>
+        <v>1.011405928816792</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04129233247601</v>
+        <v>1.041383393269649</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033723909222719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033851475641321</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020870780335058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9838154354097989</v>
+        <v>0.984738009573465</v>
       </c>
       <c r="D11">
-        <v>1.016256255417538</v>
+        <v>1.016611229054944</v>
       </c>
       <c r="E11">
-        <v>0.9938002935602075</v>
+        <v>0.9946556109954383</v>
       </c>
       <c r="F11">
-        <v>1.026355287926005</v>
+        <v>1.026605864399916</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048039454906242</v>
+        <v>1.04822270753794</v>
       </c>
       <c r="J11">
-        <v>1.013877362861082</v>
+        <v>1.014759782975904</v>
       </c>
       <c r="K11">
-        <v>1.030877978883507</v>
+        <v>1.031226536727392</v>
       </c>
       <c r="L11">
-        <v>1.008840082055369</v>
+        <v>1.009679023384553</v>
       </c>
       <c r="M11">
-        <v>1.040796728148906</v>
+        <v>1.041042889909146</v>
       </c>
       <c r="N11">
-        <v>1.008175684693075</v>
+        <v>1.011354385736991</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041346319591248</v>
+        <v>1.041541030545882</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032973355725096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033235451171123</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020736443079266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9828735976866002</v>
+        <v>0.9838489665648323</v>
       </c>
       <c r="D12">
-        <v>1.015755908739073</v>
+        <v>1.016162189297487</v>
       </c>
       <c r="E12">
-        <v>0.9931262510256478</v>
+        <v>0.9940184227552703</v>
       </c>
       <c r="F12">
-        <v>1.026294177072782</v>
+        <v>1.026580778306869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047911677930402</v>
+        <v>1.048121349102815</v>
       </c>
       <c r="J12">
-        <v>1.013420889306324</v>
+        <v>1.014352952575713</v>
       </c>
       <c r="K12">
-        <v>1.030587350230436</v>
+        <v>1.030986162392586</v>
       </c>
       <c r="L12">
-        <v>1.0083863367979</v>
+        <v>1.009261124645252</v>
       </c>
       <c r="M12">
-        <v>1.040934384226021</v>
+        <v>1.041215855828298</v>
       </c>
       <c r="N12">
-        <v>1.008118054182647</v>
+        <v>1.011408406837741</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04178057986519</v>
+        <v>1.042003145599424</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032767870804739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033065501552677</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020727227965075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9833678851540604</v>
+        <v>0.9842633601713344</v>
       </c>
       <c r="D13">
-        <v>1.016153717613717</v>
+        <v>1.016496075995065</v>
       </c>
       <c r="E13">
-        <v>0.9935709919109968</v>
+        <v>0.994382011329687</v>
       </c>
       <c r="F13">
-        <v>1.027006689658666</v>
+        <v>1.027248017916717</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04811838205974</v>
+        <v>1.048295061642359</v>
       </c>
       <c r="J13">
-        <v>1.013797951002492</v>
+        <v>1.014653866056828</v>
       </c>
       <c r="K13">
-        <v>1.030934828712365</v>
+        <v>1.031270920670344</v>
       </c>
       <c r="L13">
-        <v>1.008777955003192</v>
+        <v>1.009573241788228</v>
       </c>
       <c r="M13">
-        <v>1.041591790227104</v>
+        <v>1.041828821064532</v>
       </c>
       <c r="N13">
-        <v>1.008335427081837</v>
+        <v>1.011517876762954</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042576247588348</v>
+        <v>1.042763626212036</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033011051187519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033264090506596</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020821277453734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9843619295561969</v>
+        <v>0.9851438469459212</v>
       </c>
       <c r="D14">
-        <v>1.016836926591446</v>
+        <v>1.017084399823258</v>
       </c>
       <c r="E14">
-        <v>0.9943866231922718</v>
+        <v>0.9950902414658639</v>
       </c>
       <c r="F14">
-        <v>1.027852863090522</v>
+        <v>1.028027211347848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048412945311311</v>
+        <v>1.048540674432134</v>
       </c>
       <c r="J14">
-        <v>1.014436665518918</v>
+        <v>1.015184549013375</v>
       </c>
       <c r="K14">
-        <v>1.031464720038746</v>
+        <v>1.031707720628485</v>
       </c>
       <c r="L14">
-        <v>1.009432290689632</v>
+        <v>1.010122437724173</v>
       </c>
       <c r="M14">
-        <v>1.042284266382175</v>
+        <v>1.042455550239957</v>
       </c>
       <c r="N14">
-        <v>1.008610956159014</v>
+        <v>1.011621244420978</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043296496001005</v>
+        <v>1.043431881854546</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033387132044309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033574483863921</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020934023243846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9849259673846256</v>
+        <v>0.9856508343236825</v>
       </c>
       <c r="D15">
-        <v>1.017211320651184</v>
+        <v>1.01740996089931</v>
       </c>
       <c r="E15">
-        <v>0.9948381925475263</v>
+        <v>0.995489705769752</v>
       </c>
       <c r="F15">
-        <v>1.028247736943538</v>
+        <v>1.02838765715305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048564814889385</v>
+        <v>1.048667349545873</v>
       </c>
       <c r="J15">
-        <v>1.014784597404232</v>
+        <v>1.015478198917845</v>
       </c>
       <c r="K15">
-        <v>1.031745628861364</v>
+        <v>1.031940706746991</v>
       </c>
       <c r="L15">
-        <v>1.009785640888053</v>
+        <v>1.010424780074766</v>
       </c>
       <c r="M15">
-        <v>1.042586822383668</v>
+        <v>1.042724302379779</v>
       </c>
       <c r="N15">
-        <v>1.008743119452584</v>
+        <v>1.011665380535985</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043573078457357</v>
+        <v>1.043681742282559</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033591629782429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033745664426188</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020988536095522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9880216328244579</v>
+        <v>0.9884714143940059</v>
       </c>
       <c r="D16">
-        <v>1.019216793692186</v>
+        <v>1.019170782926197</v>
       </c>
       <c r="E16">
-        <v>0.9972724169959772</v>
+        <v>0.9976811055307491</v>
       </c>
       <c r="F16">
-        <v>1.030098020018679</v>
+        <v>1.030065626345549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049338168669881</v>
+        <v>1.049314404125592</v>
       </c>
       <c r="J16">
-        <v>1.016640357424506</v>
+        <v>1.017071744367924</v>
       </c>
       <c r="K16">
-        <v>1.033211854884963</v>
+        <v>1.033166632587766</v>
       </c>
       <c r="L16">
-        <v>1.01165427092195</v>
+        <v>1.012055553664424</v>
       </c>
       <c r="M16">
-        <v>1.043909162120328</v>
+        <v>1.043877308549652</v>
       </c>
       <c r="N16">
-        <v>1.009365501488867</v>
+        <v>1.011875454009489</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.0445796449634</v>
+        <v>1.044554467266237</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034631476457084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034615901381578</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02125159024256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9898780436267298</v>
+        <v>0.9901881087417348</v>
       </c>
       <c r="D17">
-        <v>1.020399301674559</v>
+        <v>1.020222595532789</v>
       </c>
       <c r="E17">
-        <v>0.9987168455352726</v>
+        <v>0.9990055922019234</v>
       </c>
       <c r="F17">
-        <v>1.031069507958829</v>
+        <v>1.03094510874983</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049774186697678</v>
+        <v>1.04968288070849</v>
       </c>
       <c r="J17">
-        <v>1.017730828654398</v>
+        <v>1.018028636208143</v>
       </c>
       <c r="K17">
-        <v>1.034058867467439</v>
+        <v>1.033885102772849</v>
       </c>
       <c r="L17">
-        <v>1.012747410564994</v>
+        <v>1.013031079482843</v>
       </c>
       <c r="M17">
-        <v>1.044553857079262</v>
+        <v>1.044431473811135</v>
       </c>
       <c r="N17">
-        <v>1.009699394815127</v>
+        <v>1.012013178751317</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044960586438084</v>
+        <v>1.044863842666743</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035232935277179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035126718632922</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021395434725898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,105 +1431,123 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9908214531272863</v>
+        <v>0.9910847054159143</v>
       </c>
       <c r="D18">
-        <v>1.020950542901884</v>
+        <v>1.020723448083186</v>
       </c>
       <c r="E18">
-        <v>0.9994196296171222</v>
+        <v>0.999673667234636</v>
       </c>
       <c r="F18">
-        <v>1.031314016042214</v>
+        <v>1.031154088098065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049942919901282</v>
+        <v>1.049825544982127</v>
       </c>
       <c r="J18">
-        <v>1.018235756386487</v>
+        <v>1.018488804987466</v>
       </c>
       <c r="K18">
-        <v>1.034417183034682</v>
+        <v>1.034193805137589</v>
       </c>
       <c r="L18">
-        <v>1.013248388535261</v>
+        <v>1.013498035985621</v>
       </c>
       <c r="M18">
-        <v>1.0446132670319</v>
+        <v>1.044455889455665</v>
       </c>
       <c r="N18">
-        <v>1.009800692818866</v>
+        <v>1.012051284070016</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044770690276358</v>
+        <v>1.044646257793101</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035474624433164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035332194053306</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021435801795162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9909245922687071</v>
+        <v>0.991220434688561</v>
       </c>
       <c r="D19">
-        <v>1.020916816856162</v>
+        <v>1.020711019786644</v>
       </c>
       <c r="E19">
-        <v>0.9994409377679869</v>
+        <v>0.999732724985806</v>
       </c>
       <c r="F19">
-        <v>1.030881809740239</v>
+        <v>1.030736767312489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049864129033116</v>
+        <v>1.049757745067152</v>
       </c>
       <c r="J19">
-        <v>1.018198236021025</v>
+        <v>1.018482682666</v>
       </c>
       <c r="K19">
-        <v>1.034321347259857</v>
+        <v>1.034118900744518</v>
       </c>
       <c r="L19">
-        <v>1.013204733050421</v>
+        <v>1.013491505329239</v>
       </c>
       <c r="M19">
-        <v>1.044126152076023</v>
+        <v>1.043983412759531</v>
       </c>
       <c r="N19">
-        <v>1.009695821030955</v>
+        <v>1.011981439020402</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044061287761769</v>
+        <v>1.043948392594884</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035413267681323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035286259628917</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021379693991544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9886565305533225</v>
+        <v>0.9892042693477683</v>
       </c>
       <c r="D20">
-        <v>1.01923547675888</v>
+        <v>1.019248871933362</v>
       </c>
       <c r="E20">
-        <v>0.997536642828329</v>
+        <v>0.9980675982318109</v>
       </c>
       <c r="F20">
-        <v>1.02860352592584</v>
+        <v>1.028612984509344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049093634127696</v>
+        <v>1.049100557262171</v>
       </c>
       <c r="J20">
-        <v>1.016631837301143</v>
+        <v>1.017157786413314</v>
       </c>
       <c r="K20">
-        <v>1.032948320956872</v>
+        <v>1.032961491916486</v>
       </c>
       <c r="L20">
-        <v>1.011622946143547</v>
+        <v>1.012144511914074</v>
       </c>
       <c r="M20">
-        <v>1.042161396316909</v>
+        <v>1.042170700262494</v>
       </c>
       <c r="N20">
-        <v>1.009005633524908</v>
+        <v>1.011594004050963</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041981021019109</v>
+        <v>1.041988384090959</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034446414362288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034472250254327</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021052287234377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9829096888825334</v>
+        <v>0.9840181894779022</v>
       </c>
       <c r="D21">
-        <v>1.015474442183082</v>
+        <v>1.015977385746176</v>
       </c>
       <c r="E21">
-        <v>0.9929797113532304</v>
+        <v>0.9940188562486706</v>
       </c>
       <c r="F21">
-        <v>1.024971342537762</v>
+        <v>1.025326931714405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047617324644682</v>
+        <v>1.047876984642332</v>
       </c>
       <c r="J21">
-        <v>1.013139744268847</v>
+        <v>1.014199641156074</v>
       </c>
       <c r="K21">
-        <v>1.030168459659805</v>
+        <v>1.03066225483039</v>
       </c>
       <c r="L21">
-        <v>1.008095317134404</v>
+        <v>1.009114436194073</v>
       </c>
       <c r="M21">
-        <v>1.039494581266342</v>
+        <v>1.039843855759604</v>
       </c>
       <c r="N21">
-        <v>1.007777574567416</v>
+        <v>1.011212902547918</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039829702047675</v>
+        <v>1.040106129595173</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03248418815329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032850183513406</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020546729049138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9792273778165643</v>
+        <v>0.9806942682430559</v>
       </c>
       <c r="D22">
-        <v>1.013076677212151</v>
+        <v>1.013892275628906</v>
       </c>
       <c r="E22">
-        <v>0.9900714373801174</v>
+        <v>0.9914354822434152</v>
       </c>
       <c r="F22">
-        <v>1.022698358807031</v>
+        <v>1.023275427783345</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046666446889492</v>
+        <v>1.047087237173116</v>
       </c>
       <c r="J22">
-        <v>1.010907174027952</v>
+        <v>1.012305833923386</v>
       </c>
       <c r="K22">
-        <v>1.02839345865921</v>
+        <v>1.029193457629339</v>
       </c>
       <c r="L22">
-        <v>1.005842180707371</v>
+        <v>1.0071785348351</v>
       </c>
       <c r="M22">
-        <v>1.03783318033806</v>
+        <v>1.038399478037945</v>
       </c>
       <c r="N22">
-        <v>1.006995806243744</v>
+        <v>1.010963202129274</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03851481217821</v>
+        <v>1.038962999937085</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031215633410232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031796843151113</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020223747726747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9811739099759699</v>
+        <v>0.982433608369121</v>
       </c>
       <c r="D23">
-        <v>1.014338812969103</v>
+        <v>1.014977115351637</v>
       </c>
       <c r="E23">
-        <v>0.9916052614455869</v>
+        <v>0.9927808724488579</v>
       </c>
       <c r="F23">
-        <v>1.023897660944647</v>
+        <v>1.024349107386906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047166668209133</v>
+        <v>1.047496105275165</v>
       </c>
       <c r="J23">
-        <v>1.012082569642722</v>
+        <v>1.013285466394652</v>
       </c>
       <c r="K23">
-        <v>1.029325107547316</v>
+        <v>1.02995151943003</v>
       </c>
       <c r="L23">
-        <v>1.007028159180733</v>
+        <v>1.008180548387018</v>
       </c>
       <c r="M23">
-        <v>1.038707908867999</v>
+        <v>1.039151146666518</v>
       </c>
       <c r="N23">
-        <v>1.007403862127275</v>
+        <v>1.011044868451214</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039207102739806</v>
+        <v>1.039557896284077</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031864681990619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032322214673689</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020386804083671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9886818349755218</v>
+        <v>0.9892351862206276</v>
       </c>
       <c r="D24">
-        <v>1.019226978274102</v>
+        <v>1.019243712207839</v>
       </c>
       <c r="E24">
-        <v>0.997543976210827</v>
+        <v>0.9980814661458719</v>
       </c>
       <c r="F24">
-        <v>1.028547127027266</v>
+        <v>1.028558944468406</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049077130574477</v>
+        <v>1.049085779562746</v>
       </c>
       <c r="J24">
-        <v>1.01662263887873</v>
+        <v>1.017154009954879</v>
       </c>
       <c r="K24">
-        <v>1.032924655112247</v>
+        <v>1.032941109299673</v>
       </c>
       <c r="L24">
-        <v>1.011614360096113</v>
+        <v>1.012142357365087</v>
       </c>
       <c r="M24">
-        <v>1.042090807384399</v>
+        <v>1.0421024318432</v>
       </c>
       <c r="N24">
-        <v>1.008985627057658</v>
+        <v>1.011578383195084</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041884439932809</v>
+        <v>1.041893639894869</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034402223812893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034427715754598</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021038552658598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9970521357229695</v>
+        <v>0.9970708278059608</v>
       </c>
       <c r="D25">
-        <v>1.024698042533869</v>
+        <v>1.024186843157064</v>
       </c>
       <c r="E25">
-        <v>1.004199164140136</v>
+        <v>1.004262207805554</v>
       </c>
       <c r="F25">
-        <v>1.033770996169984</v>
+        <v>1.033410585109228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05115407369339</v>
+        <v>1.050889413233909</v>
       </c>
       <c r="J25">
-        <v>1.021679116159345</v>
+        <v>1.021697173999765</v>
       </c>
       <c r="K25">
-        <v>1.036924680540879</v>
+        <v>1.036420943595392</v>
       </c>
       <c r="L25">
-        <v>1.016732641366074</v>
+        <v>1.01679471685484</v>
       </c>
       <c r="M25">
-        <v>1.045866742219914</v>
+        <v>1.045511475189705</v>
       </c>
       <c r="N25">
-        <v>1.010746260711896</v>
+        <v>1.012774596954162</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044872827319255</v>
+        <v>1.044591658923067</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037227583480543</v>
+        <v>1.036884951527256</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021809395412678</v>
       </c>
     </row>
   </sheetData>
